--- a/Documentation/Design/Cipher Models.xlsx
+++ b/Documentation/Design/Cipher Models.xlsx
@@ -4,36 +4,15 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="28755" windowHeight="12585"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="28755" windowHeight="12585" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Z340" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Z408" sheetId="2" r:id="rId2"/>
+    <sheet name="Test Substitution" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
-  <si>
-    <t>Ashish</t>
-  </si>
-  <si>
-    <t>Sanjay</t>
-  </si>
-  <si>
-    <t>Pongal</t>
-  </si>
-  <si>
-    <t>Suresh</t>
-  </si>
-  <si>
-    <t>Rajesh</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -407,8 +386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BN343"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -630,8 +609,8 @@
       </c>
       <c r="B4" s="2"/>
       <c r="D4" s="4">
-        <f t="array" ref="D4">SMALL(IF(A1:A340=D3,ROW(A1:A340)),ROW(1:1))</f>
-        <v>1</v>
+        <f>SMALL(IF(A1:A340=D3,ROW(A1:A340)),ROW(1:1))</f>
+        <v>0</v>
       </c>
       <c r="E4" s="4">
         <f t="array" ref="E4">SMALL(IF($A$1:$A$340=$E3,ROW($A$1:$A$340)),ROW(1:1))</f>
@@ -4231,93 +4210,4955 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:BN408"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
+    <row r="1" spans="1:66">
+      <c r="A1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:66">
+      <c r="A2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:66">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6">
+        <v>2</v>
+      </c>
+      <c r="F3" s="6">
+        <v>3</v>
+      </c>
+      <c r="G3" s="6">
+        <v>4</v>
+      </c>
+      <c r="H3" s="6">
+        <v>5</v>
+      </c>
+      <c r="I3" s="6">
+        <v>6</v>
+      </c>
+      <c r="J3" s="6">
+        <v>7</v>
+      </c>
+      <c r="K3" s="6">
+        <v>8</v>
+      </c>
+      <c r="L3" s="6">
+        <v>9</v>
+      </c>
+      <c r="M3" s="6">
+        <v>10</v>
+      </c>
+      <c r="N3" s="6">
+        <v>11</v>
+      </c>
+      <c r="O3" s="6">
+        <v>12</v>
+      </c>
+      <c r="P3" s="6">
+        <v>13</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>14</v>
+      </c>
+      <c r="R3" s="6">
+        <v>15</v>
+      </c>
+      <c r="S3" s="6">
+        <v>16</v>
+      </c>
+      <c r="T3" s="6">
+        <v>17</v>
+      </c>
+      <c r="U3" s="6">
+        <v>18</v>
+      </c>
+      <c r="V3" s="6">
+        <v>19</v>
+      </c>
+      <c r="W3" s="6">
+        <v>20</v>
+      </c>
+      <c r="X3" s="6">
+        <v>21</v>
+      </c>
+      <c r="Y3" s="6">
+        <v>22</v>
+      </c>
+      <c r="Z3" s="6">
+        <v>23</v>
+      </c>
+      <c r="AA3" s="6">
+        <v>24</v>
+      </c>
+      <c r="AB3" s="6">
+        <v>25</v>
+      </c>
+      <c r="AC3" s="6">
+        <v>26</v>
+      </c>
+      <c r="AD3" s="6">
+        <v>27</v>
+      </c>
+      <c r="AE3" s="6">
+        <v>28</v>
+      </c>
+      <c r="AF3" s="6">
+        <v>29</v>
+      </c>
+      <c r="AG3" s="6">
+        <v>30</v>
+      </c>
+      <c r="AH3" s="6">
+        <v>31</v>
+      </c>
+      <c r="AI3" s="6">
+        <v>32</v>
+      </c>
+      <c r="AJ3" s="6">
+        <v>33</v>
+      </c>
+      <c r="AK3" s="6">
+        <v>34</v>
+      </c>
+      <c r="AL3" s="6">
+        <v>35</v>
+      </c>
+      <c r="AM3" s="6">
+        <v>36</v>
+      </c>
+      <c r="AN3" s="6">
+        <v>37</v>
+      </c>
+      <c r="AO3" s="6">
+        <v>38</v>
+      </c>
+      <c r="AP3" s="6">
+        <v>39</v>
+      </c>
+      <c r="AQ3" s="6">
+        <v>40</v>
+      </c>
+      <c r="AR3" s="6">
+        <v>41</v>
+      </c>
+      <c r="AS3" s="6">
+        <v>42</v>
+      </c>
+      <c r="AT3" s="6">
+        <v>43</v>
+      </c>
+      <c r="AU3" s="6">
+        <v>44</v>
+      </c>
+      <c r="AV3" s="6">
+        <v>45</v>
+      </c>
+      <c r="AW3" s="6">
+        <v>46</v>
+      </c>
+      <c r="AX3" s="6">
+        <v>47</v>
+      </c>
+      <c r="AY3" s="6">
+        <v>48</v>
+      </c>
+      <c r="AZ3" s="6">
+        <v>49</v>
+      </c>
+      <c r="BA3" s="6">
+        <v>50</v>
+      </c>
+      <c r="BB3" s="6">
+        <v>51</v>
+      </c>
+      <c r="BC3" s="6">
+        <v>52</v>
+      </c>
+      <c r="BD3" s="6">
+        <v>53</v>
+      </c>
+      <c r="BE3" s="6">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:66">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="array" ref="D4">SMALL(IF($A$1:$A$408=$D$3,ROW($A$1:$A$408)),ROW(1:1))</f>
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="array" ref="E4">SMALL(IF($A$1:$A$408=$E$3,ROW($A$1:$A$408)),ROW(1:1))</f>
+        <v>2</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="array" ref="F4">SMALL(IF($A$1:$A$408=$F$3,ROW($A$1:$A$408)),ROW(1:1))</f>
+        <v>3</v>
+      </c>
+      <c r="G4" s="4">
+        <f t="array" ref="G4">SMALL(IF($A$1:$A$408=$G$3,ROW($A$1:$A$408)),ROW(1:1))</f>
+        <v>4</v>
+      </c>
+      <c r="H4" s="4">
+        <f t="array" ref="H4">SMALL(IF($A$1:$A$408=$H$3,ROW($A$1:$A$408)),ROW(1:1))</f>
+        <v>5</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="array" ref="I4">SMALL(IF($A$1:$A$408=$I$3,ROW($A$1:$A$408)),ROW(1:1))</f>
+        <v>7</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="array" ref="J4">SMALL(IF($A$1:$A$408=$J$3,ROW($A$1:$A$408)),ROW(1:1))</f>
+        <v>8</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="array" ref="K4">SMALL(IF($A$1:$A$408=$K$3,ROW($A$1:$A$408)),ROW(1:1))</f>
+        <v>10</v>
+      </c>
+      <c r="L4" s="4">
+        <f t="array" ref="L4">SMALL(IF($A$1:$A$408=$L$3,ROW($A$1:$A$408)),ROW(1:1))</f>
+        <v>11</v>
+      </c>
+      <c r="M4" s="4">
+        <f t="array" ref="M4">SMALL(IF($A$1:$A$408=$M$3,ROW($A$1:$A$408)),ROW(1:1))</f>
+        <v>12</v>
+      </c>
+      <c r="N4" s="4">
+        <f t="array" ref="N4">SMALL(IF($A$1:$A$408=$N$3,ROW($A$1:$A$408)),ROW(1:1))</f>
+        <v>13</v>
+      </c>
+      <c r="O4" s="4">
+        <f t="array" ref="O4">SMALL(IF($A$1:$A$408=$O$3,ROW($A$1:$A$408)),ROW(1:1))</f>
+        <v>14</v>
+      </c>
+      <c r="P4" s="4">
+        <f t="array" ref="P4">SMALL(IF($A$1:$A$408=$P$3,ROW($A$1:$A$408)),ROW(1:1))</f>
+        <v>15</v>
+      </c>
+      <c r="Q4" s="4">
+        <f t="array" ref="Q4">SMALL(IF($A$1:$A$408=$Q$3,ROW($A$1:$A$408)),ROW(1:1))</f>
+        <v>18</v>
+      </c>
+      <c r="R4" s="4">
+        <f t="array" ref="R4">SMALL(IF($A$1:$A$408=$R$3,ROW($A$1:$A$408)),ROW(1:1))</f>
+        <v>19</v>
+      </c>
+      <c r="S4" s="4">
+        <f t="array" ref="S4">SMALL(IF($A$1:$A$408=$S$3,ROW($A$1:$A$408)),ROW(1:1))</f>
+        <v>20</v>
+      </c>
+      <c r="T4" s="4">
+        <f t="array" ref="T4">SMALL(IF($A$1:$A$408=$T$3,ROW($A$1:$A$408)),ROW(1:1))</f>
+        <v>21</v>
+      </c>
+      <c r="U4" s="4">
+        <f t="array" ref="U4">SMALL(IF($A$1:$A$408=$U$3,ROW($A$1:$A$408)),ROW(1:1))</f>
+        <v>22</v>
+      </c>
+      <c r="V4" s="4">
+        <f t="array" ref="V4">SMALL(IF($A$1:$A$408=$V$3,ROW($A$1:$A$408)),ROW(1:1))</f>
+        <v>23</v>
+      </c>
+      <c r="W4" s="4">
+        <f t="array" ref="W4">SMALL(IF($A$1:$A$408=$W$3,ROW($A$1:$A$408)),ROW(1:1))</f>
+        <v>24</v>
+      </c>
+      <c r="X4" s="4">
+        <f t="array" ref="X4">SMALL(IF($A$1:$A$408=$X$3,ROW($A$1:$A$408)),ROW(1:1))</f>
+        <v>25</v>
+      </c>
+      <c r="Y4" s="4">
+        <f t="array" ref="Y4">SMALL(IF($A$1:$A$408=$Y$3,ROW($A$1:$A$408)),ROW(1:1))</f>
+        <v>27</v>
+      </c>
+      <c r="Z4" s="4">
+        <f t="array" ref="Z4">SMALL(IF($A$1:$A$408=$Z$3,ROW($A$1:$A$408)),ROW(1:1))</f>
+        <v>29</v>
+      </c>
+      <c r="AA4" s="4">
+        <f t="array" ref="AA4">SMALL(IF($A$1:$A$408=$AA$3,ROW($A$1:$A$408)),ROW(1:1))</f>
+        <v>30</v>
+      </c>
+      <c r="AB4" s="4">
+        <f t="array" ref="AB4">SMALL(IF($A$1:$A$408=$AB$3,ROW($A$1:$A$408)),ROW(1:1))</f>
+        <v>31</v>
+      </c>
+      <c r="AC4" s="4">
+        <f t="array" ref="AC4">SMALL(IF($A$1:$A$408=$AC$3,ROW($A$1:$A$408)),ROW(1:1))</f>
+        <v>32</v>
+      </c>
+      <c r="AD4" s="4">
+        <f t="array" ref="AD4">SMALL(IF($A$1:$A$408=$AD$3,ROW($A$1:$A$408)),ROW(1:1))</f>
+        <v>35</v>
+      </c>
+      <c r="AE4" s="4">
+        <f t="array" ref="AE4">SMALL(IF($A$1:$A$408=$AE$3,ROW($A$1:$A$408)),ROW(1:1))</f>
+        <v>36</v>
+      </c>
+      <c r="AF4" s="4">
+        <f t="array" ref="AF4">SMALL(IF($A$1:$A$408=$AF$3,ROW($A$1:$A$408)),ROW(1:1))</f>
+        <v>38</v>
+      </c>
+      <c r="AG4" s="4">
+        <f t="array" ref="AG4">SMALL(IF($A$1:$A$408=$AG$3,ROW($A$1:$A$408)),ROW(1:1))</f>
+        <v>40</v>
+      </c>
+      <c r="AH4" s="4">
+        <f t="array" ref="AH4">SMALL(IF($A$1:$A$408=$AH$3,ROW($A$1:$A$408)),ROW(1:1))</f>
+        <v>42</v>
+      </c>
+      <c r="AI4" s="4">
+        <f t="array" ref="AI4">SMALL(IF($A$1:$A$408=$AI$3,ROW($A$1:$A$408)),ROW(1:1))</f>
+        <v>44</v>
+      </c>
+      <c r="AJ4" s="4">
+        <f t="array" ref="AJ4">SMALL(IF($A$1:$A$408=$AJ$3,ROW($A$1:$A$408)),ROW(1:1))</f>
+        <v>45</v>
+      </c>
+      <c r="AK4" s="4">
+        <f t="array" ref="AK4">SMALL(IF($A$1:$A$408=$AK$3,ROW($A$1:$A$408)),ROW(1:1))</f>
+        <v>46</v>
+      </c>
+      <c r="AL4" s="4">
+        <f t="array" ref="AL4">SMALL(IF($A$1:$A$408=$AL$3,ROW($A$1:$A$408)),ROW(1:1))</f>
+        <v>47</v>
+      </c>
+      <c r="AM4" s="4">
+        <f t="array" ref="AM4">SMALL(IF($A$1:$A$408=$AM$3,ROW($A$1:$A$408)),ROW(1:1))</f>
+        <v>49</v>
+      </c>
+      <c r="AN4" s="4">
+        <f t="array" ref="AN4">SMALL(IF($A$1:$A$408=$AN$3,ROW($A$1:$A$408)),ROW(1:1))</f>
+        <v>50</v>
+      </c>
+      <c r="AO4" s="4">
+        <f t="array" ref="AO4">SMALL(IF($A$1:$A$408=$AO$3,ROW($A$1:$A$408)),ROW(1:1))</f>
+        <v>51</v>
+      </c>
+      <c r="AP4" s="4">
+        <f t="array" ref="AP4">SMALL(IF($A$1:$A$408=$AP$3,ROW($A$1:$A$408)),ROW(1:1))</f>
+        <v>52</v>
+      </c>
+      <c r="AQ4" s="4">
+        <f t="array" ref="AQ4">SMALL(IF($A$1:$A$408=$AQ$3,ROW($A$1:$A$408)),ROW(1:1))</f>
+        <v>53</v>
+      </c>
+      <c r="AR4" s="4">
+        <f t="array" ref="AR4">SMALL(IF($A$1:$A$408=$AR$3,ROW($A$1:$A$408)),ROW(1:1))</f>
+        <v>56</v>
+      </c>
+      <c r="AS4" s="4">
+        <f t="array" ref="AS4">SMALL(IF($A$1:$A$408=$AS$3,ROW($A$1:$A$408)),ROW(1:1))</f>
+        <v>61</v>
+      </c>
+      <c r="AT4" s="4">
+        <f t="array" ref="AT4">SMALL(IF($A$1:$A$408=$AT$3,ROW($A$1:$A$408)),ROW(1:1))</f>
+        <v>64</v>
+      </c>
+      <c r="AU4" s="4">
+        <f t="array" ref="AU4">SMALL(IF($A$1:$A$408=$AU$3,ROW($A$1:$A$408)),ROW(1:1))</f>
+        <v>66</v>
+      </c>
+      <c r="AV4" s="4">
+        <f t="array" ref="AV4">SMALL(IF($A$1:$A$408=$AV$3,ROW($A$1:$A$408)),ROW(1:1))</f>
+        <v>68</v>
+      </c>
+      <c r="AW4" s="4">
+        <f t="array" ref="AW4">SMALL(IF($A$1:$A$408=$AW$3,ROW($A$1:$A$408)),ROW(1:1))</f>
+        <v>71</v>
+      </c>
+      <c r="AX4" s="4">
+        <f t="array" ref="AX4">SMALL(IF($A$1:$A$408=$AX$3,ROW($A$1:$A$408)),ROW(1:1))</f>
+        <v>75</v>
+      </c>
+      <c r="AY4" s="4">
+        <f t="array" ref="AY4">SMALL(IF($A$1:$A$408=$AY$3,ROW($A$1:$A$408)),ROW(1:1))</f>
+        <v>76</v>
+      </c>
+      <c r="AZ4" s="4">
+        <f t="array" ref="AZ4">SMALL(IF($A$1:$A$408=$AZ$3,ROW($A$1:$A$408)),ROW(1:1))</f>
+        <v>77</v>
+      </c>
+      <c r="BA4" s="4">
+        <f t="array" ref="BA4">SMALL(IF($A$1:$A$408=$BA$3,ROW($A$1:$A$408)),ROW(1:1))</f>
+        <v>100</v>
+      </c>
+      <c r="BB4" s="4">
+        <f t="array" ref="BB4">SMALL(IF($A$1:$A$408=$BB$3,ROW($A$1:$A$408)),ROW(1:1))</f>
+        <v>137</v>
+      </c>
+      <c r="BC4" s="4">
+        <f t="array" ref="BC4">SMALL(IF($A$1:$A$408=$BC$3,ROW($A$1:$A$408)),ROW(1:1))</f>
+        <v>159</v>
+      </c>
+      <c r="BD4" s="4">
+        <f t="array" ref="BD4">SMALL(IF($A$1:$A$408=$BD$3,ROW($A$1:$A$408)),ROW(1:1))</f>
+        <v>192</v>
+      </c>
+      <c r="BE4" s="4">
+        <f t="array" ref="BE4">SMALL(IF($A$1:$A$408=$BE$3,ROW($A$1:$A$408)),ROW(1:1))</f>
+        <v>265</v>
+      </c>
+      <c r="BF4" s="4"/>
+      <c r="BG4" s="4"/>
+      <c r="BH4" s="4"/>
+      <c r="BI4" s="4"/>
+      <c r="BJ4" s="4"/>
+      <c r="BK4" s="4"/>
+      <c r="BL4" s="4"/>
+      <c r="BM4" s="4"/>
+      <c r="BN4" s="4"/>
+    </row>
+    <row r="5" spans="1:66">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="array" ref="D5">SMALL(IF($A$1:$A$408=$D$3,ROW($A$1:$A$408)),ROW(2:2))</f>
+        <v>26</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="array" ref="E5">SMALL(IF($A$1:$A$408=$E$3,ROW($A$1:$A$408)),ROW(2:2))</f>
+        <v>9</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="array" ref="F5">SMALL(IF($A$1:$A$408=$F$3,ROW($A$1:$A$408)),ROW(2:2))</f>
+        <v>28</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="array" ref="G5">SMALL(IF($A$1:$A$408=$G$3,ROW($A$1:$A$408)),ROW(2:2))</f>
+        <v>6</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="array" ref="H5">SMALL(IF($A$1:$A$408=$H$3,ROW($A$1:$A$408)),ROW(2:2))</f>
+        <v>73</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="array" ref="I5">SMALL(IF($A$1:$A$408=$I$3,ROW($A$1:$A$408)),ROW(2:2))</f>
+        <v>39</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="array" ref="J5">SMALL(IF($A$1:$A$408=$J$3,ROW($A$1:$A$408)),ROW(2:2))</f>
+        <v>17</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="array" ref="K5">SMALL(IF($A$1:$A$408=$K$3,ROW($A$1:$A$408)),ROW(2:2))</f>
+        <v>41</v>
+      </c>
+      <c r="L5" s="4">
+        <f t="array" ref="L5">SMALL(IF($A$1:$A$408=$L$3,ROW($A$1:$A$408)),ROW(2:2))</f>
+        <v>59</v>
+      </c>
+      <c r="M5" s="4">
+        <f t="array" ref="M5">SMALL(IF($A$1:$A$408=$M$3,ROW($A$1:$A$408)),ROW(2:2))</f>
+        <v>60</v>
+      </c>
+      <c r="N5" s="4">
+        <f t="array" ref="N5">SMALL(IF($A$1:$A$408=$N$3,ROW($A$1:$A$408)),ROW(2:2))</f>
+        <v>16</v>
+      </c>
+      <c r="O5" s="4">
+        <f t="array" ref="O5">SMALL(IF($A$1:$A$408=$O$3,ROW($A$1:$A$408)),ROW(2:2))</f>
+        <v>78</v>
+      </c>
+      <c r="P5" s="4">
+        <f t="array" ref="P5">SMALL(IF($A$1:$A$408=$P$3,ROW($A$1:$A$408)),ROW(2:2))</f>
+        <v>97</v>
+      </c>
+      <c r="Q5" s="4">
+        <f t="array" ref="Q5">SMALL(IF($A$1:$A$408=$Q$3,ROW($A$1:$A$408)),ROW(2:2))</f>
+        <v>82</v>
+      </c>
+      <c r="R5" s="4">
+        <f t="array" ref="R5">SMALL(IF($A$1:$A$408=$R$3,ROW($A$1:$A$408)),ROW(2:2))</f>
+        <v>81</v>
+      </c>
+      <c r="S5" s="4">
+        <f t="array" ref="S5">SMALL(IF($A$1:$A$408=$S$3,ROW($A$1:$A$408)),ROW(2:2))</f>
+        <v>87</v>
+      </c>
+      <c r="T5" s="4">
+        <f t="array" ref="T5">SMALL(IF($A$1:$A$408=$T$3,ROW($A$1:$A$408)),ROW(2:2))</f>
+        <v>34</v>
+      </c>
+      <c r="U5" s="4">
+        <f t="array" ref="U5">SMALL(IF($A$1:$A$408=$U$3,ROW($A$1:$A$408)),ROW(2:2))</f>
+        <v>89</v>
+      </c>
+      <c r="V5" s="4">
+        <f t="array" ref="V5">SMALL(IF($A$1:$A$408=$V$3,ROW($A$1:$A$408)),ROW(2:2))</f>
+        <v>33</v>
+      </c>
+      <c r="W5" s="4">
+        <f t="array" ref="W5">SMALL(IF($A$1:$A$408=$W$3,ROW($A$1:$A$408)),ROW(2:2))</f>
+        <v>79</v>
+      </c>
+      <c r="X5" s="4">
+        <f t="array" ref="X5">SMALL(IF($A$1:$A$408=$X$3,ROW($A$1:$A$408)),ROW(2:2))</f>
+        <v>95</v>
+      </c>
+      <c r="Y5" s="4">
+        <f t="array" ref="Y5">SMALL(IF($A$1:$A$408=$Y$3,ROW($A$1:$A$408)),ROW(2:2))</f>
+        <v>80</v>
+      </c>
+      <c r="Z5" s="4">
+        <f t="array" ref="Z5">SMALL(IF($A$1:$A$408=$Z$3,ROW($A$1:$A$408)),ROW(2:2))</f>
+        <v>86</v>
+      </c>
+      <c r="AA5" s="4">
+        <f t="array" ref="AA5">SMALL(IF($A$1:$A$408=$AA$3,ROW($A$1:$A$408)),ROW(2:2))</f>
+        <v>92</v>
+      </c>
+      <c r="AB5" s="4">
+        <f t="array" ref="AB5">SMALL(IF($A$1:$A$408=$AB$3,ROW($A$1:$A$408)),ROW(2:2))</f>
+        <v>106</v>
+      </c>
+      <c r="AC5" s="4">
+        <f t="array" ref="AC5">SMALL(IF($A$1:$A$408=$AC$3,ROW($A$1:$A$408)),ROW(2:2))</f>
+        <v>43</v>
+      </c>
+      <c r="AD5" s="4">
+        <f t="array" ref="AD5">SMALL(IF($A$1:$A$408=$AD$3,ROW($A$1:$A$408)),ROW(2:2))</f>
+        <v>72</v>
+      </c>
+      <c r="AE5" s="4">
+        <f t="array" ref="AE5">SMALL(IF($A$1:$A$408=$AE$3,ROW($A$1:$A$408)),ROW(2:2))</f>
+        <v>74</v>
+      </c>
+      <c r="AF5" s="4">
+        <f t="array" ref="AF5">SMALL(IF($A$1:$A$408=$AF$3,ROW($A$1:$A$408)),ROW(2:2))</f>
+        <v>70</v>
+      </c>
+      <c r="AG5" s="4">
+        <f t="array" ref="AG5">SMALL(IF($A$1:$A$408=$AG$3,ROW($A$1:$A$408)),ROW(2:2))</f>
+        <v>93</v>
+      </c>
+      <c r="AH5" s="4">
+        <f t="array" ref="AH5">SMALL(IF($A$1:$A$408=$AH$3,ROW($A$1:$A$408)),ROW(2:2))</f>
+        <v>84</v>
+      </c>
+      <c r="AI5" s="4">
+        <f t="array" ref="AI5">SMALL(IF($A$1:$A$408=$AI$3,ROW($A$1:$A$408)),ROW(2:2))</f>
+        <v>115</v>
+      </c>
+      <c r="AJ5" s="4">
+        <f t="array" ref="AJ5">SMALL(IF($A$1:$A$408=$AJ$3,ROW($A$1:$A$408)),ROW(2:2))</f>
+        <v>105</v>
+      </c>
+      <c r="AK5" s="4">
+        <f t="array" ref="AK5">SMALL(IF($A$1:$A$408=$AK$3,ROW($A$1:$A$408)),ROW(2:2))</f>
+        <v>104</v>
+      </c>
+      <c r="AL5" s="4">
+        <f t="array" ref="AL5">SMALL(IF($A$1:$A$408=$AL$3,ROW($A$1:$A$408)),ROW(2:2))</f>
+        <v>116</v>
+      </c>
+      <c r="AM5" s="4">
+        <f t="array" ref="AM5">SMALL(IF($A$1:$A$408=$AM$3,ROW($A$1:$A$408)),ROW(2:2))</f>
+        <v>90</v>
+      </c>
+      <c r="AN5" s="4">
+        <f t="array" ref="AN5">SMALL(IF($A$1:$A$408=$AN$3,ROW($A$1:$A$408)),ROW(2:2))</f>
+        <v>99</v>
+      </c>
+      <c r="AO5" s="4">
+        <f t="array" ref="AO5">SMALL(IF($A$1:$A$408=$AO$3,ROW($A$1:$A$408)),ROW(2:2))</f>
+        <v>94</v>
+      </c>
+      <c r="AP5" s="4">
+        <f t="array" ref="AP5">SMALL(IF($A$1:$A$408=$AP$3,ROW($A$1:$A$408)),ROW(2:2))</f>
+        <v>101</v>
+      </c>
+      <c r="AQ5" s="4">
+        <f t="array" ref="AQ5">SMALL(IF($A$1:$A$408=$AQ$3,ROW($A$1:$A$408)),ROW(2:2))</f>
+        <v>102</v>
+      </c>
+      <c r="AR5" s="4">
+        <f t="array" ref="AR5">SMALL(IF($A$1:$A$408=$AR$3,ROW($A$1:$A$408)),ROW(2:2))</f>
+        <v>118</v>
+      </c>
+      <c r="AS5" s="4">
+        <f t="array" ref="AS5">SMALL(IF($A$1:$A$408=$AS$3,ROW($A$1:$A$408)),ROW(2:2))</f>
+        <v>204</v>
+      </c>
+      <c r="AT5" s="4">
+        <f t="array" ref="AT5">SMALL(IF($A$1:$A$408=$AT$3,ROW($A$1:$A$408)),ROW(2:2))</f>
+        <v>261</v>
+      </c>
+      <c r="AU5" s="4">
+        <f t="array" ref="AU5">SMALL(IF($A$1:$A$408=$AU$3,ROW($A$1:$A$408)),ROW(2:2))</f>
+        <v>109</v>
+      </c>
+      <c r="AV5" s="4">
+        <f t="array" ref="AV5">SMALL(IF($A$1:$A$408=$AV$3,ROW($A$1:$A$408)),ROW(2:2))</f>
+        <v>108</v>
+      </c>
+      <c r="AW5" s="4">
+        <f t="array" ref="AW5">SMALL(IF($A$1:$A$408=$AW$3,ROW($A$1:$A$408)),ROW(2:2))</f>
+        <v>120</v>
+      </c>
+      <c r="AX5" s="4">
+        <f t="array" ref="AX5">SMALL(IF($A$1:$A$408=$AX$3,ROW($A$1:$A$408)),ROW(2:2))</f>
+        <v>121</v>
+      </c>
+      <c r="AY5" s="4">
+        <f t="array" ref="AY5">SMALL(IF($A$1:$A$408=$AY$3,ROW($A$1:$A$408)),ROW(2:2))</f>
+        <v>151</v>
+      </c>
+      <c r="AZ5" s="4">
+        <f t="array" ref="AZ5">SMALL(IF($A$1:$A$408=$AZ$3,ROW($A$1:$A$408)),ROW(2:2))</f>
+        <v>162</v>
+      </c>
+      <c r="BA5" s="4">
+        <f t="array" ref="BA5">SMALL(IF($A$1:$A$408=$BA$3,ROW($A$1:$A$408)),ROW(2:2))</f>
+        <v>239</v>
+      </c>
+      <c r="BB5" s="4">
+        <f t="array" ref="BB5">SMALL(IF($A$1:$A$408=$BB$3,ROW($A$1:$A$408)),ROW(2:2))</f>
+        <v>172</v>
+      </c>
+      <c r="BC5" s="4"/>
+      <c r="BD5" s="4">
+        <f t="array" ref="BD5">SMALL(IF($A$1:$A$408=$BD$3,ROW($A$1:$A$408)),ROW(2:2))</f>
+        <v>296</v>
+      </c>
+      <c r="BE5" s="4">
+        <f t="array" ref="BE5">SMALL(IF($A$1:$A$408=$BE$3,ROW($A$1:$A$408)),ROW(2:2))</f>
+        <v>353</v>
+      </c>
+      <c r="BF5" s="4"/>
+      <c r="BG5" s="4"/>
+      <c r="BH5" s="4"/>
+      <c r="BI5" s="4"/>
+      <c r="BJ5" s="4"/>
+      <c r="BK5" s="4"/>
+      <c r="BL5" s="4"/>
+      <c r="BM5" s="4"/>
+      <c r="BN5" s="4"/>
+    </row>
+    <row r="6" spans="1:66">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="array" ref="D6">SMALL(IF($A$1:$A$408=$D$3,ROW($A$1:$A$408)),ROW(3:3))</f>
+        <v>55</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="array" ref="E6">SMALL(IF($A$1:$A$408=$E$3,ROW($A$1:$A$408)),ROW(3:3))</f>
+        <v>63</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="array" ref="F6">SMALL(IF($A$1:$A$408=$F$3,ROW($A$1:$A$408)),ROW(3:3))</f>
+        <v>58</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="array" ref="G6">SMALL(IF($A$1:$A$408=$G$3,ROW($A$1:$A$408)),ROW(3:3))</f>
+        <v>54</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="array" ref="H6">SMALL(IF($A$1:$A$408=$H$3,ROW($A$1:$A$408)),ROW(3:3))</f>
+        <v>138</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="array" ref="I6">SMALL(IF($A$1:$A$408=$I$3,ROW($A$1:$A$408)),ROW(3:3))</f>
+        <v>62</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="array" ref="J6">SMALL(IF($A$1:$A$408=$J$3,ROW($A$1:$A$408)),ROW(3:3))</f>
+        <v>57</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="array" ref="K6">SMALL(IF($A$1:$A$408=$K$3,ROW($A$1:$A$408)),ROW(3:3))</f>
+        <v>69</v>
+      </c>
+      <c r="L6" s="4">
+        <f t="array" ref="L6">SMALL(IF($A$1:$A$408=$L$3,ROW($A$1:$A$408)),ROW(3:3))</f>
+        <v>110</v>
+      </c>
+      <c r="M6" s="4">
+        <f t="array" ref="M6">SMALL(IF($A$1:$A$408=$M$3,ROW($A$1:$A$408)),ROW(3:3))</f>
+        <v>65</v>
+      </c>
+      <c r="N6" s="4">
+        <f t="array" ref="N6">SMALL(IF($A$1:$A$408=$N$3,ROW($A$1:$A$408)),ROW(3:3))</f>
+        <v>160</v>
+      </c>
+      <c r="O6" s="4">
+        <f t="array" ref="O6">SMALL(IF($A$1:$A$408=$O$3,ROW($A$1:$A$408)),ROW(3:3))</f>
+        <v>141</v>
+      </c>
+      <c r="P6" s="4">
+        <f t="array" ref="P6">SMALL(IF($A$1:$A$408=$P$3,ROW($A$1:$A$408)),ROW(3:3))</f>
+        <v>127</v>
+      </c>
+      <c r="Q6" s="4">
+        <f t="array" ref="Q6">SMALL(IF($A$1:$A$408=$Q$3,ROW($A$1:$A$408)),ROW(3:3))</f>
+        <v>144</v>
+      </c>
+      <c r="R6" s="4">
+        <f t="array" ref="R6">SMALL(IF($A$1:$A$408=$R$3,ROW($A$1:$A$408)),ROW(3:3))</f>
+        <v>175</v>
+      </c>
+      <c r="S6" s="4">
+        <f t="array" ref="S6">SMALL(IF($A$1:$A$408=$S$3,ROW($A$1:$A$408)),ROW(3:3))</f>
+        <v>158</v>
+      </c>
+      <c r="T6" s="4">
+        <f t="array" ref="T6">SMALL(IF($A$1:$A$408=$T$3,ROW($A$1:$A$408)),ROW(3:3))</f>
+        <v>83</v>
+      </c>
+      <c r="U6" s="4">
+        <f t="array" ref="U6">SMALL(IF($A$1:$A$408=$U$3,ROW($A$1:$A$408)),ROW(3:3))</f>
+        <v>113</v>
+      </c>
+      <c r="V6" s="4">
+        <f t="array" ref="V6">SMALL(IF($A$1:$A$408=$V$3,ROW($A$1:$A$408)),ROW(3:3))</f>
+        <v>37</v>
+      </c>
+      <c r="W6" s="4">
+        <f t="array" ref="W6">SMALL(IF($A$1:$A$408=$W$3,ROW($A$1:$A$408)),ROW(3:3))</f>
+        <v>170</v>
+      </c>
+      <c r="X6" s="4">
+        <f t="array" ref="X6">SMALL(IF($A$1:$A$408=$X$3,ROW($A$1:$A$408)),ROW(3:3))</f>
+        <v>161</v>
+      </c>
+      <c r="Y6" s="4">
+        <f t="array" ref="Y6">SMALL(IF($A$1:$A$408=$Y$3,ROW($A$1:$A$408)),ROW(3:3))</f>
+        <v>130</v>
+      </c>
+      <c r="Z6" s="4">
+        <f t="array" ref="Z6">SMALL(IF($A$1:$A$408=$Z$3,ROW($A$1:$A$408)),ROW(3:3))</f>
+        <v>126</v>
+      </c>
+      <c r="AA6" s="4">
+        <f t="array" ref="AA6">SMALL(IF($A$1:$A$408=$AA$3,ROW($A$1:$A$408)),ROW(3:3))</f>
+        <v>139</v>
+      </c>
+      <c r="AB6" s="4">
+        <f t="array" ref="AB6">SMALL(IF($A$1:$A$408=$AB$3,ROW($A$1:$A$408)),ROW(3:3))</f>
+        <v>146</v>
+      </c>
+      <c r="AC6" s="4">
+        <f t="array" ref="AC6">SMALL(IF($A$1:$A$408=$AC$3,ROW($A$1:$A$408)),ROW(3:3))</f>
+        <v>67</v>
+      </c>
+      <c r="AD6" s="4">
+        <f t="array" ref="AD6">SMALL(IF($A$1:$A$408=$AD$3,ROW($A$1:$A$408)),ROW(3:3))</f>
+        <v>131</v>
+      </c>
+      <c r="AE6" s="4">
+        <f t="array" ref="AE6">SMALL(IF($A$1:$A$408=$AE$3,ROW($A$1:$A$408)),ROW(3:3))</f>
+        <v>202</v>
+      </c>
+      <c r="AF6" s="4">
+        <f t="array" ref="AF6">SMALL(IF($A$1:$A$408=$AF$3,ROW($A$1:$A$408)),ROW(3:3))</f>
+        <v>133</v>
+      </c>
+      <c r="AG6" s="4">
+        <f t="array" ref="AG6">SMALL(IF($A$1:$A$408=$AG$3,ROW($A$1:$A$408)),ROW(3:3))</f>
+        <v>142</v>
+      </c>
+      <c r="AH6" s="4">
+        <f t="array" ref="AH6">SMALL(IF($A$1:$A$408=$AH$3,ROW($A$1:$A$408)),ROW(3:3))</f>
+        <v>98</v>
+      </c>
+      <c r="AI6" s="4">
+        <f t="array" ref="AI6">SMALL(IF($A$1:$A$408=$AI$3,ROW($A$1:$A$408)),ROW(3:3))</f>
+        <v>193</v>
+      </c>
+      <c r="AJ6" s="4">
+        <f t="array" ref="AJ6">SMALL(IF($A$1:$A$408=$AJ$3,ROW($A$1:$A$408)),ROW(3:3))</f>
+        <v>180</v>
+      </c>
+      <c r="AK6" s="4">
+        <f t="array" ref="AK6">SMALL(IF($A$1:$A$408=$AK$3,ROW($A$1:$A$408)),ROW(3:3))</f>
+        <v>163</v>
+      </c>
+      <c r="AL6" s="4">
+        <f t="array" ref="AL6">SMALL(IF($A$1:$A$408=$AL$3,ROW($A$1:$A$408)),ROW(3:3))</f>
+        <v>203</v>
+      </c>
+      <c r="AM6" s="4">
+        <f t="array" ref="AM6">SMALL(IF($A$1:$A$408=$AM$3,ROW($A$1:$A$408)),ROW(3:3))</f>
+        <v>156</v>
+      </c>
+      <c r="AN6" s="4">
+        <f t="array" ref="AN6">SMALL(IF($A$1:$A$408=$AN$3,ROW($A$1:$A$408)),ROW(3:3))</f>
+        <v>148</v>
+      </c>
+      <c r="AO6" s="4">
+        <f t="array" ref="AO6">SMALL(IF($A$1:$A$408=$AO$3,ROW($A$1:$A$408)),ROW(3:3))</f>
+        <v>143</v>
+      </c>
+      <c r="AP6" s="4">
+        <f t="array" ref="AP6">SMALL(IF($A$1:$A$408=$AP$3,ROW($A$1:$A$408)),ROW(3:3))</f>
+        <v>117</v>
+      </c>
+      <c r="AQ6" s="4">
+        <f t="array" ref="AQ6">SMALL(IF($A$1:$A$408=$AQ$3,ROW($A$1:$A$408)),ROW(3:3))</f>
+        <v>164</v>
+      </c>
+      <c r="AR6" s="4">
+        <f t="array" ref="AR6">SMALL(IF($A$1:$A$408=$AR$3,ROW($A$1:$A$408)),ROW(3:3))</f>
+        <v>124</v>
+      </c>
+      <c r="AS6" s="4">
+        <f t="array" ref="AS6">SMALL(IF($A$1:$A$408=$AS$3,ROW($A$1:$A$408)),ROW(3:3))</f>
         <v>234</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="AT6" s="4">
+        <f t="array" ref="AT6">SMALL(IF($A$1:$A$408=$AT$3,ROW($A$1:$A$408)),ROW(3:3))</f>
+        <v>284</v>
+      </c>
+      <c r="AU6" s="4">
+        <f t="array" ref="AU6">SMALL(IF($A$1:$A$408=$AU$3,ROW($A$1:$A$408)),ROW(3:3))</f>
+        <v>232</v>
+      </c>
+      <c r="AV6" s="4">
+        <f t="array" ref="AV6">SMALL(IF($A$1:$A$408=$AV$3,ROW($A$1:$A$408)),ROW(3:3))</f>
+        <v>129</v>
+      </c>
+      <c r="AW6" s="4">
+        <f t="array" ref="AW6">SMALL(IF($A$1:$A$408=$AW$3,ROW($A$1:$A$408)),ROW(3:3))</f>
+        <v>149</v>
+      </c>
+      <c r="AX6" s="4">
+        <f t="array" ref="AX6">SMALL(IF($A$1:$A$408=$AX$3,ROW($A$1:$A$408)),ROW(3:3))</f>
+        <v>197</v>
+      </c>
+      <c r="AY6" s="4">
+        <f t="array" ref="AY6">SMALL(IF($A$1:$A$408=$AY$3,ROW($A$1:$A$408)),ROW(3:3))</f>
+        <v>195</v>
+      </c>
+      <c r="AZ6" s="4">
+        <f t="array" ref="AZ6">SMALL(IF($A$1:$A$408=$AZ$3,ROW($A$1:$A$408)),ROW(3:3))</f>
+        <v>196</v>
+      </c>
+      <c r="BA6" s="4">
+        <f t="array" ref="BA6">SMALL(IF($A$1:$A$408=$BA$3,ROW($A$1:$A$408)),ROW(3:3))</f>
+        <v>267</v>
+      </c>
+      <c r="BB6" s="4">
+        <f t="array" ref="BB6">SMALL(IF($A$1:$A$408=$BB$3,ROW($A$1:$A$408)),ROW(3:3))</f>
+        <v>277</v>
+      </c>
+      <c r="BC6" s="4"/>
+      <c r="BD6" s="4">
+        <f t="array" ref="BD6">SMALL(IF($A$1:$A$408=$BD$3,ROW($A$1:$A$408)),ROW(3:3))</f>
+        <v>315</v>
+      </c>
+      <c r="BE6" s="4"/>
+      <c r="BF6" s="4"/>
+      <c r="BG6" s="4"/>
+      <c r="BH6" s="4"/>
+      <c r="BI6" s="4"/>
+      <c r="BJ6" s="4"/>
+      <c r="BK6" s="4"/>
+      <c r="BL6" s="4"/>
+      <c r="BM6" s="4"/>
+      <c r="BN6" s="4"/>
+    </row>
+    <row r="7" spans="1:66">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="array" ref="D7">SMALL(IF($A$1:$A$408=$D$3,ROW($A$1:$A$408)),ROW(4:4))</f>
+        <v>91</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="array" ref="E7">SMALL(IF($A$1:$A$408=$E$3,ROW($A$1:$A$408)),ROW(4:4))</f>
+        <v>212</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="array" ref="F7">SMALL(IF($A$1:$A$408=$F$3,ROW($A$1:$A$408)),ROW(4:4))</f>
+        <v>123</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="array" ref="G7">SMALL(IF($A$1:$A$408=$G$3,ROW($A$1:$A$408)),ROW(4:4))</f>
+        <v>122</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="array" ref="H7">SMALL(IF($A$1:$A$408=$H$3,ROW($A$1:$A$408)),ROW(4:4))</f>
+        <v>171</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="array" ref="I7">SMALL(IF($A$1:$A$408=$I$3,ROW($A$1:$A$408)),ROW(4:4))</f>
+        <v>132</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="array" ref="J7">SMALL(IF($A$1:$A$408=$J$3,ROW($A$1:$A$408)),ROW(4:4))</f>
+        <v>114</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="array" ref="K7">SMALL(IF($A$1:$A$408=$K$3,ROW($A$1:$A$408)),ROW(4:4))</f>
+        <v>136</v>
+      </c>
+      <c r="L7" s="4">
+        <f t="array" ref="L7">SMALL(IF($A$1:$A$408=$L$3,ROW($A$1:$A$408)),ROW(4:4))</f>
+        <v>174</v>
+      </c>
+      <c r="M7" s="4">
+        <f t="array" ref="M7">SMALL(IF($A$1:$A$408=$M$3,ROW($A$1:$A$408)),ROW(4:4))</f>
+        <v>103</v>
+      </c>
+      <c r="N7" s="4">
+        <f t="array" ref="N7">SMALL(IF($A$1:$A$408=$N$3,ROW($A$1:$A$408)),ROW(4:4))</f>
+        <v>220</v>
+      </c>
+      <c r="O7" s="4">
+        <f t="array" ref="O7">SMALL(IF($A$1:$A$408=$O$3,ROW($A$1:$A$408)),ROW(4:4))</f>
+        <v>173</v>
+      </c>
+      <c r="P7" s="4">
+        <f t="array" ref="P7">SMALL(IF($A$1:$A$408=$P$3,ROW($A$1:$A$408)),ROW(4:4))</f>
+        <v>201</v>
+      </c>
+      <c r="Q7" s="4">
+        <f t="array" ref="Q7">SMALL(IF($A$1:$A$408=$Q$3,ROW($A$1:$A$408)),ROW(4:4))</f>
+        <v>176</v>
+      </c>
+      <c r="R7" s="4">
+        <f t="array" ref="R7">SMALL(IF($A$1:$A$408=$R$3,ROW($A$1:$A$408)),ROW(4:4))</f>
+        <v>216</v>
+      </c>
+      <c r="S7" s="4">
+        <f t="array" ref="S7">SMALL(IF($A$1:$A$408=$S$3,ROW($A$1:$A$408)),ROW(4:4))</f>
+        <v>179</v>
+      </c>
+      <c r="T7" s="4">
+        <f t="array" ref="T7">SMALL(IF($A$1:$A$408=$T$3,ROW($A$1:$A$408)),ROW(4:4))</f>
+        <v>165</v>
+      </c>
+      <c r="U7" s="4">
+        <f t="array" ref="U7">SMALL(IF($A$1:$A$408=$U$3,ROW($A$1:$A$408)),ROW(4:4))</f>
+        <v>221</v>
+      </c>
+      <c r="V7" s="4">
+        <f t="array" ref="V7">SMALL(IF($A$1:$A$408=$V$3,ROW($A$1:$A$408)),ROW(4:4))</f>
+        <v>48</v>
+      </c>
+      <c r="W7" s="4">
+        <f t="array" ref="W7">SMALL(IF($A$1:$A$408=$W$3,ROW($A$1:$A$408)),ROW(4:4))</f>
+        <v>297</v>
+      </c>
+      <c r="X7" s="4">
+        <f t="array" ref="X7">SMALL(IF($A$1:$A$408=$X$3,ROW($A$1:$A$408)),ROW(4:4))</f>
+        <v>186</v>
+      </c>
+      <c r="Y7" s="4">
+        <f t="array" ref="Y7">SMALL(IF($A$1:$A$408=$Y$3,ROW($A$1:$A$408)),ROW(4:4))</f>
+        <v>168</v>
+      </c>
+      <c r="Z7" s="4">
+        <f t="array" ref="Z7">SMALL(IF($A$1:$A$408=$Z$3,ROW($A$1:$A$408)),ROW(4:4))</f>
+        <v>200</v>
+      </c>
+      <c r="AA7" s="4">
+        <f t="array" ref="AA7">SMALL(IF($A$1:$A$408=$AA$3,ROW($A$1:$A$408)),ROW(4:4))</f>
+        <v>218</v>
+      </c>
+      <c r="AB7" s="4">
+        <f t="array" ref="AB7">SMALL(IF($A$1:$A$408=$AB$3,ROW($A$1:$A$408)),ROW(4:4))</f>
+        <v>224</v>
+      </c>
+      <c r="AC7" s="4">
+        <f t="array" ref="AC7">SMALL(IF($A$1:$A$408=$AC$3,ROW($A$1:$A$408)),ROW(4:4))</f>
+        <v>88</v>
+      </c>
+      <c r="AD7" s="4">
+        <f t="array" ref="AD7">SMALL(IF($A$1:$A$408=$AD$3,ROW($A$1:$A$408)),ROW(4:4))</f>
+        <v>150</v>
+      </c>
+      <c r="AE7" s="4">
+        <f t="array" ref="AE7">SMALL(IF($A$1:$A$408=$AE$3,ROW($A$1:$A$408)),ROW(4:4))</f>
+        <v>225</v>
+      </c>
+      <c r="AF7" s="4">
+        <f t="array" ref="AF7">SMALL(IF($A$1:$A$408=$AF$3,ROW($A$1:$A$408)),ROW(4:4))</f>
+        <v>184</v>
+      </c>
+      <c r="AG7" s="4">
+        <f t="array" ref="AG7">SMALL(IF($A$1:$A$408=$AG$3,ROW($A$1:$A$408)),ROW(4:4))</f>
+        <v>177</v>
+      </c>
+      <c r="AH7" s="4">
+        <f t="array" ref="AH7">SMALL(IF($A$1:$A$408=$AH$3,ROW($A$1:$A$408)),ROW(4:4))</f>
+        <v>111</v>
+      </c>
+      <c r="AI7" s="4">
+        <f t="array" ref="AI7">SMALL(IF($A$1:$A$408=$AI$3,ROW($A$1:$A$408)),ROW(4:4))</f>
+        <v>252</v>
+      </c>
+      <c r="AJ7" s="4">
+        <f t="array" ref="AJ7">SMALL(IF($A$1:$A$408=$AJ$3,ROW($A$1:$A$408)),ROW(4:4))</f>
+        <v>183</v>
+      </c>
+      <c r="AK7" s="4">
+        <f t="array" ref="AK7">SMALL(IF($A$1:$A$408=$AK$3,ROW($A$1:$A$408)),ROW(4:4))</f>
+        <v>215</v>
+      </c>
+      <c r="AL7" s="4">
+        <f t="array" ref="AL7">SMALL(IF($A$1:$A$408=$AL$3,ROW($A$1:$A$408)),ROW(4:4))</f>
+        <v>370</v>
+      </c>
+      <c r="AM7" s="4">
+        <f t="array" ref="AM7">SMALL(IF($A$1:$A$408=$AM$3,ROW($A$1:$A$408)),ROW(4:4))</f>
+        <v>190</v>
+      </c>
+      <c r="AN7" s="4">
+        <f t="array" ref="AN7">SMALL(IF($A$1:$A$408=$AN$3,ROW($A$1:$A$408)),ROW(4:4))</f>
+        <v>178</v>
+      </c>
+      <c r="AO7" s="4">
+        <f t="array" ref="AO7">SMALL(IF($A$1:$A$408=$AO$3,ROW($A$1:$A$408)),ROW(4:4))</f>
+        <v>182</v>
+      </c>
+      <c r="AP7" s="4">
+        <f t="array" ref="AP7">SMALL(IF($A$1:$A$408=$AP$3,ROW($A$1:$A$408)),ROW(4:4))</f>
+        <v>258</v>
+      </c>
+      <c r="AQ7" s="4">
+        <f t="array" ref="AQ7">SMALL(IF($A$1:$A$408=$AQ$3,ROW($A$1:$A$408)),ROW(4:4))</f>
+        <v>237</v>
+      </c>
+      <c r="AR7" s="4">
+        <f t="array" ref="AR7">SMALL(IF($A$1:$A$408=$AR$3,ROW($A$1:$A$408)),ROW(4:4))</f>
+        <v>153</v>
+      </c>
+      <c r="AS7" s="4">
+        <f t="array" ref="AS7">SMALL(IF($A$1:$A$408=$AS$3,ROW($A$1:$A$408)),ROW(4:4))</f>
+        <v>243</v>
+      </c>
+      <c r="AT7" s="4"/>
+      <c r="AU7" s="4">
+        <f t="array" ref="AU7">SMALL(IF($A$1:$A$408=$AU$3,ROW($A$1:$A$408)),ROW(4:4))</f>
+        <v>260</v>
+      </c>
+      <c r="AV7" s="4">
+        <f t="array" ref="AV7">SMALL(IF($A$1:$A$408=$AV$3,ROW($A$1:$A$408)),ROW(4:4))</f>
+        <v>166</v>
+      </c>
+      <c r="AW7" s="4">
+        <f t="array" ref="AW7">SMALL(IF($A$1:$A$408=$AW$3,ROW($A$1:$A$408)),ROW(4:4))</f>
+        <v>181</v>
+      </c>
+      <c r="AX7" s="4">
+        <f t="array" ref="AX7">SMALL(IF($A$1:$A$408=$AX$3,ROW($A$1:$A$408)),ROW(4:4))</f>
+        <v>316</v>
+      </c>
+      <c r="AY7" s="4">
+        <f t="array" ref="AY7">SMALL(IF($A$1:$A$408=$AY$3,ROW($A$1:$A$408)),ROW(4:4))</f>
+        <v>222</v>
+      </c>
+      <c r="AZ7" s="4">
+        <f t="array" ref="AZ7">SMALL(IF($A$1:$A$408=$AZ$3,ROW($A$1:$A$408)),ROW(4:4))</f>
+        <v>249</v>
+      </c>
+      <c r="BA7" s="4">
+        <f t="array" ref="BA7">SMALL(IF($A$1:$A$408=$BA$3,ROW($A$1:$A$408)),ROW(4:4))</f>
+        <v>347</v>
+      </c>
+      <c r="BB7" s="4">
+        <f t="array" ref="BB7">SMALL(IF($A$1:$A$408=$BB$3,ROW($A$1:$A$408)),ROW(4:4))</f>
+        <v>300</v>
+      </c>
+      <c r="BC7" s="4"/>
+      <c r="BD7" s="4">
+        <f t="array" ref="BD7">SMALL(IF($A$1:$A$408=$BD$3,ROW($A$1:$A$408)),ROW(4:4))</f>
+        <v>319</v>
+      </c>
+      <c r="BE7" s="4"/>
+      <c r="BF7" s="4"/>
+      <c r="BG7" s="4"/>
+      <c r="BH7" s="4"/>
+      <c r="BI7" s="4"/>
+      <c r="BJ7" s="4"/>
+      <c r="BK7" s="4"/>
+      <c r="BL7" s="4"/>
+      <c r="BM7" s="4"/>
+      <c r="BN7" s="4"/>
+    </row>
+    <row r="8" spans="1:66">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="array" ref="D8">SMALL(IF($A$1:$A$408=$D$3,ROW($A$1:$A$408)),ROW(5:5))</f>
+        <v>152</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="array" ref="E8">SMALL(IF($A$1:$A$408=$E$3,ROW($A$1:$A$408)),ROW(5:5))</f>
+        <v>269</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="array" ref="F8">SMALL(IF($A$1:$A$408=$F$3,ROW($A$1:$A$408)),ROW(5:5))</f>
+        <v>155</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="array" ref="G8">SMALL(IF($A$1:$A$408=$G$3,ROW($A$1:$A$408)),ROW(5:5))</f>
+        <v>199</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="array" ref="H8">SMALL(IF($A$1:$A$408=$H$3,ROW($A$1:$A$408)),ROW(5:5))</f>
+        <v>236</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="array" ref="I8">SMALL(IF($A$1:$A$408=$I$3,ROW($A$1:$A$408)),ROW(5:5))</f>
+        <v>167</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="array" ref="J8">SMALL(IF($A$1:$A$408=$J$3,ROW($A$1:$A$408)),ROW(5:5))</f>
+        <v>119</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="array" ref="K8">SMALL(IF($A$1:$A$408=$K$3,ROW($A$1:$A$408)),ROW(5:5))</f>
+        <v>169</v>
+      </c>
+      <c r="L8" s="4">
+        <f t="array" ref="L8">SMALL(IF($A$1:$A$408=$L$3,ROW($A$1:$A$408)),ROW(5:5))</f>
+        <v>254</v>
+      </c>
+      <c r="M8" s="4">
+        <f t="array" ref="M8">SMALL(IF($A$1:$A$408=$M$3,ROW($A$1:$A$408)),ROW(5:5))</f>
+        <v>134</v>
+      </c>
+      <c r="N8" s="4">
+        <f t="array" ref="N8">SMALL(IF($A$1:$A$408=$N$3,ROW($A$1:$A$408)),ROW(5:5))</f>
+        <v>257</v>
+      </c>
+      <c r="O8" s="4">
+        <f t="array" ref="O8">SMALL(IF($A$1:$A$408=$O$3,ROW($A$1:$A$408)),ROW(5:5))</f>
+        <v>241</v>
+      </c>
+      <c r="P8" s="4">
+        <f t="array" ref="P8">SMALL(IF($A$1:$A$408=$P$3,ROW($A$1:$A$408)),ROW(5:5))</f>
+        <v>292</v>
+      </c>
+      <c r="Q8" s="4">
+        <f t="array" ref="Q8">SMALL(IF($A$1:$A$408=$Q$3,ROW($A$1:$A$408)),ROW(5:5))</f>
+        <v>248</v>
+      </c>
+      <c r="R8" s="4">
+        <f t="array" ref="R8">SMALL(IF($A$1:$A$408=$R$3,ROW($A$1:$A$408)),ROW(5:5))</f>
+        <v>247</v>
+      </c>
+      <c r="S8" s="4">
+        <f t="array" ref="S8">SMALL(IF($A$1:$A$408=$S$3,ROW($A$1:$A$408)),ROW(5:5))</f>
+        <v>250</v>
+      </c>
+      <c r="T8" s="4">
+        <f t="array" ref="T8">SMALL(IF($A$1:$A$408=$T$3,ROW($A$1:$A$408)),ROW(5:5))</f>
+        <v>198</v>
+      </c>
+      <c r="U8" s="4">
+        <f t="array" ref="U8">SMALL(IF($A$1:$A$408=$U$3,ROW($A$1:$A$408)),ROW(5:5))</f>
+        <v>268</v>
+      </c>
+      <c r="V8" s="4">
+        <f t="array" ref="V8">SMALL(IF($A$1:$A$408=$V$3,ROW($A$1:$A$408)),ROW(5:5))</f>
+        <v>85</v>
+      </c>
+      <c r="W8" s="4">
+        <f t="array" ref="W8">SMALL(IF($A$1:$A$408=$W$3,ROW($A$1:$A$408)),ROW(5:5))</f>
+        <v>343</v>
+      </c>
+      <c r="X8" s="4">
+        <f t="array" ref="X8">SMALL(IF($A$1:$A$408=$X$3,ROW($A$1:$A$408)),ROW(5:5))</f>
+        <v>264</v>
+      </c>
+      <c r="Y8" s="4">
+        <f t="array" ref="Y8">SMALL(IF($A$1:$A$408=$Y$3,ROW($A$1:$A$408)),ROW(5:5))</f>
+        <v>187</v>
+      </c>
+      <c r="Z8" s="4">
+        <f t="array" ref="Z8">SMALL(IF($A$1:$A$408=$Z$3,ROW($A$1:$A$408)),ROW(5:5))</f>
+        <v>302</v>
+      </c>
+      <c r="AA8" s="4">
+        <f t="array" ref="AA8">SMALL(IF($A$1:$A$408=$AA$3,ROW($A$1:$A$408)),ROW(5:5))</f>
+        <v>329</v>
+      </c>
+      <c r="AB8" s="4">
+        <f t="array" ref="AB8">SMALL(IF($A$1:$A$408=$AB$3,ROW($A$1:$A$408)),ROW(5:5))</f>
+        <v>342</v>
+      </c>
+      <c r="AC8" s="4">
+        <f t="array" ref="AC8">SMALL(IF($A$1:$A$408=$AC$3,ROW($A$1:$A$408)),ROW(5:5))</f>
+        <v>96</v>
+      </c>
+      <c r="AD8" s="4">
+        <f t="array" ref="AD8">SMALL(IF($A$1:$A$408=$AD$3,ROW($A$1:$A$408)),ROW(5:5))</f>
+        <v>207</v>
+      </c>
+      <c r="AE8" s="4">
+        <f t="array" ref="AE8">SMALL(IF($A$1:$A$408=$AE$3,ROW($A$1:$A$408)),ROW(5:5))</f>
+        <v>377</v>
+      </c>
+      <c r="AF8" s="4">
+        <f t="array" ref="AF8">SMALL(IF($A$1:$A$408=$AF$3,ROW($A$1:$A$408)),ROW(5:5))</f>
+        <v>256</v>
+      </c>
+      <c r="AG8" s="4">
+        <f t="array" ref="AG8">SMALL(IF($A$1:$A$408=$AG$3,ROW($A$1:$A$408)),ROW(5:5))</f>
+        <v>188</v>
+      </c>
+      <c r="AH8" s="4">
+        <f t="array" ref="AH8">SMALL(IF($A$1:$A$408=$AH$3,ROW($A$1:$A$408)),ROW(5:5))</f>
+        <v>147</v>
+      </c>
+      <c r="AI8" s="4">
+        <f t="array" ref="AI8">SMALL(IF($A$1:$A$408=$AI$3,ROW($A$1:$A$408)),ROW(5:5))</f>
+        <v>309</v>
+      </c>
+      <c r="AJ8" s="4">
+        <f t="array" ref="AJ8">SMALL(IF($A$1:$A$408=$AJ$3,ROW($A$1:$A$408)),ROW(5:5))</f>
+        <v>211</v>
+      </c>
+      <c r="AK8" s="4">
+        <f t="array" ref="AK8">SMALL(IF($A$1:$A$408=$AK$3,ROW($A$1:$A$408)),ROW(5:5))</f>
+        <v>233</v>
+      </c>
+      <c r="AL8" s="4">
+        <f t="array" ref="AL8">SMALL(IF($A$1:$A$408=$AL$3,ROW($A$1:$A$408)),ROW(5:5))</f>
+        <v>389</v>
+      </c>
+      <c r="AM8" s="4">
+        <f t="array" ref="AM8">SMALL(IF($A$1:$A$408=$AM$3,ROW($A$1:$A$408)),ROW(5:5))</f>
+        <v>266</v>
+      </c>
+      <c r="AN8" s="4">
+        <f t="array" ref="AN8">SMALL(IF($A$1:$A$408=$AN$3,ROW($A$1:$A$408)),ROW(5:5))</f>
+        <v>206</v>
+      </c>
+      <c r="AO8" s="4">
+        <f t="array" ref="AO8">SMALL(IF($A$1:$A$408=$AO$3,ROW($A$1:$A$408)),ROW(5:5))</f>
+        <v>214</v>
+      </c>
+      <c r="AP8" s="4">
+        <f t="array" ref="AP8">SMALL(IF($A$1:$A$408=$AP$3,ROW($A$1:$A$408)),ROW(5:5))</f>
+        <v>276</v>
+      </c>
+      <c r="AQ8" s="4"/>
+      <c r="AR8" s="4">
+        <f t="array" ref="AR8">SMALL(IF($A$1:$A$408=$AR$3,ROW($A$1:$A$408)),ROW(5:5))</f>
+        <v>245</v>
+      </c>
+      <c r="AS8" s="4">
+        <f t="array" ref="AS8">SMALL(IF($A$1:$A$408=$AS$3,ROW($A$1:$A$408)),ROW(5:5))</f>
+        <v>285</v>
+      </c>
+      <c r="AT8" s="4"/>
+      <c r="AU8" s="4"/>
+      <c r="AV8" s="4">
+        <f t="array" ref="AV8">SMALL(IF($A$1:$A$408=$AV$3,ROW($A$1:$A$408)),ROW(5:5))</f>
+        <v>217</v>
+      </c>
+      <c r="AW8" s="4">
+        <f t="array" ref="AW8">SMALL(IF($A$1:$A$408=$AW$3,ROW($A$1:$A$408)),ROW(5:5))</f>
+        <v>213</v>
+      </c>
+      <c r="AX8" s="4">
+        <f t="array" ref="AX8">SMALL(IF($A$1:$A$408=$AX$3,ROW($A$1:$A$408)),ROW(5:5))</f>
+        <v>351</v>
+      </c>
+      <c r="AY8" s="4">
+        <f t="array" ref="AY8">SMALL(IF($A$1:$A$408=$AY$3,ROW($A$1:$A$408)),ROW(5:5))</f>
+        <v>259</v>
+      </c>
+      <c r="AZ8" s="4"/>
+      <c r="BA8" s="4"/>
+      <c r="BB8" s="4">
+        <f t="array" ref="BB8">SMALL(IF($A$1:$A$408=$BB$3,ROW($A$1:$A$408)),ROW(5:5))</f>
+        <v>313</v>
+      </c>
+      <c r="BC8" s="4"/>
+      <c r="BD8" s="4">
+        <f t="array" ref="BD8">SMALL(IF($A$1:$A$408=$BD$3,ROW($A$1:$A$408)),ROW(5:5))</f>
+        <v>331</v>
+      </c>
+      <c r="BE8" s="4"/>
+      <c r="BF8" s="4"/>
+      <c r="BG8" s="4"/>
+      <c r="BH8" s="4"/>
+      <c r="BI8" s="4"/>
+      <c r="BJ8" s="4"/>
+      <c r="BK8" s="4"/>
+      <c r="BL8" s="4"/>
+      <c r="BM8" s="4"/>
+      <c r="BN8" s="4"/>
+    </row>
+    <row r="9" spans="1:66">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="array" ref="D9">SMALL(IF($A$1:$A$408=$D$3,ROW($A$1:$A$408)),ROW(6:6))</f>
+        <v>189</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="array" ref="E9">SMALL(IF($A$1:$A$408=$E$3,ROW($A$1:$A$408)),ROW(6:6))</f>
+        <v>270</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="array" ref="F9">SMALL(IF($A$1:$A$408=$F$3,ROW($A$1:$A$408)),ROW(6:6))</f>
+        <v>205</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="array" ref="G9">SMALL(IF($A$1:$A$408=$G$3,ROW($A$1:$A$408)),ROW(6:6))</f>
+        <v>279</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="array" ref="H9">SMALL(IF($A$1:$A$408=$H$3,ROW($A$1:$A$408)),ROW(6:6))</f>
+        <v>283</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="array" ref="I9">SMALL(IF($A$1:$A$408=$I$3,ROW($A$1:$A$408)),ROW(6:6))</f>
+        <v>210</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="array" ref="J9">SMALL(IF($A$1:$A$408=$J$3,ROW($A$1:$A$408)),ROW(6:6))</f>
+        <v>125</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="array" ref="K9">SMALL(IF($A$1:$A$408=$K$3,ROW($A$1:$A$408)),ROW(6:6))</f>
+        <v>226</v>
+      </c>
+      <c r="L9" s="4">
+        <f t="array" ref="L9">SMALL(IF($A$1:$A$408=$L$3,ROW($A$1:$A$408)),ROW(6:6))</f>
+        <v>308</v>
+      </c>
+      <c r="M9" s="4">
+        <f t="array" ref="M9">SMALL(IF($A$1:$A$408=$M$3,ROW($A$1:$A$408)),ROW(6:6))</f>
+        <v>135</v>
+      </c>
+      <c r="N9" s="4">
+        <f t="array" ref="N9">SMALL(IF($A$1:$A$408=$N$3,ROW($A$1:$A$408)),ROW(6:6))</f>
+        <v>356</v>
+      </c>
+      <c r="O9" s="4">
+        <f t="array" ref="O9">SMALL(IF($A$1:$A$408=$O$3,ROW($A$1:$A$408)),ROW(6:6))</f>
+        <v>290</v>
+      </c>
+      <c r="P9" s="4">
+        <f t="array" ref="P9">SMALL(IF($A$1:$A$408=$P$3,ROW($A$1:$A$408)),ROW(6:6))</f>
+        <v>345</v>
+      </c>
+      <c r="Q9" s="4">
+        <f t="array" ref="Q9">SMALL(IF($A$1:$A$408=$Q$3,ROW($A$1:$A$408)),ROW(6:6))</f>
+        <v>294</v>
+      </c>
+      <c r="R9" s="4">
+        <f t="array" ref="R9">SMALL(IF($A$1:$A$408=$R$3,ROW($A$1:$A$408)),ROW(6:6))</f>
+        <v>251</v>
+      </c>
+      <c r="S9" s="4">
+        <f t="array" ref="S9">SMALL(IF($A$1:$A$408=$S$3,ROW($A$1:$A$408)),ROW(6:6))</f>
+        <v>301</v>
+      </c>
+      <c r="T9" s="4">
+        <f t="array" ref="T9">SMALL(IF($A$1:$A$408=$T$3,ROW($A$1:$A$408)),ROW(6:6))</f>
+        <v>263</v>
+      </c>
+      <c r="U9" s="4">
+        <f t="array" ref="U9">SMALL(IF($A$1:$A$408=$U$3,ROW($A$1:$A$408)),ROW(6:6))</f>
+        <v>327</v>
+      </c>
+      <c r="V9" s="4">
+        <f t="array" ref="V9">SMALL(IF($A$1:$A$408=$V$3,ROW($A$1:$A$408)),ROW(6:6))</f>
+        <v>107</v>
+      </c>
+      <c r="W9" s="4">
+        <f t="array" ref="W9">SMALL(IF($A$1:$A$408=$W$3,ROW($A$1:$A$408)),ROW(6:6))</f>
+        <v>371</v>
+      </c>
+      <c r="X9" s="4">
+        <f t="array" ref="X9">SMALL(IF($A$1:$A$408=$X$3,ROW($A$1:$A$408)),ROW(6:6))</f>
+        <v>363</v>
+      </c>
+      <c r="Y9" s="4">
+        <f t="array" ref="Y9">SMALL(IF($A$1:$A$408=$Y$3,ROW($A$1:$A$408)),ROW(6:6))</f>
+        <v>219</v>
+      </c>
+      <c r="Z9" s="4">
+        <f t="array" ref="Z9">SMALL(IF($A$1:$A$408=$Z$3,ROW($A$1:$A$408)),ROW(6:6))</f>
+        <v>376</v>
+      </c>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4">
+        <f t="array" ref="AB9">SMALL(IF($A$1:$A$408=$AB$3,ROW($A$1:$A$408)),ROW(6:6))</f>
+        <v>355</v>
+      </c>
+      <c r="AC9" s="4">
+        <f t="array" ref="AC9">SMALL(IF($A$1:$A$408=$AC$3,ROW($A$1:$A$408)),ROW(6:6))</f>
+        <v>112</v>
+      </c>
+      <c r="AD9" s="4">
+        <f t="array" ref="AD9">SMALL(IF($A$1:$A$408=$AD$3,ROW($A$1:$A$408)),ROW(6:6))</f>
+        <v>231</v>
+      </c>
+      <c r="AE9" s="4">
+        <f t="array" ref="AE9">SMALL(IF($A$1:$A$408=$AE$3,ROW($A$1:$A$408)),ROW(6:6))</f>
+        <v>383</v>
+      </c>
+      <c r="AF9" s="4">
+        <f t="array" ref="AF9">SMALL(IF($A$1:$A$408=$AF$3,ROW($A$1:$A$408)),ROW(6:6))</f>
+        <v>320</v>
+      </c>
+      <c r="AG9" s="4">
+        <f t="array" ref="AG9">SMALL(IF($A$1:$A$408=$AG$3,ROW($A$1:$A$408)),ROW(6:6))</f>
+        <v>223</v>
+      </c>
+      <c r="AH9" s="4">
+        <f t="array" ref="AH9">SMALL(IF($A$1:$A$408=$AH$3,ROW($A$1:$A$408)),ROW(6:6))</f>
+        <v>229</v>
+      </c>
+      <c r="AI9" s="4">
+        <f t="array" ref="AI9">SMALL(IF($A$1:$A$408=$AI$3,ROW($A$1:$A$408)),ROW(6:6))</f>
+        <v>332</v>
+      </c>
+      <c r="AJ9" s="4">
+        <f t="array" ref="AJ9">SMALL(IF($A$1:$A$408=$AJ$3,ROW($A$1:$A$408)),ROW(6:6))</f>
+        <v>253</v>
+      </c>
+      <c r="AK9" s="4">
+        <f t="array" ref="AK9">SMALL(IF($A$1:$A$408=$AK$3,ROW($A$1:$A$408)),ROW(6:6))</f>
+        <v>273</v>
+      </c>
+      <c r="AL9" s="4"/>
+      <c r="AM9" s="4">
+        <f t="array" ref="AM9">SMALL(IF($A$1:$A$408=$AM$3,ROW($A$1:$A$408)),ROW(6:6))</f>
+        <v>350</v>
+      </c>
+      <c r="AN9" s="4">
+        <f t="array" ref="AN9">SMALL(IF($A$1:$A$408=$AN$3,ROW($A$1:$A$408)),ROW(6:6))</f>
+        <v>227</v>
+      </c>
+      <c r="AO9" s="4">
+        <f t="array" ref="AO9">SMALL(IF($A$1:$A$408=$AO$3,ROW($A$1:$A$408)),ROW(6:6))</f>
+        <v>235</v>
+      </c>
+      <c r="AP9" s="4">
+        <f t="array" ref="AP9">SMALL(IF($A$1:$A$408=$AP$3,ROW($A$1:$A$408)),ROW(6:6))</f>
+        <v>321</v>
+      </c>
+      <c r="AQ9" s="4"/>
+      <c r="AR9" s="4">
+        <f t="array" ref="AR9">SMALL(IF($A$1:$A$408=$AR$3,ROW($A$1:$A$408)),ROW(6:6))</f>
+        <v>287</v>
+      </c>
+      <c r="AS9" s="4">
+        <f t="array" ref="AS9">SMALL(IF($A$1:$A$408=$AS$3,ROW($A$1:$A$408)),ROW(6:6))</f>
+        <v>304</v>
+      </c>
+      <c r="AT9" s="4"/>
+      <c r="AU9" s="4"/>
+      <c r="AV9" s="4">
+        <f t="array" ref="AV9">SMALL(IF($A$1:$A$408=$AV$3,ROW($A$1:$A$408)),ROW(6:6))</f>
+        <v>278</v>
+      </c>
+      <c r="AW9" s="4">
+        <f t="array" ref="AW9">SMALL(IF($A$1:$A$408=$AW$3,ROW($A$1:$A$408)),ROW(6:6))</f>
+        <v>230</v>
+      </c>
+      <c r="AX9" s="4">
+        <f t="array" ref="AX9">SMALL(IF($A$1:$A$408=$AX$3,ROW($A$1:$A$408)),ROW(6:6))</f>
+        <v>360</v>
+      </c>
+      <c r="AY9" s="4">
+        <f t="array" ref="AY9">SMALL(IF($A$1:$A$408=$AY$3,ROW($A$1:$A$408)),ROW(6:6))</f>
+        <v>386</v>
+      </c>
+      <c r="AZ9" s="4"/>
+      <c r="BA9" s="4"/>
+      <c r="BB9" s="4">
+        <f t="array" ref="BB9">SMALL(IF($A$1:$A$408=$BB$3,ROW($A$1:$A$408)),ROW(6:6))</f>
+        <v>374</v>
+      </c>
+      <c r="BC9" s="4"/>
+      <c r="BD9" s="4">
+        <f t="array" ref="BD9">SMALL(IF($A$1:$A$408=$BD$3,ROW($A$1:$A$408)),ROW(6:6))</f>
+        <v>340</v>
+      </c>
+      <c r="BE9" s="4"/>
+      <c r="BF9" s="4"/>
+      <c r="BG9" s="4"/>
+      <c r="BH9" s="4"/>
+      <c r="BI9" s="4"/>
+      <c r="BJ9" s="4"/>
+      <c r="BK9" s="4"/>
+      <c r="BL9" s="4"/>
+      <c r="BM9" s="4"/>
+      <c r="BN9" s="4"/>
+    </row>
+    <row r="10" spans="1:66">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="array" ref="D10">SMALL(IF($A$1:$A$408=$D$3,ROW($A$1:$A$408)),ROW(7:7))</f>
+        <v>208</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="array" ref="E10">SMALL(IF($A$1:$A$408=$E$3,ROW($A$1:$A$408)),ROW(7:7))</f>
+        <v>281</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="array" ref="F10">SMALL(IF($A$1:$A$408=$F$3,ROW($A$1:$A$408)),ROW(7:7))</f>
+        <v>238</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4">
+        <f t="array" ref="H10">SMALL(IF($A$1:$A$408=$H$3,ROW($A$1:$A$408)),ROW(7:7))</f>
+        <v>325</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="array" ref="I10">SMALL(IF($A$1:$A$408=$I$3,ROW($A$1:$A$408)),ROW(7:7))</f>
+        <v>240</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="array" ref="J10">SMALL(IF($A$1:$A$408=$J$3,ROW($A$1:$A$408)),ROW(7:7))</f>
+        <v>154</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="array" ref="K10">SMALL(IF($A$1:$A$408=$K$3,ROW($A$1:$A$408)),ROW(7:7))</f>
+        <v>242</v>
+      </c>
+      <c r="L10" s="4">
+        <f t="array" ref="L10">SMALL(IF($A$1:$A$408=$L$3,ROW($A$1:$A$408)),ROW(7:7))</f>
+        <v>367</v>
+      </c>
+      <c r="M10" s="4">
+        <f t="array" ref="M10">SMALL(IF($A$1:$A$408=$M$3,ROW($A$1:$A$408)),ROW(7:7))</f>
+        <v>157</v>
+      </c>
+      <c r="N10" s="4">
+        <f t="array" ref="N10">SMALL(IF($A$1:$A$408=$N$3,ROW($A$1:$A$408)),ROW(7:7))</f>
+        <v>405</v>
+      </c>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4">
+        <f t="array" ref="P10">SMALL(IF($A$1:$A$408=$P$3,ROW($A$1:$A$408)),ROW(7:7))</f>
+        <v>348</v>
+      </c>
+      <c r="Q10" s="4">
+        <f t="array" ref="Q10">SMALL(IF($A$1:$A$408=$Q$3,ROW($A$1:$A$408)),ROW(7:7))</f>
+        <v>323</v>
+      </c>
+      <c r="R10" s="4">
+        <f t="array" ref="R10">SMALL(IF($A$1:$A$408=$R$3,ROW($A$1:$A$408)),ROW(7:7))</f>
+        <v>289</v>
+      </c>
+      <c r="S10" s="4">
+        <f t="array" ref="S10">SMALL(IF($A$1:$A$408=$S$3,ROW($A$1:$A$408)),ROW(7:7))</f>
+        <v>314</v>
+      </c>
+      <c r="T10" s="4">
+        <f t="array" ref="T10">SMALL(IF($A$1:$A$408=$T$3,ROW($A$1:$A$408)),ROW(7:7))</f>
+        <v>291</v>
+      </c>
+      <c r="U10" s="4">
+        <f t="array" ref="U10">SMALL(IF($A$1:$A$408=$U$3,ROW($A$1:$A$408)),ROW(7:7))</f>
+        <v>373</v>
+      </c>
+      <c r="V10" s="4">
+        <f t="array" ref="V10">SMALL(IF($A$1:$A$408=$V$3,ROW($A$1:$A$408)),ROW(7:7))</f>
+        <v>194</v>
+      </c>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4">
+        <f t="array" ref="X10">SMALL(IF($A$1:$A$408=$X$3,ROW($A$1:$A$408)),ROW(7:7))</f>
+        <v>391</v>
+      </c>
+      <c r="Y10" s="4">
+        <f t="array" ref="Y10">SMALL(IF($A$1:$A$408=$Y$3,ROW($A$1:$A$408)),ROW(7:7))</f>
+        <v>341</v>
+      </c>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4">
+        <f t="array" ref="AC10">SMALL(IF($A$1:$A$408=$AC$3,ROW($A$1:$A$408)),ROW(7:7))</f>
+        <v>128</v>
+      </c>
+      <c r="AD10" s="4">
+        <f t="array" ref="AD10">SMALL(IF($A$1:$A$408=$AD$3,ROW($A$1:$A$408)),ROW(7:7))</f>
+        <v>272</v>
+      </c>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="4">
+        <f t="array" ref="AG10">SMALL(IF($A$1:$A$408=$AG$3,ROW($A$1:$A$408)),ROW(7:7))</f>
+        <v>271</v>
+      </c>
+      <c r="AH10" s="4">
+        <f t="array" ref="AH10">SMALL(IF($A$1:$A$408=$AH$3,ROW($A$1:$A$408)),ROW(7:7))</f>
+        <v>299</v>
+      </c>
+      <c r="AI10" s="4">
+        <f t="array" ref="AI10">SMALL(IF($A$1:$A$408=$AI$3,ROW($A$1:$A$408)),ROW(7:7))</f>
+        <v>378</v>
+      </c>
+      <c r="AJ10" s="4">
+        <f t="array" ref="AJ10">SMALL(IF($A$1:$A$408=$AJ$3,ROW($A$1:$A$408)),ROW(7:7))</f>
+        <v>339</v>
+      </c>
+      <c r="AK10" s="4"/>
+      <c r="AL10" s="4"/>
+      <c r="AM10" s="4"/>
+      <c r="AN10" s="4">
+        <f t="array" ref="AN10">SMALL(IF($A$1:$A$408=$AN$3,ROW($A$1:$A$408)),ROW(7:7))</f>
+        <v>310</v>
+      </c>
+      <c r="AO10" s="4">
+        <f t="array" ref="AO10">SMALL(IF($A$1:$A$408=$AO$3,ROW($A$1:$A$408)),ROW(7:7))</f>
+        <v>275</v>
+      </c>
+      <c r="AP10" s="4"/>
+      <c r="AQ10" s="4"/>
+      <c r="AR10" s="4">
+        <f t="array" ref="AR10">SMALL(IF($A$1:$A$408=$AR$3,ROW($A$1:$A$408)),ROW(7:7))</f>
+        <v>298</v>
+      </c>
+      <c r="AS10" s="4">
+        <f t="array" ref="AS10">SMALL(IF($A$1:$A$408=$AS$3,ROW($A$1:$A$408)),ROW(7:7))</f>
+        <v>334</v>
+      </c>
+      <c r="AT10" s="4"/>
+      <c r="AU10" s="4"/>
+      <c r="AV10" s="4">
+        <f t="array" ref="AV10">SMALL(IF($A$1:$A$408=$AV$3,ROW($A$1:$A$408)),ROW(7:7))</f>
+        <v>330</v>
+      </c>
+      <c r="AW10" s="4">
+        <f t="array" ref="AW10">SMALL(IF($A$1:$A$408=$AW$3,ROW($A$1:$A$408)),ROW(7:7))</f>
+        <v>338</v>
+      </c>
+      <c r="AX10" s="4"/>
+      <c r="AY10" s="4">
+        <f t="array" ref="AY10">SMALL(IF($A$1:$A$408=$AY$3,ROW($A$1:$A$408)),ROW(7:7))</f>
+        <v>395</v>
+      </c>
+      <c r="AZ10" s="4"/>
+      <c r="BA10" s="4"/>
+      <c r="BB10" s="4"/>
+      <c r="BC10" s="4"/>
+      <c r="BD10" s="4">
+        <f t="array" ref="BD10">SMALL(IF($A$1:$A$408=$BD$3,ROW($A$1:$A$408)),ROW(7:7))</f>
+        <v>358</v>
+      </c>
+      <c r="BE10" s="4"/>
+      <c r="BF10" s="4"/>
+      <c r="BG10" s="4"/>
+      <c r="BH10" s="4"/>
+      <c r="BI10" s="4"/>
+      <c r="BJ10" s="4"/>
+      <c r="BK10" s="4"/>
+      <c r="BL10" s="4"/>
+      <c r="BM10" s="4"/>
+      <c r="BN10" s="4"/>
+    </row>
+    <row r="11" spans="1:66">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="array" ref="D11">SMALL(IF($A$1:$A$408=$D$3,ROW($A$1:$A$408)),ROW(8:8))</f>
+        <v>228</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="array" ref="E11">SMALL(IF($A$1:$A$408=$E$3,ROW($A$1:$A$408)),ROW(8:8))</f>
+        <v>282</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="array" ref="F11">SMALL(IF($A$1:$A$408=$F$3,ROW($A$1:$A$408)),ROW(8:8))</f>
+        <v>255</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4">
+        <f t="array" ref="H11">SMALL(IF($A$1:$A$408=$H$3,ROW($A$1:$A$408)),ROW(8:8))</f>
+        <v>375</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="array" ref="I11">SMALL(IF($A$1:$A$408=$I$3,ROW($A$1:$A$408)),ROW(8:8))</f>
+        <v>262</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="array" ref="J11">SMALL(IF($A$1:$A$408=$J$3,ROW($A$1:$A$408)),ROW(8:8))</f>
+        <v>246</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="array" ref="K11">SMALL(IF($A$1:$A$408=$K$3,ROW($A$1:$A$408)),ROW(8:8))</f>
+        <v>274</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4">
+        <f t="array" ref="M11">SMALL(IF($A$1:$A$408=$M$3,ROW($A$1:$A$408)),ROW(8:8))</f>
+        <v>185</v>
+      </c>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4">
+        <f t="array" ref="P11">SMALL(IF($A$1:$A$408=$P$3,ROW($A$1:$A$408)),ROW(8:8))</f>
+        <v>369</v>
+      </c>
+      <c r="Q11" s="4">
+        <f t="array" ref="Q11">SMALL(IF($A$1:$A$408=$Q$3,ROW($A$1:$A$408)),ROW(8:8))</f>
+        <v>390</v>
+      </c>
+      <c r="R11" s="4">
+        <f t="array" ref="R11">SMALL(IF($A$1:$A$408=$R$3,ROW($A$1:$A$408)),ROW(8:8))</f>
+        <v>324</v>
+      </c>
+      <c r="S11" s="4">
+        <f t="array" ref="S11">SMALL(IF($A$1:$A$408=$S$3,ROW($A$1:$A$408)),ROW(8:8))</f>
+        <v>385</v>
+      </c>
+      <c r="T11" s="4">
+        <f t="array" ref="T11">SMALL(IF($A$1:$A$408=$T$3,ROW($A$1:$A$408)),ROW(8:8))</f>
+        <v>326</v>
+      </c>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4">
+        <f t="array" ref="V11">SMALL(IF($A$1:$A$408=$V$3,ROW($A$1:$A$408)),ROW(8:8))</f>
+        <v>317</v>
+      </c>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4">
+        <f t="array" ref="X11">SMALL(IF($A$1:$A$408=$X$3,ROW($A$1:$A$408)),ROW(8:8))</f>
+        <v>399</v>
+      </c>
+      <c r="Y11" s="4">
+        <f t="array" ref="Y11">SMALL(IF($A$1:$A$408=$Y$3,ROW($A$1:$A$408)),ROW(8:8))</f>
+        <v>402</v>
+      </c>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4">
+        <f t="array" ref="AC11">SMALL(IF($A$1:$A$408=$AC$3,ROW($A$1:$A$408)),ROW(8:8))</f>
+        <v>140</v>
+      </c>
+      <c r="AD11" s="4">
+        <f t="array" ref="AD11">SMALL(IF($A$1:$A$408=$AD$3,ROW($A$1:$A$408)),ROW(8:8))</f>
+        <v>403</v>
+      </c>
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="4">
+        <f t="array" ref="AG11">SMALL(IF($A$1:$A$408=$AG$3,ROW($A$1:$A$408)),ROW(8:8))</f>
+        <v>384</v>
+      </c>
+      <c r="AH11" s="4">
+        <f t="array" ref="AH11">SMALL(IF($A$1:$A$408=$AH$3,ROW($A$1:$A$408)),ROW(8:8))</f>
+        <v>382</v>
+      </c>
+      <c r="AI11" s="4"/>
+      <c r="AJ11" s="4">
+        <f t="array" ref="AJ11">SMALL(IF($A$1:$A$408=$AJ$3,ROW($A$1:$A$408)),ROW(8:8))</f>
+        <v>379</v>
+      </c>
+      <c r="AK11" s="4"/>
+      <c r="AL11" s="4"/>
+      <c r="AM11" s="4"/>
+      <c r="AN11" s="4">
+        <f t="array" ref="AN11">SMALL(IF($A$1:$A$408=$AN$3,ROW($A$1:$A$408)),ROW(8:8))</f>
+        <v>365</v>
+      </c>
+      <c r="AO11" s="4">
+        <f t="array" ref="AO11">SMALL(IF($A$1:$A$408=$AO$3,ROW($A$1:$A$408)),ROW(8:8))</f>
+        <v>404</v>
+      </c>
+      <c r="AP11" s="4"/>
+      <c r="AQ11" s="4"/>
+      <c r="AR11" s="4">
+        <f t="array" ref="AR11">SMALL(IF($A$1:$A$408=$AR$3,ROW($A$1:$A$408)),ROW(8:8))</f>
+        <v>337</v>
+      </c>
+      <c r="AS11" s="4">
+        <f t="array" ref="AS11">SMALL(IF($A$1:$A$408=$AS$3,ROW($A$1:$A$408)),ROW(8:8))</f>
+        <v>349</v>
+      </c>
+      <c r="AT11" s="4"/>
+      <c r="AU11" s="4"/>
+      <c r="AV11" s="4">
+        <f t="array" ref="AV11">SMALL(IF($A$1:$A$408=$AV$3,ROW($A$1:$A$408)),ROW(8:8))</f>
+        <v>393</v>
+      </c>
+      <c r="AW11" s="4">
+        <f t="array" ref="AW11">SMALL(IF($A$1:$A$408=$AW$3,ROW($A$1:$A$408)),ROW(8:8))</f>
+        <v>354</v>
+      </c>
+      <c r="AX11" s="4"/>
+      <c r="AY11" s="4"/>
+      <c r="AZ11" s="4"/>
+      <c r="BA11" s="4"/>
+      <c r="BB11" s="4"/>
+      <c r="BC11" s="4"/>
+      <c r="BD11" s="4">
+        <f t="array" ref="BD11">SMALL(IF($A$1:$A$408=$BD$3,ROW($A$1:$A$408)),ROW(8:8))</f>
+        <v>381</v>
+      </c>
+      <c r="BE11" s="4"/>
+      <c r="BF11" s="4"/>
+      <c r="BG11" s="4"/>
+      <c r="BH11" s="4"/>
+      <c r="BI11" s="4"/>
+      <c r="BJ11" s="4"/>
+      <c r="BK11" s="4"/>
+      <c r="BL11" s="4"/>
+      <c r="BM11" s="4"/>
+      <c r="BN11" s="4"/>
+    </row>
+    <row r="12" spans="1:66">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="array" ref="D12">SMALL(IF($A$1:$A$408=$D$3,ROW($A$1:$A$408)),ROW(9:9))</f>
+        <v>244</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="array" ref="E12">SMALL(IF($A$1:$A$408=$E$3,ROW($A$1:$A$408)),ROW(9:9))</f>
+        <v>307</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="array" ref="F12">SMALL(IF($A$1:$A$408=$F$3,ROW($A$1:$A$408)),ROW(9:9))</f>
+        <v>286</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4">
+        <f t="array" ref="I12">SMALL(IF($A$1:$A$408=$I$3,ROW($A$1:$A$408)),ROW(9:9))</f>
+        <v>312</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="array" ref="J12">SMALL(IF($A$1:$A$408=$J$3,ROW($A$1:$A$408)),ROW(9:9))</f>
+        <v>288</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="array" ref="K12">SMALL(IF($A$1:$A$408=$K$3,ROW($A$1:$A$408)),ROW(9:9))</f>
+        <v>408</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4">
+        <f t="array" ref="M12">SMALL(IF($A$1:$A$408=$M$3,ROW($A$1:$A$408)),ROW(9:9))</f>
+        <v>191</v>
+      </c>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4">
+        <f t="array" ref="P12">SMALL(IF($A$1:$A$408=$P$3,ROW($A$1:$A$408)),ROW(9:9))</f>
+        <v>394</v>
+      </c>
+      <c r="Q12" s="4">
+        <f t="array" ref="Q12">SMALL(IF($A$1:$A$408=$Q$3,ROW($A$1:$A$408)),ROW(9:9))</f>
+        <v>397</v>
+      </c>
+      <c r="R12" s="4">
+        <f t="array" ref="R12">SMALL(IF($A$1:$A$408=$R$3,ROW($A$1:$A$408)),ROW(9:9))</f>
+        <v>392</v>
+      </c>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4">
+        <f t="array" ref="T12">SMALL(IF($A$1:$A$408=$T$3,ROW($A$1:$A$408)),ROW(9:9))</f>
+        <v>344</v>
+      </c>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4">
+        <f t="array" ref="V12">SMALL(IF($A$1:$A$408=$V$3,ROW($A$1:$A$408)),ROW(9:9))</f>
+        <v>328</v>
+      </c>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4">
+        <f t="array" ref="AC12">SMALL(IF($A$1:$A$408=$AC$3,ROW($A$1:$A$408)),ROW(9:9))</f>
+        <v>145</v>
+      </c>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4">
+        <f t="array" ref="AG12">SMALL(IF($A$1:$A$408=$AG$3,ROW($A$1:$A$408)),ROW(9:9))</f>
+        <v>398</v>
+      </c>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="4"/>
+      <c r="AK12" s="4"/>
+      <c r="AL12" s="4"/>
+      <c r="AM12" s="4"/>
+      <c r="AN12" s="4"/>
+      <c r="AO12" s="4"/>
+      <c r="AP12" s="4"/>
+      <c r="AQ12" s="4"/>
+      <c r="AR12" s="4">
+        <f t="array" ref="AR12">SMALL(IF($A$1:$A$408=$AR$3,ROW($A$1:$A$408)),ROW(9:9))</f>
+        <v>361</v>
+      </c>
+      <c r="AS12" s="4"/>
+      <c r="AT12" s="4"/>
+      <c r="AU12" s="4"/>
+      <c r="AV12" s="4">
+        <f t="array" ref="AV12">SMALL(IF($A$1:$A$408=$AV$3,ROW($A$1:$A$408)),ROW(9:9))</f>
+        <v>401</v>
+      </c>
+      <c r="AW12" s="4"/>
+      <c r="AX12" s="4"/>
+      <c r="AY12" s="4"/>
+      <c r="AZ12" s="4"/>
+      <c r="BA12" s="4"/>
+      <c r="BB12" s="4"/>
+      <c r="BC12" s="4"/>
+      <c r="BD12" s="4"/>
+      <c r="BE12" s="4"/>
+      <c r="BF12" s="4"/>
+      <c r="BG12" s="4"/>
+      <c r="BH12" s="4"/>
+      <c r="BI12" s="4"/>
+      <c r="BJ12" s="4"/>
+      <c r="BK12" s="4"/>
+      <c r="BL12" s="4"/>
+      <c r="BM12" s="4"/>
+      <c r="BN12" s="4"/>
+    </row>
+    <row r="13" spans="1:66">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="array" ref="D13">SMALL(IF($A$1:$A$408=$D$3,ROW($A$1:$A$408)),ROW(10:10))</f>
+        <v>280</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="array" ref="E13">SMALL(IF($A$1:$A$408=$E$3,ROW($A$1:$A$408)),ROW(10:10))</f>
+        <v>336</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="array" ref="F13">SMALL(IF($A$1:$A$408=$F$3,ROW($A$1:$A$408)),ROW(10:10))</f>
+        <v>366</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4">
+        <f t="array" ref="I13">SMALL(IF($A$1:$A$408=$I$3,ROW($A$1:$A$408)),ROW(10:10))</f>
+        <v>406</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="array" ref="J13">SMALL(IF($A$1:$A$408=$J$3,ROW($A$1:$A$408)),ROW(10:10))</f>
+        <v>306</v>
+      </c>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4">
+        <f t="array" ref="M13">SMALL(IF($A$1:$A$408=$M$3,ROW($A$1:$A$408)),ROW(10:10))</f>
+        <v>209</v>
+      </c>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4">
+        <f t="array" ref="T13">SMALL(IF($A$1:$A$408=$T$3,ROW($A$1:$A$408)),ROW(10:10))</f>
+        <v>359</v>
+      </c>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4">
+        <f t="array" ref="V13">SMALL(IF($A$1:$A$408=$V$3,ROW($A$1:$A$408)),ROW(10:10))</f>
+        <v>333</v>
+      </c>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4">
+        <f t="array" ref="AC13">SMALL(IF($A$1:$A$408=$AC$3,ROW($A$1:$A$408)),ROW(10:10))</f>
+        <v>293</v>
+      </c>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="4">
+        <f t="array" ref="AG13">SMALL(IF($A$1:$A$408=$AG$3,ROW($A$1:$A$408)),ROW(10:10))</f>
+        <v>407</v>
+      </c>
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="4"/>
+      <c r="AK13" s="4"/>
+      <c r="AL13" s="4"/>
+      <c r="AM13" s="4"/>
+      <c r="AN13" s="4"/>
+      <c r="AO13" s="4"/>
+      <c r="AP13" s="4"/>
+      <c r="AQ13" s="4"/>
+      <c r="AR13" s="4">
+        <f t="array" ref="AR13">SMALL(IF($A$1:$A$408=$AR$3,ROW($A$1:$A$408)),ROW(10:10))</f>
+        <v>362</v>
+      </c>
+      <c r="AS13" s="4"/>
+      <c r="AT13" s="4"/>
+      <c r="AU13" s="4"/>
+      <c r="AV13" s="4"/>
+      <c r="AW13" s="4"/>
+      <c r="AX13" s="4"/>
+      <c r="AY13" s="4"/>
+      <c r="AZ13" s="4"/>
+      <c r="BA13" s="4"/>
+      <c r="BB13" s="4"/>
+      <c r="BC13" s="4"/>
+      <c r="BD13" s="4"/>
+      <c r="BE13" s="4"/>
+      <c r="BF13" s="4"/>
+      <c r="BG13" s="4"/>
+      <c r="BH13" s="4"/>
+      <c r="BI13" s="4"/>
+      <c r="BJ13" s="4"/>
+      <c r="BK13" s="4"/>
+      <c r="BL13" s="4"/>
+      <c r="BM13" s="4"/>
+      <c r="BN13" s="4"/>
+    </row>
+    <row r="14" spans="1:66">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="array" ref="D14">SMALL(IF($A$1:$A$408=$D$3,ROW($A$1:$A$408)),ROW(11:11))</f>
+        <v>303</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="array" ref="E14">SMALL(IF($A$1:$A$408=$E$3,ROW($A$1:$A$408)),ROW(11:11))</f>
+        <v>372</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="array" ref="F14">SMALL(IF($A$1:$A$408=$F$3,ROW($A$1:$A$408)),ROW(11:11))</f>
+        <v>388</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4">
+        <f t="array" ref="J14">SMALL(IF($A$1:$A$408=$J$3,ROW($A$1:$A$408)),ROW(11:11))</f>
+        <v>387</v>
+      </c>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4">
+        <f t="array" ref="M14">SMALL(IF($A$1:$A$408=$M$3,ROW($A$1:$A$408)),ROW(11:11))</f>
+        <v>311</v>
+      </c>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4">
+        <f t="array" ref="T14">SMALL(IF($A$1:$A$408=$T$3,ROW($A$1:$A$408)),ROW(11:11))</f>
+        <v>364</v>
+      </c>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4">
+        <f t="array" ref="V14">SMALL(IF($A$1:$A$408=$V$3,ROW($A$1:$A$408)),ROW(11:11))</f>
+        <v>352</v>
+      </c>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4">
+        <f t="array" ref="AC14">SMALL(IF($A$1:$A$408=$AC$3,ROW($A$1:$A$408)),ROW(11:11))</f>
+        <v>295</v>
+      </c>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="4"/>
+      <c r="AH14" s="4"/>
+      <c r="AI14" s="4"/>
+      <c r="AJ14" s="4"/>
+      <c r="AK14" s="4"/>
+      <c r="AL14" s="4"/>
+      <c r="AM14" s="4"/>
+      <c r="AN14" s="4"/>
+      <c r="AO14" s="4"/>
+      <c r="AP14" s="4"/>
+      <c r="AQ14" s="4"/>
+      <c r="AR14" s="4"/>
+      <c r="AS14" s="4"/>
+      <c r="AT14" s="4"/>
+      <c r="AU14" s="4"/>
+      <c r="AV14" s="4"/>
+      <c r="AW14" s="4"/>
+      <c r="AX14" s="4"/>
+      <c r="AY14" s="4"/>
+      <c r="AZ14" s="4"/>
+      <c r="BA14" s="4"/>
+      <c r="BB14" s="4"/>
+      <c r="BC14" s="4"/>
+      <c r="BD14" s="4"/>
+      <c r="BE14" s="4"/>
+      <c r="BF14" s="4"/>
+      <c r="BG14" s="4"/>
+      <c r="BH14" s="4"/>
+      <c r="BI14" s="4"/>
+      <c r="BJ14" s="4"/>
+      <c r="BK14" s="4"/>
+      <c r="BL14" s="4"/>
+      <c r="BM14" s="4"/>
+      <c r="BN14" s="4"/>
+    </row>
+    <row r="15" spans="1:66" ht="15.75">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="array" ref="D15">SMALL(IF($A$1:$A$408=$D$3,ROW($A$1:$A$408)),ROW(12:12))</f>
+        <v>305</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4">
+        <f t="array" ref="M15">SMALL(IF($A$1:$A$408=$M$3,ROW($A$1:$A$408)),ROW(12:12))</f>
+        <v>368</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4">
+        <f t="array" ref="AC15">SMALL(IF($A$1:$A$408=$AC$3,ROW($A$1:$A$408)),ROW(12:12))</f>
+        <v>318</v>
+      </c>
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="4"/>
+      <c r="AH15" s="4"/>
+      <c r="AI15" s="4"/>
+      <c r="AJ15" s="4"/>
+      <c r="AK15" s="4"/>
+      <c r="AL15" s="4"/>
+      <c r="AM15" s="4"/>
+      <c r="AN15" s="4"/>
+      <c r="AO15" s="4"/>
+      <c r="AP15" s="4"/>
+      <c r="AQ15" s="4"/>
+      <c r="AR15" s="4"/>
+      <c r="AS15" s="4"/>
+      <c r="AT15" s="4"/>
+      <c r="AU15" s="4"/>
+      <c r="AV15" s="4"/>
+      <c r="AW15" s="4"/>
+      <c r="AX15" s="4"/>
+      <c r="AY15" s="4"/>
+      <c r="AZ15" s="4"/>
+      <c r="BA15" s="4"/>
+      <c r="BB15" s="4"/>
+      <c r="BC15" s="4"/>
+      <c r="BD15" s="4"/>
+      <c r="BE15" s="4"/>
+      <c r="BF15" s="4"/>
+      <c r="BG15" s="4"/>
+      <c r="BH15" s="4"/>
+      <c r="BI15" s="4"/>
+      <c r="BJ15" s="4"/>
+      <c r="BK15" s="4"/>
+      <c r="BL15" s="4"/>
+      <c r="BM15" s="4"/>
+      <c r="BN15" s="4"/>
+    </row>
+    <row r="16" spans="1:66" ht="15.75">
+      <c r="A16">
+        <v>11</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="array" ref="D16">SMALL(IF($A$1:$A$408=$D$3,ROW($A$1:$A$408)),ROW(13:13))</f>
+        <v>335</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4">
+        <f t="array" ref="AC16">SMALL(IF($A$1:$A$408=$AC$3,ROW($A$1:$A$408)),ROW(13:13))</f>
+        <v>322</v>
+      </c>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="4"/>
+      <c r="AI16" s="4"/>
+      <c r="AJ16" s="4"/>
+      <c r="AK16" s="4"/>
+      <c r="AL16" s="4"/>
+      <c r="AM16" s="4"/>
+      <c r="AN16" s="4"/>
+      <c r="AO16" s="4"/>
+      <c r="AP16" s="4"/>
+      <c r="AQ16" s="4"/>
+      <c r="AR16" s="4"/>
+      <c r="AS16" s="4"/>
+      <c r="AT16" s="4"/>
+      <c r="AU16" s="4"/>
+      <c r="AV16" s="4"/>
+      <c r="AW16" s="4"/>
+      <c r="AX16" s="4"/>
+      <c r="AY16" s="4"/>
+      <c r="AZ16" s="4"/>
+      <c r="BA16" s="4"/>
+      <c r="BB16" s="4"/>
+      <c r="BC16" s="4"/>
+      <c r="BD16" s="4"/>
+      <c r="BE16" s="4"/>
+      <c r="BF16" s="4"/>
+      <c r="BG16" s="4"/>
+      <c r="BH16" s="4"/>
+      <c r="BI16" s="4"/>
+      <c r="BJ16" s="4"/>
+      <c r="BK16" s="4"/>
+      <c r="BL16" s="4"/>
+      <c r="BM16" s="4"/>
+      <c r="BN16" s="4"/>
+    </row>
+    <row r="17" spans="1:66" ht="15.75">
+      <c r="A17">
+        <v>7</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="array" ref="D17">SMALL(IF($A$1:$A$408=$D$3,ROW($A$1:$A$408)),ROW(14:14))</f>
+        <v>346</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="4">
+        <f t="array" ref="AC17">SMALL(IF($A$1:$A$408=$AC$3,ROW($A$1:$A$408)),ROW(14:14))</f>
+        <v>357</v>
+      </c>
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="4"/>
+      <c r="AH17" s="4"/>
+      <c r="AI17" s="4"/>
+      <c r="AJ17" s="4"/>
+      <c r="AK17" s="4"/>
+      <c r="AL17" s="4"/>
+      <c r="AM17" s="4"/>
+      <c r="AN17" s="4"/>
+      <c r="AO17" s="4"/>
+      <c r="AP17" s="4"/>
+      <c r="AQ17" s="4"/>
+      <c r="AR17" s="4"/>
+      <c r="AS17" s="4"/>
+      <c r="AT17" s="4"/>
+      <c r="AU17" s="4"/>
+      <c r="AV17" s="4"/>
+      <c r="AW17" s="4"/>
+      <c r="AX17" s="4"/>
+      <c r="AY17" s="4"/>
+      <c r="AZ17" s="4"/>
+      <c r="BA17" s="4"/>
+      <c r="BB17" s="4"/>
+      <c r="BC17" s="4"/>
+      <c r="BD17" s="4"/>
+      <c r="BE17" s="4"/>
+      <c r="BF17" s="4"/>
+      <c r="BG17" s="4"/>
+      <c r="BH17" s="4"/>
+      <c r="BI17" s="4"/>
+      <c r="BJ17" s="4"/>
+      <c r="BK17" s="4"/>
+      <c r="BL17" s="4"/>
+      <c r="BM17" s="4"/>
+      <c r="BN17" s="4"/>
+    </row>
+    <row r="18" spans="1:66" ht="15.75">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="array" ref="D18">SMALL(IF($A$1:$A$408=$D$3,ROW($A$1:$A$408)),ROW(15:15))</f>
+        <v>396</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="4">
+        <f t="array" ref="AC18">SMALL(IF($A$1:$A$408=$AC$3,ROW($A$1:$A$408)),ROW(15:15))</f>
+        <v>380</v>
+      </c>
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="4"/>
+      <c r="AH18" s="4"/>
+      <c r="AI18" s="4"/>
+      <c r="AJ18" s="4"/>
+      <c r="AK18" s="4"/>
+      <c r="AL18" s="4"/>
+      <c r="AM18" s="4"/>
+      <c r="AN18" s="4"/>
+      <c r="AO18" s="4"/>
+      <c r="AP18" s="4"/>
+      <c r="AQ18" s="4"/>
+      <c r="AR18" s="4"/>
+      <c r="AS18" s="4"/>
+      <c r="AT18" s="4"/>
+      <c r="AU18" s="4"/>
+      <c r="AV18" s="4"/>
+      <c r="AW18" s="4"/>
+      <c r="AX18" s="4"/>
+      <c r="AY18" s="4"/>
+      <c r="AZ18" s="4"/>
+      <c r="BA18" s="4"/>
+      <c r="BB18" s="4"/>
+      <c r="BC18" s="4"/>
+      <c r="BD18" s="4"/>
+      <c r="BE18" s="4"/>
+      <c r="BF18" s="4"/>
+      <c r="BG18" s="4"/>
+      <c r="BH18" s="4"/>
+      <c r="BI18" s="4"/>
+      <c r="BJ18" s="4"/>
+      <c r="BK18" s="4"/>
+      <c r="BL18" s="4"/>
+      <c r="BM18" s="4"/>
+      <c r="BN18" s="4"/>
+    </row>
+    <row r="19" spans="1:66" ht="15.75">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="4">
+        <f t="array" ref="AC19">SMALL(IF($A$1:$A$408=$AC$3,ROW($A$1:$A$408)),ROW(16:16))</f>
+        <v>400</v>
+      </c>
+      <c r="AD19" s="4"/>
+      <c r="AE19" s="4"/>
+      <c r="AF19" s="4"/>
+      <c r="AG19" s="4"/>
+      <c r="AH19" s="4"/>
+      <c r="AI19" s="4"/>
+      <c r="AJ19" s="4"/>
+      <c r="AK19" s="4"/>
+      <c r="AL19" s="4"/>
+      <c r="AM19" s="4"/>
+      <c r="AN19" s="4"/>
+      <c r="AO19" s="4"/>
+      <c r="AP19" s="4"/>
+      <c r="AQ19" s="4"/>
+      <c r="AR19" s="4"/>
+      <c r="AS19" s="4"/>
+      <c r="AT19" s="4"/>
+      <c r="AU19" s="4"/>
+      <c r="AV19" s="4"/>
+      <c r="AW19" s="4"/>
+      <c r="AX19" s="4"/>
+      <c r="AY19" s="4"/>
+      <c r="AZ19" s="4"/>
+      <c r="BA19" s="4"/>
+      <c r="BB19" s="4"/>
+      <c r="BC19" s="4"/>
+      <c r="BD19" s="4"/>
+      <c r="BE19" s="4"/>
+      <c r="BF19" s="4"/>
+      <c r="BG19" s="4"/>
+      <c r="BH19" s="4"/>
+      <c r="BI19" s="4"/>
+      <c r="BJ19" s="4"/>
+      <c r="BK19" s="4"/>
+      <c r="BL19" s="4"/>
+      <c r="BM19" s="4"/>
+      <c r="BN19" s="4"/>
+    </row>
+    <row r="20" spans="1:66" ht="15.75">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="4"/>
+      <c r="AD20" s="4"/>
+      <c r="AE20" s="4"/>
+      <c r="AF20" s="4"/>
+      <c r="AG20" s="4"/>
+      <c r="AH20" s="4"/>
+      <c r="AI20" s="4"/>
+      <c r="AJ20" s="4"/>
+      <c r="AK20" s="4"/>
+      <c r="AL20" s="4"/>
+      <c r="AM20" s="4"/>
+      <c r="AN20" s="4"/>
+      <c r="AO20" s="4"/>
+      <c r="AP20" s="4"/>
+      <c r="AQ20" s="4"/>
+      <c r="AR20" s="4"/>
+      <c r="AS20" s="4"/>
+      <c r="AT20" s="4"/>
+      <c r="AU20" s="4"/>
+      <c r="AV20" s="4"/>
+      <c r="AW20" s="4"/>
+      <c r="AX20" s="4"/>
+      <c r="AY20" s="4"/>
+      <c r="AZ20" s="4"/>
+      <c r="BA20" s="4"/>
+      <c r="BB20" s="4"/>
+      <c r="BC20" s="4"/>
+      <c r="BD20" s="4"/>
+      <c r="BE20" s="4"/>
+      <c r="BF20" s="4"/>
+      <c r="BG20" s="4"/>
+      <c r="BH20" s="4"/>
+      <c r="BI20" s="4"/>
+      <c r="BJ20" s="4"/>
+      <c r="BK20" s="4"/>
+      <c r="BL20" s="4"/>
+      <c r="BM20" s="4"/>
+      <c r="BN20" s="4"/>
+    </row>
+    <row r="21" spans="1:66" ht="15.75">
+      <c r="A21">
+        <v>17</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="4"/>
+      <c r="AD21" s="4"/>
+      <c r="AE21" s="4"/>
+      <c r="AF21" s="4"/>
+      <c r="AG21" s="4"/>
+      <c r="AH21" s="4"/>
+      <c r="AI21" s="4"/>
+      <c r="AJ21" s="4"/>
+      <c r="AK21" s="4"/>
+      <c r="AL21" s="4"/>
+      <c r="AM21" s="4"/>
+      <c r="AN21" s="4"/>
+      <c r="AO21" s="4"/>
+      <c r="AP21" s="4"/>
+      <c r="AQ21" s="4"/>
+      <c r="AR21" s="4"/>
+      <c r="AS21" s="4"/>
+      <c r="AT21" s="4"/>
+      <c r="AU21" s="4"/>
+      <c r="AV21" s="4"/>
+      <c r="AW21" s="4"/>
+      <c r="AX21" s="4"/>
+      <c r="AY21" s="4"/>
+      <c r="AZ21" s="4"/>
+      <c r="BA21" s="4"/>
+      <c r="BB21" s="4"/>
+      <c r="BC21" s="4"/>
+      <c r="BD21" s="4"/>
+      <c r="BE21" s="4"/>
+      <c r="BF21" s="4"/>
+      <c r="BG21" s="4"/>
+      <c r="BH21" s="4"/>
+      <c r="BI21" s="4"/>
+      <c r="BJ21" s="4"/>
+      <c r="BK21" s="4"/>
+      <c r="BL21" s="4"/>
+      <c r="BM21" s="4"/>
+      <c r="BN21" s="4"/>
+    </row>
+    <row r="22" spans="1:66" ht="15.75">
+      <c r="A22">
+        <v>18</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="4"/>
+      <c r="AJ22" s="4"/>
+      <c r="AK22" s="4"/>
+      <c r="AL22" s="4"/>
+      <c r="AM22" s="4"/>
+      <c r="AN22" s="4"/>
+      <c r="AO22" s="4"/>
+      <c r="AP22" s="4"/>
+      <c r="AQ22" s="4"/>
+      <c r="AR22" s="4"/>
+      <c r="AS22" s="4"/>
+      <c r="AT22" s="4"/>
+      <c r="AU22" s="4"/>
+      <c r="AV22" s="4"/>
+      <c r="AW22" s="4"/>
+      <c r="AX22" s="4"/>
+      <c r="AY22" s="4"/>
+      <c r="AZ22" s="4"/>
+      <c r="BA22" s="4"/>
+      <c r="BB22" s="4"/>
+      <c r="BC22" s="4"/>
+      <c r="BD22" s="4"/>
+      <c r="BE22" s="4"/>
+      <c r="BF22" s="4"/>
+      <c r="BG22" s="4"/>
+      <c r="BH22" s="4"/>
+      <c r="BI22" s="4"/>
+      <c r="BJ22" s="4"/>
+      <c r="BK22" s="4"/>
+      <c r="BL22" s="4"/>
+      <c r="BM22" s="4"/>
+      <c r="BN22" s="4"/>
+    </row>
+    <row r="23" spans="1:66" ht="15.75">
+      <c r="A23">
+        <v>19</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="4"/>
+      <c r="AE23" s="4"/>
+      <c r="AF23" s="4"/>
+      <c r="AG23" s="4"/>
+      <c r="AH23" s="4"/>
+      <c r="AI23" s="4"/>
+      <c r="AJ23" s="4"/>
+      <c r="AK23" s="4"/>
+      <c r="AL23" s="4"/>
+      <c r="AM23" s="4"/>
+      <c r="AN23" s="4"/>
+      <c r="AO23" s="4"/>
+      <c r="AP23" s="4"/>
+      <c r="AQ23" s="4"/>
+      <c r="AR23" s="4"/>
+      <c r="AS23" s="4"/>
+      <c r="AT23" s="4"/>
+      <c r="AU23" s="4"/>
+      <c r="AV23" s="4"/>
+      <c r="AW23" s="4"/>
+      <c r="AX23" s="4"/>
+      <c r="AY23" s="4"/>
+      <c r="AZ23" s="4"/>
+      <c r="BA23" s="4"/>
+      <c r="BB23" s="4"/>
+      <c r="BC23" s="4"/>
+      <c r="BD23" s="4"/>
+      <c r="BE23" s="4"/>
+      <c r="BF23" s="4"/>
+      <c r="BG23" s="4"/>
+      <c r="BH23" s="4"/>
+      <c r="BI23" s="4"/>
+      <c r="BJ23" s="4"/>
+      <c r="BK23" s="4"/>
+      <c r="BL23" s="4"/>
+      <c r="BM23" s="4"/>
+      <c r="BN23" s="4"/>
+    </row>
+    <row r="24" spans="1:66" ht="15.75">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="4"/>
+      <c r="AB24" s="4"/>
+      <c r="AC24" s="4"/>
+      <c r="AD24" s="4"/>
+      <c r="AE24" s="4"/>
+      <c r="AF24" s="4"/>
+      <c r="AG24" s="4"/>
+      <c r="AH24" s="4"/>
+      <c r="AI24" s="4"/>
+      <c r="AJ24" s="4"/>
+      <c r="AK24" s="4"/>
+      <c r="AL24" s="4"/>
+      <c r="AM24" s="4"/>
+      <c r="AN24" s="4"/>
+      <c r="AO24" s="4"/>
+      <c r="AP24" s="4"/>
+      <c r="AQ24" s="4"/>
+      <c r="AR24" s="4"/>
+      <c r="AS24" s="4"/>
+      <c r="AT24" s="4"/>
+      <c r="AU24" s="4"/>
+      <c r="AV24" s="4"/>
+      <c r="AW24" s="4"/>
+      <c r="AX24" s="4"/>
+      <c r="AY24" s="4"/>
+      <c r="AZ24" s="4"/>
+      <c r="BA24" s="4"/>
+      <c r="BB24" s="4"/>
+      <c r="BC24" s="4"/>
+      <c r="BD24" s="4"/>
+      <c r="BE24" s="4"/>
+      <c r="BF24" s="4"/>
+      <c r="BG24" s="4"/>
+      <c r="BH24" s="4"/>
+      <c r="BI24" s="4"/>
+      <c r="BJ24" s="4"/>
+      <c r="BK24" s="4"/>
+      <c r="BL24" s="4"/>
+      <c r="BM24" s="4"/>
+      <c r="BN24" s="4"/>
+    </row>
+    <row r="25" spans="1:66" ht="15.75">
+      <c r="A25">
+        <v>21</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4"/>
+      <c r="AA25" s="4"/>
+      <c r="AB25" s="4"/>
+      <c r="AC25" s="4"/>
+      <c r="AD25" s="4"/>
+      <c r="AE25" s="4"/>
+      <c r="AF25" s="4"/>
+      <c r="AG25" s="4"/>
+      <c r="AH25" s="4"/>
+      <c r="AI25" s="4"/>
+      <c r="AJ25" s="4"/>
+      <c r="AK25" s="4"/>
+      <c r="AL25" s="4"/>
+      <c r="AM25" s="4"/>
+      <c r="AN25" s="4"/>
+      <c r="AO25" s="4"/>
+      <c r="AP25" s="4"/>
+      <c r="AQ25" s="4"/>
+      <c r="AR25" s="4"/>
+      <c r="AS25" s="4"/>
+      <c r="AT25" s="4"/>
+      <c r="AU25" s="4"/>
+      <c r="AV25" s="4"/>
+      <c r="AW25" s="4"/>
+      <c r="AX25" s="4"/>
+      <c r="AY25" s="4"/>
+      <c r="AZ25" s="4"/>
+      <c r="BA25" s="4"/>
+      <c r="BB25" s="4"/>
+      <c r="BC25" s="4"/>
+      <c r="BD25" s="4"/>
+      <c r="BE25" s="4"/>
+      <c r="BF25" s="4"/>
+      <c r="BG25" s="4"/>
+      <c r="BH25" s="4"/>
+      <c r="BI25" s="4"/>
+      <c r="BJ25" s="4"/>
+      <c r="BK25" s="4"/>
+      <c r="BL25" s="4"/>
+      <c r="BM25" s="4"/>
+      <c r="BN25" s="4"/>
+    </row>
+    <row r="26" spans="1:66" ht="15.75">
+      <c r="A26">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4"/>
+      <c r="AA26" s="4"/>
+      <c r="AB26" s="4"/>
+      <c r="AC26" s="4"/>
+      <c r="AD26" s="4"/>
+      <c r="AE26" s="4"/>
+      <c r="AF26" s="4"/>
+      <c r="AG26" s="4"/>
+      <c r="AH26" s="4"/>
+      <c r="AI26" s="4"/>
+      <c r="AJ26" s="4"/>
+      <c r="AK26" s="4"/>
+      <c r="AL26" s="4"/>
+      <c r="AM26" s="4"/>
+      <c r="AN26" s="4"/>
+      <c r="AO26" s="4"/>
+      <c r="AP26" s="4"/>
+      <c r="AQ26" s="4"/>
+      <c r="AR26" s="4"/>
+      <c r="AS26" s="4"/>
+      <c r="AT26" s="4"/>
+      <c r="AU26" s="4"/>
+      <c r="AV26" s="4"/>
+      <c r="AW26" s="4"/>
+      <c r="AX26" s="4"/>
+      <c r="AY26" s="4"/>
+      <c r="AZ26" s="4"/>
+      <c r="BA26" s="4"/>
+      <c r="BB26" s="4"/>
+      <c r="BC26" s="4"/>
+      <c r="BD26" s="4"/>
+      <c r="BE26" s="4"/>
+      <c r="BF26" s="4"/>
+      <c r="BG26" s="4"/>
+      <c r="BH26" s="4"/>
+      <c r="BI26" s="4"/>
+      <c r="BJ26" s="4"/>
+      <c r="BK26" s="4"/>
+      <c r="BL26" s="4"/>
+      <c r="BM26" s="4"/>
+      <c r="BN26" s="4"/>
+    </row>
+    <row r="27" spans="1:66" ht="15.75">
+      <c r="A27">
+        <v>22</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4"/>
+      <c r="AA27" s="4"/>
+      <c r="AB27" s="4"/>
+      <c r="AC27" s="4"/>
+      <c r="AD27" s="4"/>
+      <c r="AE27" s="4"/>
+      <c r="AF27" s="4"/>
+      <c r="AG27" s="4"/>
+      <c r="AH27" s="4"/>
+      <c r="AI27" s="4"/>
+      <c r="AJ27" s="4"/>
+      <c r="AK27" s="4"/>
+      <c r="AL27" s="4"/>
+      <c r="AM27" s="4"/>
+      <c r="AN27" s="4"/>
+      <c r="AO27" s="4"/>
+      <c r="AP27" s="4"/>
+      <c r="AQ27" s="4"/>
+      <c r="AR27" s="4"/>
+      <c r="AS27" s="4"/>
+      <c r="AT27" s="4"/>
+      <c r="AU27" s="4"/>
+      <c r="AV27" s="4"/>
+      <c r="AW27" s="4"/>
+      <c r="AX27" s="4"/>
+      <c r="AY27" s="4"/>
+      <c r="AZ27" s="4"/>
+      <c r="BA27" s="4"/>
+      <c r="BB27" s="4"/>
+      <c r="BC27" s="4"/>
+      <c r="BD27" s="4"/>
+      <c r="BE27" s="4"/>
+      <c r="BF27" s="4"/>
+      <c r="BG27" s="4"/>
+      <c r="BH27" s="4"/>
+      <c r="BI27" s="4"/>
+      <c r="BJ27" s="4"/>
+      <c r="BK27" s="4"/>
+      <c r="BL27" s="4"/>
+      <c r="BM27" s="4"/>
+      <c r="BN27" s="4"/>
+    </row>
+    <row r="28" spans="1:66">
+      <c r="A28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:66">
+      <c r="A29">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:66">
+      <c r="A30">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:66">
+      <c r="A31">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:66">
+      <c r="A32">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <f t="array" ref="B10">SMALL(IF($A$1:$A$7=$A$10,ROW($A$1:$A$7)),ROW(1:1))</f>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="B11">
-        <f t="array" ref="B11">SMALL(IF($A$1:$A$7=$A$10,ROW($A$1:$A$7)),ROW(2:2))</f>
+    <row r="209" spans="1:1">
+      <c r="A209">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1">
+      <c r="A259">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1">
+      <c r="A261">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1">
+      <c r="A262">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1">
+      <c r="A264">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1">
+      <c r="A267">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1">
+      <c r="A268">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1">
+      <c r="A269">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1">
+      <c r="A270">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1">
+      <c r="A271">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1">
+      <c r="A272">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1">
+      <c r="A273">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1">
+      <c r="A274">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1">
+      <c r="A275">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1">
+      <c r="A276">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1">
+      <c r="A277">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1">
+      <c r="A278">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1">
+      <c r="A279">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="B12">
-        <f t="array" ref="B12">SMALL(IF($A$1:$A$7=$A$10,ROW($A$1:$A$7)),ROW(3:3))</f>
+    <row r="280" spans="1:1">
+      <c r="A280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1">
+      <c r="A281">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1">
+      <c r="A282">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1">
+      <c r="A283">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1">
+      <c r="A284">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1">
+      <c r="A285">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1">
+      <c r="A286">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1">
+      <c r="A287">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1">
+      <c r="A288">
         <v>7</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1">
+      <c r="A289">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1">
+      <c r="A290">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1">
+      <c r="A291">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1">
+      <c r="A292">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1">
+      <c r="A293">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1">
+      <c r="A294">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1">
+      <c r="A295">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1">
+      <c r="A296">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1">
+      <c r="A297">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1">
+      <c r="A298">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1">
+      <c r="A299">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1">
+      <c r="A300">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1">
+      <c r="A301">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1">
+      <c r="A302">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1">
+      <c r="A303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1">
+      <c r="A304">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1">
+      <c r="A305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1">
+      <c r="A306">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1">
+      <c r="A307">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1">
+      <c r="A308">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1">
+      <c r="A309">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1">
+      <c r="A310">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1">
+      <c r="A311">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1">
+      <c r="A312">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1">
+      <c r="A313">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1">
+      <c r="A314">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1">
+      <c r="A315">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1">
+      <c r="A316">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1">
+      <c r="A317">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1">
+      <c r="A318">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1">
+      <c r="A319">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1">
+      <c r="A320">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1">
+      <c r="A321">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1">
+      <c r="A322">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1">
+      <c r="A323">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1">
+      <c r="A324">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1">
+      <c r="A325">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1">
+      <c r="A326">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1">
+      <c r="A327">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1">
+      <c r="A328">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1">
+      <c r="A329">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1">
+      <c r="A330">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1">
+      <c r="A331">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1">
+      <c r="A332">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1">
+      <c r="A333">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1">
+      <c r="A334">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1">
+      <c r="A335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1">
+      <c r="A336">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1">
+      <c r="A337">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1">
+      <c r="A338">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1">
+      <c r="A339">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1">
+      <c r="A340">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1">
+      <c r="A341">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1">
+      <c r="A342">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1">
+      <c r="A343">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1">
+      <c r="A344">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1">
+      <c r="A345">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1">
+      <c r="A346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1">
+      <c r="A347">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1">
+      <c r="A348">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1">
+      <c r="A349">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1">
+      <c r="A350">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1">
+      <c r="A351">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1">
+      <c r="A352">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1">
+      <c r="A353">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1">
+      <c r="A354">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1">
+      <c r="A355">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1">
+      <c r="A356">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1">
+      <c r="A357">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1">
+      <c r="A358">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1">
+      <c r="A359">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1">
+      <c r="A360">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1">
+      <c r="A361">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1">
+      <c r="A362">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1">
+      <c r="A363">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1">
+      <c r="A364">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1">
+      <c r="A365">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1">
+      <c r="A366">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1">
+      <c r="A367">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1">
+      <c r="A368">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1">
+      <c r="A369">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1">
+      <c r="A370">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1">
+      <c r="A371">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1">
+      <c r="A372">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1">
+      <c r="A373">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1">
+      <c r="A374">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1">
+      <c r="A375">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1">
+      <c r="A376">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1">
+      <c r="A377">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1">
+      <c r="A378">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1">
+      <c r="A379">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1">
+      <c r="A380">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1">
+      <c r="A381">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1">
+      <c r="A382">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1">
+      <c r="A383">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1">
+      <c r="A384">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1">
+      <c r="A385">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1">
+      <c r="A386">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1">
+      <c r="A387">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1">
+      <c r="A388">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1">
+      <c r="A389">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1">
+      <c r="A390">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1">
+      <c r="A391">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1">
+      <c r="A392">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1">
+      <c r="A393">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1">
+      <c r="A394">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1">
+      <c r="A395">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1">
+      <c r="A396">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1">
+      <c r="A397">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1">
+      <c r="A398">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1">
+      <c r="A399">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1">
+      <c r="A400">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1">
+      <c r="A401">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1">
+      <c r="A402">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1">
+      <c r="A403">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1">
+      <c r="A404">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1">
+      <c r="A405">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1">
+      <c r="A406">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1">
+      <c r="A407">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1">
+      <c r="A408">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Documentation/Design/Cipher Models.xlsx
+++ b/Documentation/Design/Cipher Models.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="28755" windowHeight="12585" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="28755" windowHeight="12585" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Z340" sheetId="1" r:id="rId1"/>
@@ -386,7 +386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BN343"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A306" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -4212,8 +4212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BN408"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView topLeftCell="A370" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9164,12 +9164,1649 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AC152"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:29">
+      <c r="A1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
+      <c r="A2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6">
+        <v>2</v>
+      </c>
+      <c r="F3" s="6">
+        <v>3</v>
+      </c>
+      <c r="G3" s="6">
+        <v>4</v>
+      </c>
+      <c r="H3" s="6">
+        <v>5</v>
+      </c>
+      <c r="I3" s="6">
+        <v>6</v>
+      </c>
+      <c r="J3" s="6">
+        <v>7</v>
+      </c>
+      <c r="K3" s="6">
+        <v>8</v>
+      </c>
+      <c r="L3" s="6">
+        <v>9</v>
+      </c>
+      <c r="M3" s="6">
+        <v>10</v>
+      </c>
+      <c r="N3" s="6">
+        <v>11</v>
+      </c>
+      <c r="O3" s="6">
+        <v>12</v>
+      </c>
+      <c r="P3" s="6">
+        <v>13</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>14</v>
+      </c>
+      <c r="R3" s="6">
+        <v>15</v>
+      </c>
+      <c r="S3" s="6">
+        <v>16</v>
+      </c>
+      <c r="T3" s="6">
+        <v>17</v>
+      </c>
+      <c r="U3" s="6">
+        <v>18</v>
+      </c>
+      <c r="V3" s="6">
+        <v>19</v>
+      </c>
+      <c r="W3" s="6">
+        <v>20</v>
+      </c>
+      <c r="X3" s="6">
+        <v>21</v>
+      </c>
+      <c r="Y3" s="6">
+        <v>22</v>
+      </c>
+      <c r="Z3" s="6">
+        <v>23</v>
+      </c>
+      <c r="AA3" s="6">
+        <v>24</v>
+      </c>
+      <c r="AB3" s="6">
+        <v>25</v>
+      </c>
+      <c r="AC3" s="6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="array" ref="D4">SMALL(IF($A$1:$A$408=$D$3,ROW($A$1:$A$408)),ROW(1:1))</f>
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="array" ref="E4">SMALL(IF($A$1:$A$408=$E$3,ROW($A$1:$A$408)),ROW(1:1))</f>
+        <v>2</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="array" ref="F4">SMALL(IF($A$1:$A$408=$F$3,ROW($A$1:$A$408)),ROW(1:1))</f>
+        <v>3</v>
+      </c>
+      <c r="G4" s="4">
+        <f t="array" ref="G4">SMALL(IF($A$1:$A$408=$G$3,ROW($A$1:$A$408)),ROW(1:1))</f>
+        <v>4</v>
+      </c>
+      <c r="H4" s="4">
+        <f t="array" ref="H4">SMALL(IF($A$1:$A$408=$H$3,ROW($A$1:$A$408)),ROW(1:1))</f>
+        <v>7</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="array" ref="I4">SMALL(IF($A$1:$A$408=$I$3,ROW($A$1:$A$408)),ROW(1:1))</f>
+        <v>9</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="array" ref="J4">SMALL(IF($A$1:$A$408=$J$3,ROW($A$1:$A$408)),ROW(1:1))</f>
+        <v>10</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="array" ref="K4">SMALL(IF($A$1:$A$408=$K$3,ROW($A$1:$A$408)),ROW(1:1))</f>
+        <v>13</v>
+      </c>
+      <c r="L4" s="4">
+        <f t="array" ref="L4">SMALL(IF($A$1:$A$408=$L$3,ROW($A$1:$A$408)),ROW(1:1))</f>
+        <v>18</v>
+      </c>
+      <c r="M4" s="4">
+        <f t="array" ref="M4">SMALL(IF($A$1:$A$408=$M$3,ROW($A$1:$A$408)),ROW(1:1))</f>
+        <v>19</v>
+      </c>
+      <c r="N4" s="4">
+        <f t="array" ref="N4">SMALL(IF($A$1:$A$408=$N$3,ROW($A$1:$A$408)),ROW(1:1))</f>
+        <v>20</v>
+      </c>
+      <c r="O4" s="4">
+        <f t="array" ref="O4">SMALL(IF($A$1:$A$408=$O$3,ROW($A$1:$A$408)),ROW(1:1))</f>
+        <v>22</v>
+      </c>
+      <c r="P4" s="4">
+        <f t="array" ref="P4">SMALL(IF($A$1:$A$408=$P$3,ROW($A$1:$A$408)),ROW(1:1))</f>
+        <v>24</v>
+      </c>
+      <c r="Q4" s="4">
+        <f t="array" ref="Q4">SMALL(IF($A$1:$A$408=$Q$3,ROW($A$1:$A$408)),ROW(1:1))</f>
+        <v>25</v>
+      </c>
+      <c r="R4" s="4">
+        <f t="array" ref="R4">SMALL(IF($A$1:$A$408=$R$3,ROW($A$1:$A$408)),ROW(1:1))</f>
+        <v>26</v>
+      </c>
+      <c r="S4" s="4">
+        <f t="array" ref="S4">SMALL(IF($A$1:$A$408=$S$3,ROW($A$1:$A$408)),ROW(1:1))</f>
+        <v>43</v>
+      </c>
+      <c r="T4" s="4">
+        <f t="array" ref="T4">SMALL(IF($A$1:$A$408=$T$3,ROW($A$1:$A$408)),ROW(1:1))</f>
+        <v>46</v>
+      </c>
+      <c r="U4" s="4">
+        <f t="array" ref="U4">SMALL(IF($A$1:$A$408=$U$3,ROW($A$1:$A$408)),ROW(1:1))</f>
+        <v>62</v>
+      </c>
+      <c r="V4" s="4">
+        <f t="array" ref="V4">SMALL(IF($A$1:$A$408=$V$3,ROW($A$1:$A$408)),ROW(1:1))</f>
+        <v>69</v>
+      </c>
+      <c r="W4" s="4">
+        <f t="array" ref="W4">SMALL(IF($A$1:$A$408=$W$3,ROW($A$1:$A$408)),ROW(1:1))</f>
+        <v>74</v>
+      </c>
+      <c r="X4" s="4">
+        <f t="array" ref="X4">SMALL(IF($A$1:$A$408=$X$3,ROW($A$1:$A$408)),ROW(1:1))</f>
+        <v>92</v>
+      </c>
+      <c r="Y4" s="4">
+        <f t="array" ref="Y4">SMALL(IF($A$1:$A$408=$Y$3,ROW($A$1:$A$408)),ROW(1:1))</f>
+        <v>102</v>
+      </c>
+      <c r="Z4" s="4" t="e">
+        <f t="array" ref="Z4">SMALL(IF($A$1:$A$408=$Z$3,ROW($A$1:$A$408)),ROW(1:1))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AA4" s="4" t="e">
+        <f t="array" ref="AA4">SMALL(IF($A$1:$A$408=$AA$3,ROW($A$1:$A$408)),ROW(1:1))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AB4" s="4" t="e">
+        <f t="array" ref="AB4">SMALL(IF($A$1:$A$408=$AB$3,ROW($A$1:$A$408)),ROW(1:1))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC4" s="4" t="e">
+        <f t="array" ref="AC4">SMALL(IF($A$1:$A$408=$AC$3,ROW($A$1:$A$408)),ROW(1:1))</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="array" ref="D5">SMALL(IF($A$1:$A$408=$D$3,ROW($A$1:$A$408)),ROW(2:2))</f>
+        <v>12</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="array" ref="E5">SMALL(IF($A$1:$A$408=$E$3,ROW($A$1:$A$408)),ROW(2:2))</f>
+        <v>23</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="array" ref="F5">SMALL(IF($A$1:$A$408=$F$3,ROW($A$1:$A$408)),ROW(2:2))</f>
+        <v>5</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="array" ref="G5">SMALL(IF($A$1:$A$408=$G$3,ROW($A$1:$A$408)),ROW(2:2))</f>
+        <v>6</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4">
+        <f t="array" ref="I5">SMALL(IF($A$1:$A$408=$I$3,ROW($A$1:$A$408)),ROW(2:2))</f>
+        <v>15</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4">
+        <f t="array" ref="K5">SMALL(IF($A$1:$A$408=$K$3,ROW($A$1:$A$408)),ROW(2:2))</f>
+        <v>41</v>
+      </c>
+      <c r="L5" s="4">
+        <f t="array" ref="L5">SMALL(IF($A$1:$A$408=$L$3,ROW($A$1:$A$408)),ROW(2:2))</f>
+        <v>27</v>
+      </c>
+      <c r="M5" s="4">
+        <f t="array" ref="M5">SMALL(IF($A$1:$A$408=$M$3,ROW($A$1:$A$408)),ROW(2:2))</f>
+        <v>33</v>
+      </c>
+      <c r="N5" s="4">
+        <f t="array" ref="N5">SMALL(IF($A$1:$A$408=$N$3,ROW($A$1:$A$408)),ROW(2:2))</f>
+        <v>50</v>
+      </c>
+      <c r="O5" s="4">
+        <f t="array" ref="O5">SMALL(IF($A$1:$A$408=$O$3,ROW($A$1:$A$408)),ROW(2:2))</f>
+        <v>47</v>
+      </c>
+      <c r="P5" s="4">
+        <f t="array" ref="P5">SMALL(IF($A$1:$A$408=$P$3,ROW($A$1:$A$408)),ROW(2:2))</f>
+        <v>31</v>
+      </c>
+      <c r="Q5" s="4">
+        <f t="array" ref="Q5">SMALL(IF($A$1:$A$408=$Q$3,ROW($A$1:$A$408)),ROW(2:2))</f>
+        <v>28</v>
+      </c>
+      <c r="R5" s="4">
+        <f t="array" ref="R5">SMALL(IF($A$1:$A$408=$R$3,ROW($A$1:$A$408)),ROW(2:2))</f>
+        <v>45</v>
+      </c>
+      <c r="S5" s="4">
+        <f t="array" ref="S5">SMALL(IF($A$1:$A$408=$S$3,ROW($A$1:$A$408)),ROW(2:2))</f>
+        <v>54</v>
+      </c>
+      <c r="T5" s="4">
+        <f t="array" ref="T5">SMALL(IF($A$1:$A$408=$T$3,ROW($A$1:$A$408)),ROW(2:2))</f>
+        <v>61</v>
+      </c>
+      <c r="U5" s="4">
+        <f t="array" ref="U5">SMALL(IF($A$1:$A$408=$U$3,ROW($A$1:$A$408)),ROW(2:2))</f>
+        <v>139</v>
+      </c>
+      <c r="V5" s="4">
+        <f t="array" ref="V5">SMALL(IF($A$1:$A$408=$V$3,ROW($A$1:$A$408)),ROW(2:2))</f>
+        <v>87</v>
+      </c>
+      <c r="W5" s="4">
+        <f t="array" ref="W5">SMALL(IF($A$1:$A$408=$W$3,ROW($A$1:$A$408)),ROW(2:2))</f>
+        <v>78</v>
+      </c>
+      <c r="X5" s="4">
+        <f t="array" ref="X5">SMALL(IF($A$1:$A$408=$X$3,ROW($A$1:$A$408)),ROW(2:2))</f>
+        <v>145</v>
+      </c>
+      <c r="Y5" s="4"/>
+    </row>
+    <row r="6" spans="1:29">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="array" ref="D6">SMALL(IF($A$1:$A$408=$D$3,ROW($A$1:$A$408)),ROW(3:3))</f>
+        <v>14</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="array" ref="E6">SMALL(IF($A$1:$A$408=$E$3,ROW($A$1:$A$408)),ROW(3:3))</f>
+        <v>35</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="array" ref="F6">SMALL(IF($A$1:$A$408=$F$3,ROW($A$1:$A$408)),ROW(3:3))</f>
+        <v>17</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="array" ref="G6">SMALL(IF($A$1:$A$408=$G$3,ROW($A$1:$A$408)),ROW(3:3))</f>
+        <v>8</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4">
+        <f t="array" ref="I6">SMALL(IF($A$1:$A$408=$I$3,ROW($A$1:$A$408)),ROW(3:3))</f>
+        <v>29</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4">
+        <f t="array" ref="K6">SMALL(IF($A$1:$A$408=$K$3,ROW($A$1:$A$408)),ROW(3:3))</f>
+        <v>48</v>
+      </c>
+      <c r="L6" s="4">
+        <f t="array" ref="L6">SMALL(IF($A$1:$A$408=$L$3,ROW($A$1:$A$408)),ROW(3:3))</f>
+        <v>44</v>
+      </c>
+      <c r="M6" s="4">
+        <f t="array" ref="M6">SMALL(IF($A$1:$A$408=$M$3,ROW($A$1:$A$408)),ROW(3:3))</f>
+        <v>42</v>
+      </c>
+      <c r="N6" s="4">
+        <f t="array" ref="N6">SMALL(IF($A$1:$A$408=$N$3,ROW($A$1:$A$408)),ROW(3:3))</f>
+        <v>60</v>
+      </c>
+      <c r="O6" s="4">
+        <f t="array" ref="O6">SMALL(IF($A$1:$A$408=$O$3,ROW($A$1:$A$408)),ROW(3:3))</f>
+        <v>103</v>
+      </c>
+      <c r="P6" s="4">
+        <f t="array" ref="P6">SMALL(IF($A$1:$A$408=$P$3,ROW($A$1:$A$408)),ROW(3:3))</f>
+        <v>36</v>
+      </c>
+      <c r="Q6" s="4">
+        <f t="array" ref="Q6">SMALL(IF($A$1:$A$408=$Q$3,ROW($A$1:$A$408)),ROW(3:3))</f>
+        <v>65</v>
+      </c>
+      <c r="R6" s="4">
+        <f t="array" ref="R6">SMALL(IF($A$1:$A$408=$R$3,ROW($A$1:$A$408)),ROW(3:3))</f>
+        <v>53</v>
+      </c>
+      <c r="S6" s="4">
+        <f t="array" ref="S6">SMALL(IF($A$1:$A$408=$S$3,ROW($A$1:$A$408)),ROW(3:3))</f>
+        <v>63</v>
+      </c>
+      <c r="T6" s="4">
+        <f t="array" ref="T6">SMALL(IF($A$1:$A$408=$T$3,ROW($A$1:$A$408)),ROW(3:3))</f>
+        <v>75</v>
+      </c>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4">
+        <f t="array" ref="V6">SMALL(IF($A$1:$A$408=$V$3,ROW($A$1:$A$408)),ROW(3:3))</f>
+        <v>107</v>
+      </c>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+    </row>
+    <row r="7" spans="1:29">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="array" ref="D7">SMALL(IF($A$1:$A$408=$D$3,ROW($A$1:$A$408)),ROW(4:4))</f>
+        <v>16</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="array" ref="E7">SMALL(IF($A$1:$A$408=$E$3,ROW($A$1:$A$408)),ROW(4:4))</f>
+        <v>68</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="array" ref="F7">SMALL(IF($A$1:$A$408=$F$3,ROW($A$1:$A$408)),ROW(4:4))</f>
+        <v>21</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="array" ref="G7">SMALL(IF($A$1:$A$408=$G$3,ROW($A$1:$A$408)),ROW(4:4))</f>
+        <v>11</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4">
+        <f t="array" ref="I7">SMALL(IF($A$1:$A$408=$I$3,ROW($A$1:$A$408)),ROW(4:4))</f>
+        <v>93</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4">
+        <f t="array" ref="K7">SMALL(IF($A$1:$A$408=$K$3,ROW($A$1:$A$408)),ROW(4:4))</f>
+        <v>59</v>
+      </c>
+      <c r="L7" s="4">
+        <f t="array" ref="L7">SMALL(IF($A$1:$A$408=$L$3,ROW($A$1:$A$408)),ROW(4:4))</f>
+        <v>52</v>
+      </c>
+      <c r="M7" s="4">
+        <f t="array" ref="M7">SMALL(IF($A$1:$A$408=$M$3,ROW($A$1:$A$408)),ROW(4:4))</f>
+        <v>56</v>
+      </c>
+      <c r="N7" s="4">
+        <f t="array" ref="N7">SMALL(IF($A$1:$A$408=$N$3,ROW($A$1:$A$408)),ROW(4:4))</f>
+        <v>94</v>
+      </c>
+      <c r="O7" s="4">
+        <f t="array" ref="O7">SMALL(IF($A$1:$A$408=$O$3,ROW($A$1:$A$408)),ROW(4:4))</f>
+        <v>117</v>
+      </c>
+      <c r="P7" s="4">
+        <f t="array" ref="P7">SMALL(IF($A$1:$A$408=$P$3,ROW($A$1:$A$408)),ROW(4:4))</f>
+        <v>38</v>
+      </c>
+      <c r="Q7" s="4">
+        <f t="array" ref="Q7">SMALL(IF($A$1:$A$408=$Q$3,ROW($A$1:$A$408)),ROW(4:4))</f>
+        <v>76</v>
+      </c>
+      <c r="R7" s="4">
+        <f t="array" ref="R7">SMALL(IF($A$1:$A$408=$R$3,ROW($A$1:$A$408)),ROW(4:4))</f>
+        <v>72</v>
+      </c>
+      <c r="S7" s="4">
+        <f t="array" ref="S7">SMALL(IF($A$1:$A$408=$S$3,ROW($A$1:$A$408)),ROW(4:4))</f>
+        <v>97</v>
+      </c>
+      <c r="T7" s="4">
+        <f t="array" ref="T7">SMALL(IF($A$1:$A$408=$T$3,ROW($A$1:$A$408)),ROW(4:4))</f>
+        <v>85</v>
+      </c>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4">
+        <f t="array" ref="V7">SMALL(IF($A$1:$A$408=$V$3,ROW($A$1:$A$408)),ROW(4:4))</f>
+        <v>131</v>
+      </c>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+    </row>
+    <row r="8" spans="1:29">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="array" ref="D8">SMALL(IF($A$1:$A$408=$D$3,ROW($A$1:$A$408)),ROW(5:5))</f>
+        <v>34</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="array" ref="E8">SMALL(IF($A$1:$A$408=$E$3,ROW($A$1:$A$408)),ROW(5:5))</f>
+        <v>81</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="array" ref="F8">SMALL(IF($A$1:$A$408=$F$3,ROW($A$1:$A$408)),ROW(5:5))</f>
+        <v>32</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="array" ref="G8">SMALL(IF($A$1:$A$408=$G$3,ROW($A$1:$A$408)),ROW(5:5))</f>
+        <v>30</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4">
+        <f t="array" ref="I8">SMALL(IF($A$1:$A$408=$I$3,ROW($A$1:$A$408)),ROW(5:5))</f>
+        <v>125</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4">
+        <f t="array" ref="K8">SMALL(IF($A$1:$A$408=$K$3,ROW($A$1:$A$408)),ROW(5:5))</f>
+        <v>66</v>
+      </c>
+      <c r="L8" s="4">
+        <f t="array" ref="L8">SMALL(IF($A$1:$A$408=$L$3,ROW($A$1:$A$408)),ROW(5:5))</f>
+        <v>64</v>
+      </c>
+      <c r="M8" s="4">
+        <f t="array" ref="M8">SMALL(IF($A$1:$A$408=$M$3,ROW($A$1:$A$408)),ROW(5:5))</f>
+        <v>96</v>
+      </c>
+      <c r="N8" s="4">
+        <f t="array" ref="N8">SMALL(IF($A$1:$A$408=$N$3,ROW($A$1:$A$408)),ROW(5:5))</f>
+        <v>119</v>
+      </c>
+      <c r="O8" s="4">
+        <f t="array" ref="O8">SMALL(IF($A$1:$A$408=$O$3,ROW($A$1:$A$408)),ROW(5:5))</f>
+        <v>138</v>
+      </c>
+      <c r="P8" s="4">
+        <f t="array" ref="P8">SMALL(IF($A$1:$A$408=$P$3,ROW($A$1:$A$408)),ROW(5:5))</f>
+        <v>49</v>
+      </c>
+      <c r="Q8" s="4">
+        <f t="array" ref="Q8">SMALL(IF($A$1:$A$408=$Q$3,ROW($A$1:$A$408)),ROW(5:5))</f>
+        <v>90</v>
+      </c>
+      <c r="R8" s="4">
+        <f t="array" ref="R8">SMALL(IF($A$1:$A$408=$R$3,ROW($A$1:$A$408)),ROW(5:5))</f>
+        <v>89</v>
+      </c>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4">
+        <f t="array" ref="T8">SMALL(IF($A$1:$A$408=$T$3,ROW($A$1:$A$408)),ROW(5:5))</f>
+        <v>111</v>
+      </c>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4">
+        <f t="array" ref="V8">SMALL(IF($A$1:$A$408=$V$3,ROW($A$1:$A$408)),ROW(5:5))</f>
+        <v>137</v>
+      </c>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="array" ref="D9">SMALL(IF($A$1:$A$408=$D$3,ROW($A$1:$A$408)),ROW(6:6))</f>
+        <v>37</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="array" ref="E9">SMALL(IF($A$1:$A$408=$E$3,ROW($A$1:$A$408)),ROW(6:6))</f>
+        <v>83</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4">
+        <f t="array" ref="G9">SMALL(IF($A$1:$A$408=$G$3,ROW($A$1:$A$408)),ROW(6:6))</f>
+        <v>39</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4">
+        <f t="array" ref="K9">SMALL(IF($A$1:$A$408=$K$3,ROW($A$1:$A$408)),ROW(6:6))</f>
+        <v>79</v>
+      </c>
+      <c r="L9" s="4">
+        <f t="array" ref="L9">SMALL(IF($A$1:$A$408=$L$3,ROW($A$1:$A$408)),ROW(6:6))</f>
+        <v>71</v>
+      </c>
+      <c r="M9" s="4">
+        <f t="array" ref="M9">SMALL(IF($A$1:$A$408=$M$3,ROW($A$1:$A$408)),ROW(6:6))</f>
+        <v>109</v>
+      </c>
+      <c r="N9" s="4">
+        <f t="array" ref="N9">SMALL(IF($A$1:$A$408=$N$3,ROW($A$1:$A$408)),ROW(6:6))</f>
+        <v>135</v>
+      </c>
+      <c r="O9" s="4">
+        <f t="array" ref="O9">SMALL(IF($A$1:$A$408=$O$3,ROW($A$1:$A$408)),ROW(6:6))</f>
+        <v>148</v>
+      </c>
+      <c r="P9" s="4">
+        <f t="array" ref="P9">SMALL(IF($A$1:$A$408=$P$3,ROW($A$1:$A$408)),ROW(6:6))</f>
+        <v>51</v>
+      </c>
+      <c r="Q9" s="4">
+        <f t="array" ref="Q9">SMALL(IF($A$1:$A$408=$Q$3,ROW($A$1:$A$408)),ROW(6:6))</f>
+        <v>105</v>
+      </c>
+      <c r="R9" s="4">
+        <f t="array" ref="R9">SMALL(IF($A$1:$A$408=$R$3,ROW($A$1:$A$408)),ROW(6:6))</f>
+        <v>121</v>
+      </c>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4">
+        <f t="array" ref="T9">SMALL(IF($A$1:$A$408=$T$3,ROW($A$1:$A$408)),ROW(6:6))</f>
+        <v>118</v>
+      </c>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+    </row>
+    <row r="10" spans="1:29">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="array" ref="D10">SMALL(IF($A$1:$A$408=$D$3,ROW($A$1:$A$408)),ROW(7:7))</f>
+        <v>40</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="array" ref="E10">SMALL(IF($A$1:$A$408=$E$3,ROW($A$1:$A$408)),ROW(7:7))</f>
+        <v>99</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4">
+        <f t="array" ref="G10">SMALL(IF($A$1:$A$408=$G$3,ROW($A$1:$A$408)),ROW(7:7))</f>
+        <v>70</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4">
+        <f t="array" ref="K10">SMALL(IF($A$1:$A$408=$K$3,ROW($A$1:$A$408)),ROW(7:7))</f>
+        <v>86</v>
+      </c>
+      <c r="L10" s="4">
+        <f t="array" ref="L10">SMALL(IF($A$1:$A$408=$L$3,ROW($A$1:$A$408)),ROW(7:7))</f>
+        <v>88</v>
+      </c>
+      <c r="M10" s="4">
+        <f t="array" ref="M10">SMALL(IF($A$1:$A$408=$M$3,ROW($A$1:$A$408)),ROW(7:7))</f>
+        <v>115</v>
+      </c>
+      <c r="N10" s="4">
+        <f t="array" ref="N10">SMALL(IF($A$1:$A$408=$N$3,ROW($A$1:$A$408)),ROW(7:7))</f>
+        <v>141</v>
+      </c>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4">
+        <f t="array" ref="P10">SMALL(IF($A$1:$A$408=$P$3,ROW($A$1:$A$408)),ROW(7:7))</f>
+        <v>55</v>
+      </c>
+      <c r="Q10" s="4">
+        <f t="array" ref="Q10">SMALL(IF($A$1:$A$408=$Q$3,ROW($A$1:$A$408)),ROW(7:7))</f>
+        <v>123</v>
+      </c>
+      <c r="R10" s="4">
+        <f t="array" ref="R10">SMALL(IF($A$1:$A$408=$R$3,ROW($A$1:$A$408)),ROW(7:7))</f>
+        <v>124</v>
+      </c>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4">
+        <f t="array" ref="T10">SMALL(IF($A$1:$A$408=$T$3,ROW($A$1:$A$408)),ROW(7:7))</f>
+        <v>142</v>
+      </c>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+    </row>
+    <row r="11" spans="1:29">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="array" ref="D11">SMALL(IF($A$1:$A$408=$D$3,ROW($A$1:$A$408)),ROW(8:8))</f>
+        <v>58</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="array" ref="E11">SMALL(IF($A$1:$A$408=$E$3,ROW($A$1:$A$408)),ROW(8:8))</f>
+        <v>128</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4">
+        <f t="array" ref="G11">SMALL(IF($A$1:$A$408=$G$3,ROW($A$1:$A$408)),ROW(8:8))</f>
+        <v>116</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4">
+        <f t="array" ref="K11">SMALL(IF($A$1:$A$408=$K$3,ROW($A$1:$A$408)),ROW(8:8))</f>
+        <v>95</v>
+      </c>
+      <c r="L11" s="4">
+        <f t="array" ref="L11">SMALL(IF($A$1:$A$408=$L$3,ROW($A$1:$A$408)),ROW(8:8))</f>
+        <v>114</v>
+      </c>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4">
+        <f t="array" ref="N11">SMALL(IF($A$1:$A$408=$N$3,ROW($A$1:$A$408)),ROW(8:8))</f>
+        <v>146</v>
+      </c>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4">
+        <f t="array" ref="P11">SMALL(IF($A$1:$A$408=$P$3,ROW($A$1:$A$408)),ROW(8:8))</f>
+        <v>57</v>
+      </c>
+      <c r="Q11" s="4">
+        <f t="array" ref="Q11">SMALL(IF($A$1:$A$408=$Q$3,ROW($A$1:$A$408)),ROW(8:8))</f>
+        <v>126</v>
+      </c>
+      <c r="R11" s="4">
+        <f t="array" ref="R11">SMALL(IF($A$1:$A$408=$R$3,ROW($A$1:$A$408)),ROW(8:8))</f>
+        <v>152</v>
+      </c>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+    </row>
+    <row r="12" spans="1:29">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="array" ref="D12">SMALL(IF($A$1:$A$408=$D$3,ROW($A$1:$A$408)),ROW(9:9))</f>
+        <v>67</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="array" ref="E12">SMALL(IF($A$1:$A$408=$E$3,ROW($A$1:$A$408)),ROW(9:9))</f>
+        <v>149</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4">
+        <f t="array" ref="K12">SMALL(IF($A$1:$A$408=$K$3,ROW($A$1:$A$408)),ROW(9:9))</f>
+        <v>106</v>
+      </c>
+      <c r="L12" s="4">
+        <f t="array" ref="L12">SMALL(IF($A$1:$A$408=$L$3,ROW($A$1:$A$408)),ROW(9:9))</f>
+        <v>122</v>
+      </c>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4">
+        <f t="array" ref="P12">SMALL(IF($A$1:$A$408=$P$3,ROW($A$1:$A$408)),ROW(9:9))</f>
+        <v>77</v>
+      </c>
+      <c r="Q12" s="4">
+        <f t="array" ref="Q12">SMALL(IF($A$1:$A$408=$Q$3,ROW($A$1:$A$408)),ROW(9:9))</f>
+        <v>130</v>
+      </c>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+    </row>
+    <row r="13" spans="1:29">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="array" ref="D13">SMALL(IF($A$1:$A$408=$D$3,ROW($A$1:$A$408)),ROW(10:10))</f>
+        <v>73</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4">
+        <f t="array" ref="K13">SMALL(IF($A$1:$A$408=$K$3,ROW($A$1:$A$408)),ROW(10:10))</f>
+        <v>113</v>
+      </c>
+      <c r="L13" s="4">
+        <f t="array" ref="L13">SMALL(IF($A$1:$A$408=$L$3,ROW($A$1:$A$408)),ROW(10:10))</f>
+        <v>132</v>
+      </c>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4">
+        <f t="array" ref="P13">SMALL(IF($A$1:$A$408=$P$3,ROW($A$1:$A$408)),ROW(10:10))</f>
+        <v>84</v>
+      </c>
+      <c r="Q13" s="4">
+        <f t="array" ref="Q13">SMALL(IF($A$1:$A$408=$Q$3,ROW($A$1:$A$408)),ROW(10:10))</f>
+        <v>133</v>
+      </c>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+    </row>
+    <row r="14" spans="1:29">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="array" ref="D14">SMALL(IF($A$1:$A$408=$D$3,ROW($A$1:$A$408)),ROW(11:11))</f>
+        <v>80</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4">
+        <f t="array" ref="K14">SMALL(IF($A$1:$A$408=$K$3,ROW($A$1:$A$408)),ROW(11:11))</f>
+        <v>140</v>
+      </c>
+      <c r="L14" s="4">
+        <f t="array" ref="L14">SMALL(IF($A$1:$A$408=$L$3,ROW($A$1:$A$408)),ROW(11:11))</f>
+        <v>136</v>
+      </c>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4">
+        <f t="array" ref="P14">SMALL(IF($A$1:$A$408=$P$3,ROW($A$1:$A$408)),ROW(11:11))</f>
+        <v>91</v>
+      </c>
+      <c r="Q14" s="4">
+        <f t="array" ref="Q14">SMALL(IF($A$1:$A$408=$Q$3,ROW($A$1:$A$408)),ROW(11:11))</f>
+        <v>151</v>
+      </c>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+    </row>
+    <row r="15" spans="1:29">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="array" ref="D15">SMALL(IF($A$1:$A$408=$D$3,ROW($A$1:$A$408)),ROW(12:12))</f>
+        <v>82</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4">
+        <f t="array" ref="K15">SMALL(IF($A$1:$A$408=$K$3,ROW($A$1:$A$408)),ROW(12:12))</f>
+        <v>147</v>
+      </c>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4">
+        <f t="array" ref="P15">SMALL(IF($A$1:$A$408=$P$3,ROW($A$1:$A$408)),ROW(12:12))</f>
+        <v>100</v>
+      </c>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+    </row>
+    <row r="16" spans="1:29">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="array" ref="D16">SMALL(IF($A$1:$A$408=$D$3,ROW($A$1:$A$408)),ROW(13:13))</f>
+        <v>98</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4">
+        <f t="array" ref="P16">SMALL(IF($A$1:$A$408=$P$3,ROW($A$1:$A$408)),ROW(13:13))</f>
+        <v>101</v>
+      </c>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+    </row>
+    <row r="17" spans="1:25">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="array" ref="D17">SMALL(IF($A$1:$A$408=$D$3,ROW($A$1:$A$408)),ROW(14:14))</f>
+        <v>110</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4">
+        <f t="array" ref="P17">SMALL(IF($A$1:$A$408=$P$3,ROW($A$1:$A$408)),ROW(14:14))</f>
+        <v>104</v>
+      </c>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+    </row>
+    <row r="18" spans="1:25">
+      <c r="A18">
+        <v>9</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="array" ref="D18">SMALL(IF($A$1:$A$408=$D$3,ROW($A$1:$A$408)),ROW(15:15))</f>
+        <v>112</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4">
+        <f t="array" ref="P18">SMALL(IF($A$1:$A$408=$P$3,ROW($A$1:$A$408)),ROW(15:15))</f>
+        <v>108</v>
+      </c>
+      <c r="Q18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="Y18" s="4"/>
+    </row>
+    <row r="19" spans="1:25">
+      <c r="A19">
+        <v>10</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="array" ref="D19">SMALL(IF($A$1:$A$408=$D$3,ROW($A$1:$A$408)),ROW(16:16))</f>
+        <v>127</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="P19" s="4">
+        <f t="array" ref="P19">SMALL(IF($A$1:$A$408=$P$3,ROW($A$1:$A$408)),ROW(16:16))</f>
+        <v>120</v>
+      </c>
+      <c r="Q19" s="4"/>
+      <c r="S19" s="4"/>
+    </row>
+    <row r="20" spans="1:25">
+      <c r="A20">
+        <v>11</v>
+      </c>
+      <c r="D20" s="4">
+        <f t="array" ref="D20">SMALL(IF($A$1:$A$408=$D$3,ROW($A$1:$A$408)),ROW(17:17))</f>
+        <v>143</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="P20" s="4">
+        <f t="array" ref="P20">SMALL(IF($A$1:$A$408=$P$3,ROW($A$1:$A$408)),ROW(17:17))</f>
+        <v>129</v>
+      </c>
+      <c r="Q20" s="4"/>
+      <c r="S20" s="4"/>
+    </row>
+    <row r="21" spans="1:25">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="P21" s="4">
+        <f t="array" ref="P21">SMALL(IF($A$1:$A$408=$P$3,ROW($A$1:$A$408)),ROW(18:18))</f>
+        <v>134</v>
+      </c>
+      <c r="Q21" s="4"/>
+    </row>
+    <row r="22" spans="1:25">
+      <c r="A22">
+        <v>12</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="P22" s="4">
+        <f t="array" ref="P22">SMALL(IF($A$1:$A$408=$P$3,ROW($A$1:$A$408)),ROW(19:19))</f>
+        <v>144</v>
+      </c>
+      <c r="Q22" s="4"/>
+    </row>
+    <row r="23" spans="1:25">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="P23" s="4">
+        <f t="array" ref="P23">SMALL(IF($A$1:$A$408=$P$3,ROW($A$1:$A$408)),ROW(20:20))</f>
+        <v>150</v>
+      </c>
+      <c r="Q23" s="4"/>
+    </row>
+    <row r="24" spans="1:25">
+      <c r="A24">
+        <v>13</v>
+      </c>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+    </row>
+    <row r="25" spans="1:25">
+      <c r="A25">
+        <v>14</v>
+      </c>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+    </row>
+    <row r="26" spans="1:25">
+      <c r="A26">
+        <v>15</v>
+      </c>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+    </row>
+    <row r="27" spans="1:25">
+      <c r="A27">
+        <v>9</v>
+      </c>
+      <c r="P27" s="4"/>
+    </row>
+    <row r="28" spans="1:25">
+      <c r="A28">
+        <v>14</v>
+      </c>
+      <c r="P28" s="4"/>
+    </row>
+    <row r="29" spans="1:25">
+      <c r="A29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25">
+      <c r="A30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25">
+      <c r="A31">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25">
+      <c r="A32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documentation/Design/Cipher Models.xlsx
+++ b/Documentation/Design/Cipher Models.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="28755" windowHeight="12585" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="28755" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="Z340" sheetId="1" r:id="rId1"/>
@@ -386,8 +386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BN343"/>
   <sheetViews>
-    <sheetView topLeftCell="A306" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2240,196 +2240,1188 @@
         <v>29</v>
       </c>
       <c r="B30" s="2"/>
-      <c r="T30" s="1"/>
+      <c r="D30" s="2">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2">
+        <v>2</v>
+      </c>
+      <c r="F30" s="2">
+        <v>3</v>
+      </c>
+      <c r="G30" s="2">
+        <v>4</v>
+      </c>
+      <c r="H30" s="2">
+        <v>5</v>
+      </c>
+      <c r="I30" s="2">
+        <v>6</v>
+      </c>
+      <c r="J30" s="2">
+        <v>7</v>
+      </c>
+      <c r="K30" s="2">
+        <v>8</v>
+      </c>
+      <c r="L30" s="2">
+        <v>9</v>
+      </c>
+      <c r="M30" s="2">
+        <v>10</v>
+      </c>
+      <c r="N30" s="2">
+        <v>11</v>
+      </c>
+      <c r="O30" s="2">
+        <v>12</v>
+      </c>
+      <c r="P30" s="2">
+        <v>13</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>14</v>
+      </c>
+      <c r="R30" s="2">
+        <v>15</v>
+      </c>
+      <c r="S30" s="2">
+        <v>16</v>
+      </c>
+      <c r="T30" s="2">
+        <v>17</v>
+      </c>
     </row>
     <row r="31" spans="1:29" ht="15.75">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="2"/>
-      <c r="T31" s="1"/>
+      <c r="D31" s="2">
+        <v>18</v>
+      </c>
+      <c r="E31" s="2">
+        <v>5</v>
+      </c>
+      <c r="F31" s="2">
+        <v>19</v>
+      </c>
+      <c r="G31" s="2">
+        <v>20</v>
+      </c>
+      <c r="H31" s="2">
+        <v>21</v>
+      </c>
+      <c r="I31" s="2">
+        <v>22</v>
+      </c>
+      <c r="J31" s="2">
+        <v>23</v>
+      </c>
+      <c r="K31" s="2">
+        <v>24</v>
+      </c>
+      <c r="L31" s="2">
+        <v>25</v>
+      </c>
+      <c r="M31" s="2">
+        <v>26</v>
+      </c>
+      <c r="N31" s="2">
+        <v>27</v>
+      </c>
+      <c r="O31" s="2">
+        <v>28</v>
+      </c>
+      <c r="P31" s="2">
+        <v>29</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>30</v>
+      </c>
+      <c r="R31" s="2">
+        <v>31</v>
+      </c>
+      <c r="S31" s="2">
+        <v>32</v>
+      </c>
+      <c r="T31" s="2">
+        <v>33</v>
+      </c>
     </row>
     <row r="32" spans="1:29" ht="15.75">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="2"/>
-      <c r="T32" s="1"/>
+      <c r="D32" s="2">
+        <v>20</v>
+      </c>
+      <c r="E32" s="2">
+        <v>34</v>
+      </c>
+      <c r="F32" s="2">
+        <v>35</v>
+      </c>
+      <c r="G32" s="2">
+        <v>36</v>
+      </c>
+      <c r="H32" s="2">
+        <v>37</v>
+      </c>
+      <c r="I32" s="2">
+        <v>19</v>
+      </c>
+      <c r="J32" s="2">
+        <v>38</v>
+      </c>
+      <c r="K32" s="2">
+        <v>39</v>
+      </c>
+      <c r="L32" s="2">
+        <v>15</v>
+      </c>
+      <c r="M32" s="2">
+        <v>26</v>
+      </c>
+      <c r="N32" s="2">
+        <v>21</v>
+      </c>
+      <c r="O32" s="2">
+        <v>33</v>
+      </c>
+      <c r="P32" s="2">
+        <v>13</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>22</v>
+      </c>
+      <c r="R32" s="2">
+        <v>40</v>
+      </c>
+      <c r="S32" s="2">
+        <v>1</v>
+      </c>
+      <c r="T32" s="2">
+        <v>41</v>
+      </c>
     </row>
     <row r="33" spans="1:20" ht="15.75">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="2"/>
-      <c r="T33" s="1"/>
+      <c r="D33" s="2">
+        <v>42</v>
+      </c>
+      <c r="E33" s="2">
+        <v>5</v>
+      </c>
+      <c r="F33" s="2">
+        <v>5</v>
+      </c>
+      <c r="G33" s="2">
+        <v>43</v>
+      </c>
+      <c r="H33" s="2">
+        <v>7</v>
+      </c>
+      <c r="I33" s="2">
+        <v>6</v>
+      </c>
+      <c r="J33" s="2">
+        <v>44</v>
+      </c>
+      <c r="K33" s="2">
+        <v>30</v>
+      </c>
+      <c r="L33" s="2">
+        <v>8</v>
+      </c>
+      <c r="M33" s="2">
+        <v>45</v>
+      </c>
+      <c r="N33" s="2">
+        <v>5</v>
+      </c>
+      <c r="O33" s="2">
+        <v>23</v>
+      </c>
+      <c r="P33" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>19</v>
+      </c>
+      <c r="R33" s="2">
+        <v>3</v>
+      </c>
+      <c r="S33" s="2">
+        <v>31</v>
+      </c>
+      <c r="T33" s="2">
+        <v>16</v>
+      </c>
     </row>
     <row r="34" spans="1:20" ht="15.75">
       <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="2"/>
-      <c r="T34" s="1"/>
+      <c r="D34" s="2">
+        <v>46</v>
+      </c>
+      <c r="E34" s="2">
+        <v>47</v>
+      </c>
+      <c r="F34" s="2">
+        <v>37</v>
+      </c>
+      <c r="G34" s="2">
+        <v>19</v>
+      </c>
+      <c r="H34" s="2">
+        <v>40</v>
+      </c>
+      <c r="I34" s="2">
+        <v>48</v>
+      </c>
+      <c r="J34" s="2">
+        <v>49</v>
+      </c>
+      <c r="K34" s="2">
+        <v>17</v>
+      </c>
+      <c r="L34" s="2">
+        <v>11</v>
+      </c>
+      <c r="M34" s="2">
+        <v>50</v>
+      </c>
+      <c r="N34" s="2">
+        <v>51</v>
+      </c>
+      <c r="O34" s="2">
+        <v>9</v>
+      </c>
+      <c r="P34" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>52</v>
+      </c>
+      <c r="R34" s="2">
+        <v>53</v>
+      </c>
+      <c r="S34" s="2">
+        <v>10</v>
+      </c>
+      <c r="T34" s="2">
+        <v>54</v>
+      </c>
     </row>
     <row r="35" spans="1:20" ht="15.75">
       <c r="A35" s="2">
         <v>20</v>
       </c>
       <c r="B35" s="2"/>
-      <c r="T35" s="1"/>
+      <c r="D35" s="2">
+        <v>5</v>
+      </c>
+      <c r="E35" s="2">
+        <v>44</v>
+      </c>
+      <c r="F35" s="2">
+        <v>3</v>
+      </c>
+      <c r="G35" s="2">
+        <v>7</v>
+      </c>
+      <c r="H35" s="2">
+        <v>51</v>
+      </c>
+      <c r="I35" s="2">
+        <v>6</v>
+      </c>
+      <c r="J35" s="2">
+        <v>23</v>
+      </c>
+      <c r="K35" s="2">
+        <v>55</v>
+      </c>
+      <c r="L35" s="2">
+        <v>30</v>
+      </c>
+      <c r="M35" s="2">
+        <v>17</v>
+      </c>
+      <c r="N35" s="2">
+        <v>56</v>
+      </c>
+      <c r="O35" s="2">
+        <v>10</v>
+      </c>
+      <c r="P35" s="2">
+        <v>51</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>4</v>
+      </c>
+      <c r="R35" s="2">
+        <v>16</v>
+      </c>
+      <c r="S35" s="2">
+        <v>25</v>
+      </c>
+      <c r="T35" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="36" spans="1:20" ht="15.75">
       <c r="A36" s="2">
         <v>34</v>
       </c>
       <c r="B36" s="2"/>
-      <c r="T36" s="1"/>
+      <c r="D36" s="2">
+        <v>22</v>
+      </c>
+      <c r="E36" s="2">
+        <v>50</v>
+      </c>
+      <c r="F36" s="2">
+        <v>19</v>
+      </c>
+      <c r="G36" s="2">
+        <v>31</v>
+      </c>
+      <c r="H36" s="2">
+        <v>57</v>
+      </c>
+      <c r="I36" s="2">
+        <v>24</v>
+      </c>
+      <c r="J36" s="2">
+        <v>58</v>
+      </c>
+      <c r="K36" s="2">
+        <v>16</v>
+      </c>
+      <c r="L36" s="2">
+        <v>38</v>
+      </c>
+      <c r="M36" s="2">
+        <v>36</v>
+      </c>
+      <c r="N36" s="2">
+        <v>59</v>
+      </c>
+      <c r="O36" s="2">
+        <v>15</v>
+      </c>
+      <c r="P36" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>28</v>
+      </c>
+      <c r="R36" s="2">
+        <v>40</v>
+      </c>
+      <c r="S36" s="2">
+        <v>13</v>
+      </c>
+      <c r="T36" s="2">
+        <v>11</v>
+      </c>
     </row>
     <row r="37" spans="1:20" ht="15.75">
       <c r="A37" s="2">
         <v>35</v>
       </c>
       <c r="B37" s="2"/>
-      <c r="T37" s="1"/>
+      <c r="D37" s="2">
+        <v>21</v>
+      </c>
+      <c r="E37" s="2">
+        <v>15</v>
+      </c>
+      <c r="F37" s="2">
+        <v>16</v>
+      </c>
+      <c r="G37" s="2">
+        <v>41</v>
+      </c>
+      <c r="H37" s="2">
+        <v>32</v>
+      </c>
+      <c r="I37" s="2">
+        <v>49</v>
+      </c>
+      <c r="J37" s="2">
+        <v>22</v>
+      </c>
+      <c r="K37" s="2">
+        <v>23</v>
+      </c>
+      <c r="L37" s="2">
+        <v>19</v>
+      </c>
+      <c r="M37" s="2">
+        <v>46</v>
+      </c>
+      <c r="N37" s="2">
+        <v>18</v>
+      </c>
+      <c r="O37" s="2">
+        <v>27</v>
+      </c>
+      <c r="P37" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>19</v>
+      </c>
+      <c r="R37" s="2">
+        <v>60</v>
+      </c>
+      <c r="S37" s="2">
+        <v>13</v>
+      </c>
+      <c r="T37" s="2">
+        <v>47</v>
+      </c>
     </row>
     <row r="38" spans="1:20" ht="15.75">
       <c r="A38" s="2">
         <v>36</v>
       </c>
       <c r="B38" s="2"/>
-      <c r="T38" s="1"/>
+      <c r="D38" s="2">
+        <v>17</v>
+      </c>
+      <c r="E38" s="2">
+        <v>29</v>
+      </c>
+      <c r="F38" s="2">
+        <v>37</v>
+      </c>
+      <c r="G38" s="2">
+        <v>19</v>
+      </c>
+      <c r="H38" s="2">
+        <v>61</v>
+      </c>
+      <c r="I38" s="2">
+        <v>19</v>
+      </c>
+      <c r="J38" s="2">
+        <v>39</v>
+      </c>
+      <c r="K38" s="2">
+        <v>3</v>
+      </c>
+      <c r="L38" s="2">
+        <v>16</v>
+      </c>
+      <c r="M38" s="2">
+        <v>51</v>
+      </c>
+      <c r="N38" s="2">
+        <v>20</v>
+      </c>
+      <c r="O38" s="2">
+        <v>36</v>
+      </c>
+      <c r="P38" s="2">
+        <v>34</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>62</v>
+      </c>
+      <c r="R38" s="2">
+        <v>63</v>
+      </c>
+      <c r="S38" s="2">
+        <v>53</v>
+      </c>
+      <c r="T38" s="2">
+        <v>31</v>
+      </c>
     </row>
     <row r="39" spans="1:20" ht="15.75">
       <c r="A39" s="2">
         <v>37</v>
       </c>
       <c r="B39" s="2"/>
-      <c r="T39" s="1"/>
+      <c r="D39" s="2">
+        <v>55</v>
+      </c>
+      <c r="E39" s="2">
+        <v>40</v>
+      </c>
+      <c r="F39" s="2">
+        <v>6</v>
+      </c>
+      <c r="G39" s="2">
+        <v>38</v>
+      </c>
+      <c r="H39" s="2">
+        <v>8</v>
+      </c>
+      <c r="I39" s="2">
+        <v>19</v>
+      </c>
+      <c r="J39" s="2">
+        <v>7</v>
+      </c>
+      <c r="K39" s="2">
+        <v>41</v>
+      </c>
+      <c r="L39" s="2">
+        <v>19</v>
+      </c>
+      <c r="M39" s="2">
+        <v>23</v>
+      </c>
+      <c r="N39" s="2">
+        <v>5</v>
+      </c>
+      <c r="O39" s="2">
+        <v>43</v>
+      </c>
+      <c r="P39" s="2">
+        <v>29</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>51</v>
+      </c>
+      <c r="R39" s="2">
+        <v>20</v>
+      </c>
+      <c r="S39" s="2">
+        <v>34</v>
+      </c>
+      <c r="T39" s="2">
+        <v>55</v>
+      </c>
     </row>
     <row r="40" spans="1:20" ht="15.75">
       <c r="A40" s="2">
         <v>19</v>
       </c>
       <c r="B40" s="2"/>
-      <c r="T40" s="1"/>
+      <c r="D40" s="2">
+        <v>38</v>
+      </c>
+      <c r="E40" s="2">
+        <v>19</v>
+      </c>
+      <c r="F40" s="2">
+        <v>3</v>
+      </c>
+      <c r="G40" s="2">
+        <v>54</v>
+      </c>
+      <c r="H40" s="2">
+        <v>50</v>
+      </c>
+      <c r="I40" s="2">
+        <v>48</v>
+      </c>
+      <c r="J40" s="2">
+        <v>2</v>
+      </c>
+      <c r="K40" s="2">
+        <v>11</v>
+      </c>
+      <c r="L40" s="2">
+        <v>25</v>
+      </c>
+      <c r="M40" s="2">
+        <v>27</v>
+      </c>
+      <c r="N40" s="2">
+        <v>20</v>
+      </c>
+      <c r="O40" s="2">
+        <v>5</v>
+      </c>
+      <c r="P40" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>14</v>
+      </c>
+      <c r="R40" s="2">
+        <v>37</v>
+      </c>
+      <c r="S40" s="2">
+        <v>31</v>
+      </c>
+      <c r="T40" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="41" spans="1:20" ht="15.75">
       <c r="A41" s="2">
         <v>38</v>
       </c>
       <c r="B41" s="2"/>
-      <c r="T41" s="1"/>
+      <c r="D41" s="2">
+        <v>16</v>
+      </c>
+      <c r="E41" s="2">
+        <v>29</v>
+      </c>
+      <c r="F41" s="2">
+        <v>36</v>
+      </c>
+      <c r="G41" s="2">
+        <v>6</v>
+      </c>
+      <c r="H41" s="2">
+        <v>3</v>
+      </c>
+      <c r="I41" s="2">
+        <v>41</v>
+      </c>
+      <c r="J41" s="2">
+        <v>11</v>
+      </c>
+      <c r="K41" s="2">
+        <v>30</v>
+      </c>
+      <c r="L41" s="2">
+        <v>50</v>
+      </c>
+      <c r="M41" s="2">
+        <v>14</v>
+      </c>
+      <c r="N41" s="2">
+        <v>53</v>
+      </c>
+      <c r="O41" s="2">
+        <v>37</v>
+      </c>
+      <c r="P41" s="2">
+        <v>28</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>19</v>
+      </c>
+      <c r="R41" s="2">
+        <v>52</v>
+      </c>
+      <c r="S41" s="2">
+        <v>20</v>
+      </c>
+      <c r="T41" s="2">
+        <v>51</v>
+      </c>
     </row>
     <row r="42" spans="1:20" ht="15.75">
       <c r="A42" s="2">
         <v>39</v>
       </c>
       <c r="B42" s="2"/>
-      <c r="T42" s="1"/>
+      <c r="D42" s="2">
+        <v>40</v>
+      </c>
+      <c r="E42" s="2">
+        <v>63</v>
+      </c>
+      <c r="F42" s="2">
+        <v>47</v>
+      </c>
+      <c r="G42" s="2">
+        <v>42</v>
+      </c>
+      <c r="H42" s="2">
+        <v>34</v>
+      </c>
+      <c r="I42" s="2">
+        <v>22</v>
+      </c>
+      <c r="J42" s="2">
+        <v>19</v>
+      </c>
+      <c r="K42" s="2">
+        <v>18</v>
+      </c>
+      <c r="L42" s="2">
+        <v>11</v>
+      </c>
+      <c r="M42" s="2">
+        <v>50</v>
+      </c>
+      <c r="N42" s="2">
+        <v>51</v>
+      </c>
+      <c r="O42" s="2">
+        <v>20</v>
+      </c>
+      <c r="P42" s="2">
+        <v>36</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>21</v>
+      </c>
+      <c r="R42" s="2">
+        <v>58</v>
+      </c>
+      <c r="S42" s="2">
+        <v>44</v>
+      </c>
+      <c r="T42" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="43" spans="1:20" ht="15.75">
       <c r="A43" s="2">
         <v>15</v>
       </c>
       <c r="B43" s="2"/>
-      <c r="T43" s="1"/>
+      <c r="D43" s="2">
+        <v>6</v>
+      </c>
+      <c r="E43" s="2">
+        <v>15</v>
+      </c>
+      <c r="F43" s="2">
+        <v>51</v>
+      </c>
+      <c r="G43" s="2">
+        <v>18</v>
+      </c>
+      <c r="H43" s="2">
+        <v>7</v>
+      </c>
+      <c r="I43" s="2">
+        <v>32</v>
+      </c>
+      <c r="J43" s="2">
+        <v>50</v>
+      </c>
+      <c r="K43" s="2">
+        <v>16</v>
+      </c>
+      <c r="L43" s="2">
+        <v>53</v>
+      </c>
+      <c r="M43" s="2">
+        <v>61</v>
+      </c>
+      <c r="N43" s="2">
+        <v>28</v>
+      </c>
+      <c r="O43" s="2">
+        <v>36</v>
+      </c>
+      <c r="P43" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>53</v>
+      </c>
+      <c r="R43" s="2">
+        <v>48</v>
+      </c>
+      <c r="S43" s="2">
+        <v>19</v>
+      </c>
+      <c r="T43" s="2">
+        <v>19</v>
+      </c>
     </row>
     <row r="44" spans="1:20" ht="15.75">
       <c r="A44" s="2">
         <v>26</v>
       </c>
       <c r="B44" s="2"/>
-      <c r="T44" s="1"/>
+      <c r="D44" s="2">
+        <v>34</v>
+      </c>
+      <c r="E44" s="2">
+        <v>20</v>
+      </c>
+      <c r="F44" s="2">
+        <v>59</v>
+      </c>
+      <c r="G44" s="2">
+        <v>12</v>
+      </c>
+      <c r="H44" s="2">
+        <v>30</v>
+      </c>
+      <c r="I44" s="2">
+        <v>35</v>
+      </c>
+      <c r="J44" s="2">
+        <v>53</v>
+      </c>
+      <c r="K44" s="2">
+        <v>47</v>
+      </c>
+      <c r="L44" s="2">
+        <v>56</v>
+      </c>
+      <c r="M44" s="2">
+        <v>2</v>
+      </c>
+      <c r="N44" s="2">
+        <v>4</v>
+      </c>
+      <c r="O44" s="2">
+        <v>8</v>
+      </c>
+      <c r="P44" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q44" s="2">
+        <v>39</v>
+      </c>
+      <c r="R44" s="2">
+        <v>50</v>
+      </c>
+      <c r="S44" s="2">
+        <v>55</v>
+      </c>
+      <c r="T44" s="2">
+        <v>19</v>
+      </c>
     </row>
     <row r="45" spans="1:20" ht="15.75">
       <c r="A45" s="2">
         <v>21</v>
       </c>
       <c r="B45" s="2"/>
-      <c r="T45" s="1"/>
+      <c r="D45" s="2">
+        <v>11</v>
+      </c>
+      <c r="E45" s="2">
+        <v>36</v>
+      </c>
+      <c r="F45" s="2">
+        <v>28</v>
+      </c>
+      <c r="G45" s="2">
+        <v>45</v>
+      </c>
+      <c r="H45" s="2">
+        <v>40</v>
+      </c>
+      <c r="I45" s="2">
+        <v>20</v>
+      </c>
+      <c r="J45" s="2">
+        <v>31</v>
+      </c>
+      <c r="K45" s="2">
+        <v>21</v>
+      </c>
+      <c r="L45" s="2">
+        <v>23</v>
+      </c>
+      <c r="M45" s="2">
+        <v>5</v>
+      </c>
+      <c r="N45" s="2">
+        <v>7</v>
+      </c>
+      <c r="O45" s="2">
+        <v>28</v>
+      </c>
+      <c r="P45" s="2">
+        <v>32</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>37</v>
+      </c>
+      <c r="R45" s="2">
+        <v>57</v>
+      </c>
+      <c r="S45" s="2">
+        <v>15</v>
+      </c>
+      <c r="T45" s="2">
+        <v>16</v>
+      </c>
     </row>
     <row r="46" spans="1:20" ht="15.75">
       <c r="A46" s="2">
         <v>33</v>
       </c>
       <c r="B46" s="2"/>
-      <c r="T46" s="1"/>
+      <c r="D46" s="2">
+        <v>3</v>
+      </c>
+      <c r="E46" s="2">
+        <v>36</v>
+      </c>
+      <c r="F46" s="2">
+        <v>14</v>
+      </c>
+      <c r="G46" s="2">
+        <v>19</v>
+      </c>
+      <c r="H46" s="2">
+        <v>13</v>
+      </c>
+      <c r="I46" s="2">
+        <v>12</v>
+      </c>
+      <c r="J46" s="2">
+        <v>63</v>
+      </c>
+      <c r="K46" s="2">
+        <v>56</v>
+      </c>
+      <c r="L46" s="2">
+        <v>29</v>
+      </c>
+      <c r="M46" s="2">
+        <v>19</v>
+      </c>
+      <c r="N46" s="2">
+        <v>51</v>
+      </c>
+      <c r="O46" s="2">
+        <v>6</v>
+      </c>
+      <c r="P46" s="2">
+        <v>26</v>
+      </c>
+      <c r="Q46" s="2">
+        <v>20</v>
+      </c>
+      <c r="R46" s="2">
+        <v>11</v>
+      </c>
+      <c r="S46" s="2">
+        <v>33</v>
+      </c>
+      <c r="T46" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="47" spans="1:20" ht="15.75">
       <c r="A47" s="2">
         <v>13</v>
       </c>
       <c r="B47" s="2"/>
-      <c r="T47" s="1"/>
+      <c r="D47" s="2">
+        <v>19</v>
+      </c>
+      <c r="E47" s="2">
+        <v>19</v>
+      </c>
+      <c r="F47" s="2">
+        <v>33</v>
+      </c>
+      <c r="G47" s="2">
+        <v>26</v>
+      </c>
+      <c r="H47" s="2">
+        <v>56</v>
+      </c>
+      <c r="I47" s="2">
+        <v>40</v>
+      </c>
+      <c r="J47" s="2">
+        <v>26</v>
+      </c>
+      <c r="K47" s="2">
+        <v>36</v>
+      </c>
+      <c r="L47" s="2">
+        <v>9</v>
+      </c>
+      <c r="M47" s="2">
+        <v>23</v>
+      </c>
+      <c r="N47" s="2">
+        <v>41</v>
+      </c>
+      <c r="O47" s="2">
+        <v>1</v>
+      </c>
+      <c r="P47" s="2">
+        <v>14</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>54</v>
+      </c>
+      <c r="R47" s="2">
+        <v>21</v>
+      </c>
+      <c r="S47" s="2">
+        <v>33</v>
+      </c>
+      <c r="T47" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="48" spans="1:20" ht="15.75">
       <c r="A48" s="2">
         <v>22</v>
       </c>
       <c r="B48" s="2"/>
-      <c r="T48" s="1"/>
+      <c r="D48" s="2">
+        <v>11</v>
+      </c>
+      <c r="E48" s="2">
+        <v>51</v>
+      </c>
+      <c r="F48" s="2">
+        <v>10</v>
+      </c>
+      <c r="G48" s="2">
+        <v>17</v>
+      </c>
+      <c r="H48" s="2">
+        <v>26</v>
+      </c>
+      <c r="I48" s="2">
+        <v>29</v>
+      </c>
+      <c r="J48" s="2">
+        <v>43</v>
+      </c>
+      <c r="K48" s="2">
+        <v>48</v>
+      </c>
+      <c r="L48" s="2">
+        <v>20</v>
+      </c>
+      <c r="M48" s="2">
+        <v>46</v>
+      </c>
+      <c r="N48" s="2">
+        <v>27</v>
+      </c>
+      <c r="O48" s="2">
+        <v>23</v>
+      </c>
+      <c r="P48" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q48" s="2">
+        <v>30</v>
+      </c>
+      <c r="R48" s="2">
+        <v>55</v>
+      </c>
+      <c r="S48" s="2">
+        <v>56</v>
+      </c>
+      <c r="T48" s="2">
+        <v>36</v>
+      </c>
     </row>
     <row r="49" spans="1:20" ht="15.75">
       <c r="A49" s="2">
         <v>40</v>
       </c>
       <c r="B49" s="2"/>
-      <c r="T49" s="1"/>
+      <c r="D49" s="2">
+        <v>4</v>
+      </c>
+      <c r="E49" s="2">
+        <v>37</v>
+      </c>
+      <c r="F49" s="2">
+        <v>25</v>
+      </c>
+      <c r="G49" s="2">
+        <v>1</v>
+      </c>
+      <c r="H49" s="2">
+        <v>18</v>
+      </c>
+      <c r="I49" s="2">
+        <v>5</v>
+      </c>
+      <c r="J49" s="2">
+        <v>10</v>
+      </c>
+      <c r="K49" s="2">
+        <v>42</v>
+      </c>
+      <c r="L49" s="2">
+        <v>40</v>
+      </c>
+      <c r="M49" s="2">
+        <v>39</v>
+      </c>
+      <c r="N49" s="2">
+        <v>23</v>
+      </c>
+      <c r="O49" s="2">
+        <v>44</v>
+      </c>
+      <c r="P49" s="2">
+        <v>62</v>
+      </c>
+      <c r="Q49" s="2">
+        <v>11</v>
+      </c>
+      <c r="R49" s="2">
+        <v>31</v>
+      </c>
+      <c r="S49" s="2">
+        <v>58</v>
+      </c>
+      <c r="T49" s="2">
+        <v>19</v>
+      </c>
     </row>
     <row r="50" spans="1:20" ht="15.75">
       <c r="A50" s="2">
         <v>1</v>
       </c>
       <c r="B50" s="2"/>
-      <c r="T50" s="1"/>
     </row>
     <row r="51" spans="1:20" ht="15.75">
       <c r="A51" s="2">
         <v>41</v>
       </c>
       <c r="B51" s="2"/>
-      <c r="T51" s="1"/>
     </row>
     <row r="52" spans="1:20" ht="15.75">
       <c r="A52" s="2">
         <v>42</v>
       </c>
       <c r="B52" s="2"/>
-      <c r="T52" s="1"/>
     </row>
     <row r="53" spans="1:20" ht="15.75">
       <c r="A53" s="2">
         <v>5</v>
       </c>
       <c r="B53" s="2"/>
-      <c r="T53" s="1"/>
     </row>
     <row r="54" spans="1:20" ht="15.75">
       <c r="A54" s="2">
         <v>5</v>
       </c>
       <c r="B54" s="2"/>
-      <c r="T54" s="1"/>
     </row>
     <row r="55" spans="1:20" ht="15.75">
       <c r="A55" s="2">
         <v>43</v>
       </c>
       <c r="B55" s="2"/>
-      <c r="T55" s="1"/>
     </row>
     <row r="56" spans="1:20" ht="15.75">
       <c r="A56" s="2">
         <v>7</v>
       </c>
       <c r="B56" s="2"/>
-      <c r="T56" s="1"/>
     </row>
     <row r="57" spans="1:20" ht="15.75">
       <c r="A57" s="2">
         <v>6</v>
       </c>
       <c r="B57" s="2"/>
-      <c r="T57" s="1"/>
     </row>
     <row r="58" spans="1:20" ht="15.75">
       <c r="A58" s="2">
@@ -4212,8 +5204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BN408"/>
   <sheetViews>
-    <sheetView topLeftCell="A370" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6979,97 +7971,121 @@
       <c r="BM23" s="4"/>
       <c r="BN23" s="4"/>
     </row>
-    <row r="24" spans="1:66" ht="15.75">
+    <row r="24" spans="1:66">
       <c r="A24">
         <v>20</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
-      <c r="W24" s="4"/>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="4"/>
-      <c r="Z24" s="4"/>
-      <c r="AA24" s="4"/>
-      <c r="AB24" s="4"/>
-      <c r="AC24" s="4"/>
-      <c r="AD24" s="4"/>
-      <c r="AE24" s="4"/>
-      <c r="AF24" s="4"/>
-      <c r="AG24" s="4"/>
-      <c r="AH24" s="4"/>
-      <c r="AI24" s="4"/>
-      <c r="AJ24" s="4"/>
-      <c r="AK24" s="4"/>
-      <c r="AL24" s="4"/>
-      <c r="AM24" s="4"/>
-      <c r="AN24" s="4"/>
-      <c r="AO24" s="4"/>
-      <c r="AP24" s="4"/>
-      <c r="AQ24" s="4"/>
-      <c r="AR24" s="4"/>
-      <c r="AS24" s="4"/>
-      <c r="AT24" s="4"/>
-      <c r="AU24" s="4"/>
-      <c r="AV24" s="4"/>
-      <c r="AW24" s="4"/>
-      <c r="AX24" s="4"/>
-      <c r="AY24" s="4"/>
-      <c r="AZ24" s="4"/>
-      <c r="BA24" s="4"/>
-      <c r="BB24" s="4"/>
-      <c r="BC24" s="4"/>
-      <c r="BD24" s="4"/>
-      <c r="BE24" s="4"/>
-      <c r="BF24" s="4"/>
-      <c r="BG24" s="4"/>
-      <c r="BH24" s="4"/>
-      <c r="BI24" s="4"/>
-      <c r="BJ24" s="4"/>
-      <c r="BK24" s="4"/>
-      <c r="BL24" s="4"/>
-      <c r="BM24" s="4"/>
-      <c r="BN24" s="4"/>
-    </row>
-    <row r="25" spans="1:66" ht="15.75">
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <v>3</v>
+      </c>
+      <c r="I24">
+        <v>4</v>
+      </c>
+      <c r="J24">
+        <v>5</v>
+      </c>
+      <c r="K24">
+        <v>4</v>
+      </c>
+      <c r="L24">
+        <v>6</v>
+      </c>
+      <c r="M24">
+        <v>7</v>
+      </c>
+      <c r="N24">
+        <v>2</v>
+      </c>
+      <c r="O24">
+        <v>8</v>
+      </c>
+      <c r="P24">
+        <v>9</v>
+      </c>
+      <c r="Q24">
+        <v>10</v>
+      </c>
+      <c r="R24">
+        <v>11</v>
+      </c>
+      <c r="S24">
+        <v>12</v>
+      </c>
+      <c r="T24">
+        <v>13</v>
+      </c>
+      <c r="U24">
+        <v>11</v>
+      </c>
+      <c r="V24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:66">
       <c r="A25">
         <v>21</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="4"/>
+      <c r="F25">
+        <v>14</v>
+      </c>
+      <c r="G25">
+        <v>15</v>
+      </c>
+      <c r="H25">
+        <v>16</v>
+      </c>
+      <c r="I25">
+        <v>17</v>
+      </c>
+      <c r="J25">
+        <v>18</v>
+      </c>
+      <c r="K25">
+        <v>19</v>
+      </c>
+      <c r="L25">
+        <v>20</v>
+      </c>
+      <c r="M25">
+        <v>21</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>22</v>
+      </c>
+      <c r="P25">
+        <v>3</v>
+      </c>
+      <c r="Q25">
+        <v>23</v>
+      </c>
+      <c r="R25">
+        <v>24</v>
+      </c>
+      <c r="S25">
+        <v>25</v>
+      </c>
+      <c r="T25">
+        <v>26</v>
+      </c>
+      <c r="U25">
+        <v>19</v>
+      </c>
+      <c r="V25">
+        <v>17</v>
+      </c>
       <c r="W25" s="4"/>
       <c r="X25" s="4"/>
       <c r="Y25" s="4"/>
@@ -7115,29 +8131,63 @@
       <c r="BM25" s="4"/>
       <c r="BN25" s="4"/>
     </row>
-    <row r="26" spans="1:66" ht="15.75">
+    <row r="26" spans="1:66">
       <c r="A26">
         <v>1</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
+      <c r="F26">
+        <v>27</v>
+      </c>
+      <c r="G26">
+        <v>28</v>
+      </c>
+      <c r="H26">
+        <v>19</v>
+      </c>
+      <c r="I26">
+        <v>29</v>
+      </c>
+      <c r="J26">
+        <v>6</v>
+      </c>
+      <c r="K26">
+        <v>30</v>
+      </c>
+      <c r="L26">
+        <v>8</v>
+      </c>
+      <c r="M26">
+        <v>31</v>
+      </c>
+      <c r="N26">
+        <v>26</v>
+      </c>
+      <c r="O26">
+        <v>32</v>
+      </c>
+      <c r="P26">
+        <v>33</v>
+      </c>
+      <c r="Q26">
+        <v>34</v>
+      </c>
+      <c r="R26">
+        <v>35</v>
+      </c>
+      <c r="S26">
+        <v>19</v>
+      </c>
+      <c r="T26">
+        <v>36</v>
+      </c>
+      <c r="U26">
+        <v>37</v>
+      </c>
+      <c r="V26">
+        <v>38</v>
+      </c>
       <c r="W26" s="4"/>
       <c r="X26" s="4"/>
       <c r="Y26" s="4"/>
@@ -7183,29 +8233,63 @@
       <c r="BM26" s="4"/>
       <c r="BN26" s="4"/>
     </row>
-    <row r="27" spans="1:66" ht="15.75">
+    <row r="27" spans="1:66">
       <c r="A27">
         <v>22</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="4"/>
+      <c r="F27">
+        <v>39</v>
+      </c>
+      <c r="G27">
+        <v>40</v>
+      </c>
+      <c r="H27">
+        <v>4</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>41</v>
+      </c>
+      <c r="K27">
+        <v>7</v>
+      </c>
+      <c r="L27">
+        <v>3</v>
+      </c>
+      <c r="M27">
+        <v>9</v>
+      </c>
+      <c r="N27">
+        <v>10</v>
+      </c>
+      <c r="O27">
+        <v>42</v>
+      </c>
+      <c r="P27">
+        <v>6</v>
+      </c>
+      <c r="Q27">
+        <v>2</v>
+      </c>
+      <c r="R27">
+        <v>43</v>
+      </c>
+      <c r="S27">
+        <v>10</v>
+      </c>
+      <c r="T27">
+        <v>44</v>
+      </c>
+      <c r="U27">
+        <v>26</v>
+      </c>
+      <c r="V27">
+        <v>45</v>
+      </c>
       <c r="W27" s="4"/>
       <c r="X27" s="4"/>
       <c r="Y27" s="4"/>
@@ -7255,103 +8339,1123 @@
       <c r="A28">
         <v>3</v>
       </c>
+      <c r="F28">
+        <v>8</v>
+      </c>
+      <c r="G28">
+        <v>29</v>
+      </c>
+      <c r="H28">
+        <v>46</v>
+      </c>
+      <c r="I28">
+        <v>27</v>
+      </c>
+      <c r="J28">
+        <v>5</v>
+      </c>
+      <c r="K28">
+        <v>28</v>
+      </c>
+      <c r="L28">
+        <v>47</v>
+      </c>
+      <c r="M28">
+        <v>48</v>
+      </c>
+      <c r="N28">
+        <v>49</v>
+      </c>
+      <c r="O28">
+        <v>12</v>
+      </c>
+      <c r="P28">
+        <v>20</v>
+      </c>
+      <c r="Q28">
+        <v>22</v>
+      </c>
+      <c r="R28">
+        <v>15</v>
+      </c>
+      <c r="S28">
+        <v>14</v>
+      </c>
+      <c r="T28">
+        <v>17</v>
+      </c>
+      <c r="U28">
+        <v>31</v>
+      </c>
+      <c r="V28">
+        <v>19</v>
+      </c>
     </row>
     <row r="29" spans="1:66">
       <c r="A29">
         <v>23</v>
       </c>
+      <c r="F29">
+        <v>23</v>
+      </c>
+      <c r="G29">
+        <v>16</v>
+      </c>
+      <c r="H29">
+        <v>26</v>
+      </c>
+      <c r="I29">
+        <v>18</v>
+      </c>
+      <c r="J29">
+        <v>36</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>24</v>
+      </c>
+      <c r="M29">
+        <v>30</v>
+      </c>
+      <c r="N29">
+        <v>38</v>
+      </c>
+      <c r="O29">
+        <v>21</v>
+      </c>
+      <c r="P29">
+        <v>26</v>
+      </c>
+      <c r="Q29">
+        <v>13</v>
+      </c>
+      <c r="R29">
+        <v>31</v>
+      </c>
+      <c r="S29">
+        <v>37</v>
+      </c>
+      <c r="T29">
+        <v>50</v>
+      </c>
+      <c r="U29">
+        <v>39</v>
+      </c>
+      <c r="V29">
+        <v>40</v>
+      </c>
     </row>
     <row r="30" spans="1:66">
       <c r="A30">
         <v>24</v>
       </c>
+      <c r="F30">
+        <v>10</v>
+      </c>
+      <c r="G30">
+        <v>34</v>
+      </c>
+      <c r="H30">
+        <v>33</v>
+      </c>
+      <c r="I30">
+        <v>25</v>
+      </c>
+      <c r="J30">
+        <v>19</v>
+      </c>
+      <c r="K30">
+        <v>45</v>
+      </c>
+      <c r="L30">
+        <v>44</v>
+      </c>
+      <c r="M30">
+        <v>9</v>
+      </c>
+      <c r="N30">
+        <v>31</v>
+      </c>
+      <c r="O30">
+        <v>26</v>
+      </c>
+      <c r="P30">
+        <v>18</v>
+      </c>
+      <c r="Q30">
+        <v>7</v>
+      </c>
+      <c r="R30">
+        <v>32</v>
+      </c>
+      <c r="S30">
+        <v>35</v>
+      </c>
+      <c r="T30">
+        <v>39</v>
+      </c>
+      <c r="U30">
+        <v>41</v>
+      </c>
+      <c r="V30">
+        <v>7</v>
+      </c>
     </row>
     <row r="31" spans="1:66">
       <c r="A31">
         <v>25</v>
       </c>
+      <c r="F31">
+        <v>46</v>
+      </c>
+      <c r="G31">
+        <v>47</v>
+      </c>
+      <c r="H31">
+        <v>4</v>
+      </c>
+      <c r="I31">
+        <v>3</v>
+      </c>
+      <c r="J31">
+        <v>41</v>
+      </c>
+      <c r="K31">
+        <v>7</v>
+      </c>
+      <c r="L31">
+        <v>23</v>
+      </c>
+      <c r="M31">
+        <v>13</v>
+      </c>
+      <c r="N31">
+        <v>26</v>
+      </c>
+      <c r="O31">
+        <v>45</v>
+      </c>
+      <c r="P31">
+        <v>22</v>
+      </c>
+      <c r="Q31">
+        <v>27</v>
+      </c>
+      <c r="R31">
+        <v>6</v>
+      </c>
+      <c r="S31">
+        <v>29</v>
+      </c>
+      <c r="T31">
+        <v>10</v>
+      </c>
+      <c r="U31">
+        <v>10</v>
+      </c>
+      <c r="V31">
+        <v>8</v>
+      </c>
     </row>
     <row r="32" spans="1:66">
       <c r="A32">
         <v>26</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="F32">
+        <v>51</v>
+      </c>
+      <c r="G32">
+        <v>5</v>
+      </c>
+      <c r="H32">
+        <v>24</v>
+      </c>
+      <c r="I32">
+        <v>26</v>
+      </c>
+      <c r="J32">
+        <v>12</v>
+      </c>
+      <c r="K32">
+        <v>30</v>
+      </c>
+      <c r="L32">
+        <v>38</v>
+      </c>
+      <c r="M32">
+        <v>14</v>
+      </c>
+      <c r="N32">
+        <v>26</v>
+      </c>
+      <c r="O32">
+        <v>25</v>
+      </c>
+      <c r="P32">
+        <v>31</v>
+      </c>
+      <c r="Q32">
+        <v>37</v>
+      </c>
+      <c r="R32">
+        <v>46</v>
+      </c>
+      <c r="S32">
+        <v>27</v>
+      </c>
+      <c r="T32">
+        <v>48</v>
+      </c>
+      <c r="U32">
+        <v>1</v>
+      </c>
+      <c r="V32">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
       <c r="A33">
         <v>19</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="F33">
+        <v>7</v>
+      </c>
+      <c r="G33">
+        <v>3</v>
+      </c>
+      <c r="H33">
+        <v>36</v>
+      </c>
+      <c r="I33">
+        <v>10</v>
+      </c>
+      <c r="J33">
+        <v>16</v>
+      </c>
+      <c r="K33">
+        <v>52</v>
+      </c>
+      <c r="L33">
+        <v>11</v>
+      </c>
+      <c r="M33">
+        <v>21</v>
+      </c>
+      <c r="N33">
+        <v>49</v>
+      </c>
+      <c r="O33">
+        <v>34</v>
+      </c>
+      <c r="P33">
+        <v>40</v>
+      </c>
+      <c r="Q33">
+        <v>17</v>
+      </c>
+      <c r="R33">
+        <v>45</v>
+      </c>
+      <c r="S33">
+        <v>6</v>
+      </c>
+      <c r="T33">
+        <v>22</v>
+      </c>
+      <c r="U33">
+        <v>8</v>
+      </c>
+      <c r="V33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
       <c r="A34">
         <v>17</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="F34">
+        <v>5</v>
+      </c>
+      <c r="G34">
+        <v>51</v>
+      </c>
+      <c r="H34">
+        <v>12</v>
+      </c>
+      <c r="I34">
+        <v>9</v>
+      </c>
+      <c r="J34">
+        <v>15</v>
+      </c>
+      <c r="K34">
+        <v>14</v>
+      </c>
+      <c r="L34">
+        <v>30</v>
+      </c>
+      <c r="M34">
+        <v>37</v>
+      </c>
+      <c r="N34">
+        <v>16</v>
+      </c>
+      <c r="O34">
+        <v>33</v>
+      </c>
+      <c r="P34">
+        <v>46</v>
+      </c>
+      <c r="Q34">
+        <v>38</v>
+      </c>
+      <c r="R34">
+        <v>33</v>
+      </c>
+      <c r="S34">
+        <v>29</v>
+      </c>
+      <c r="T34">
+        <v>10</v>
+      </c>
+      <c r="U34">
+        <v>21</v>
+      </c>
+      <c r="V34">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
       <c r="A35">
         <v>27</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="F35">
+        <v>30</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>36</v>
+      </c>
+      <c r="I35">
+        <v>10</v>
+      </c>
+      <c r="J35">
+        <v>53</v>
+      </c>
+      <c r="K35">
+        <v>32</v>
+      </c>
+      <c r="L35">
+        <v>19</v>
+      </c>
+      <c r="M35">
+        <v>48</v>
+      </c>
+      <c r="N35">
+        <v>49</v>
+      </c>
+      <c r="O35">
+        <v>47</v>
+      </c>
+      <c r="P35">
+        <v>17</v>
+      </c>
+      <c r="Q35">
+        <v>4</v>
+      </c>
+      <c r="R35">
+        <v>23</v>
+      </c>
+      <c r="S35">
+        <v>13</v>
+      </c>
+      <c r="T35">
+        <v>28</v>
+      </c>
+      <c r="U35">
+        <v>35</v>
+      </c>
+      <c r="V35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
       <c r="A36">
         <v>28</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="F36">
+        <v>3</v>
+      </c>
+      <c r="G36">
+        <v>37</v>
+      </c>
+      <c r="H36">
+        <v>27</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>10</v>
+      </c>
+      <c r="K36">
+        <v>6</v>
+      </c>
+      <c r="L36">
+        <v>33</v>
+      </c>
+      <c r="M36">
+        <v>2</v>
+      </c>
+      <c r="N36">
+        <v>46</v>
+      </c>
+      <c r="O36">
+        <v>38</v>
+      </c>
+      <c r="P36">
+        <v>34</v>
+      </c>
+      <c r="Q36">
+        <v>15</v>
+      </c>
+      <c r="R36">
+        <v>45</v>
+      </c>
+      <c r="S36">
+        <v>24</v>
+      </c>
+      <c r="T36">
+        <v>22</v>
+      </c>
+      <c r="U36">
+        <v>11</v>
+      </c>
+      <c r="V36">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
       <c r="A37">
         <v>19</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="F37">
+        <v>48</v>
+      </c>
+      <c r="G37">
+        <v>30</v>
+      </c>
+      <c r="H37">
+        <v>25</v>
+      </c>
+      <c r="I37">
+        <v>28</v>
+      </c>
+      <c r="J37">
+        <v>8</v>
+      </c>
+      <c r="K37">
+        <v>37</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>31</v>
+      </c>
+      <c r="N37">
+        <v>46</v>
+      </c>
+      <c r="O37">
+        <v>27</v>
+      </c>
+      <c r="P37">
+        <v>44</v>
+      </c>
+      <c r="Q37">
+        <v>34</v>
+      </c>
+      <c r="R37">
+        <v>42</v>
+      </c>
+      <c r="S37">
+        <v>38</v>
+      </c>
+      <c r="T37">
+        <v>5</v>
+      </c>
+      <c r="U37">
+        <v>40</v>
+      </c>
+      <c r="V37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22">
       <c r="A38">
         <v>29</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
+      <c r="F38">
+        <v>50</v>
+      </c>
+      <c r="G38">
+        <v>6</v>
+      </c>
+      <c r="H38">
+        <v>12</v>
+      </c>
+      <c r="I38">
+        <v>8</v>
+      </c>
+      <c r="J38">
+        <v>42</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>41</v>
+      </c>
+      <c r="M38">
+        <v>7</v>
+      </c>
+      <c r="N38">
+        <v>15</v>
+      </c>
+      <c r="O38">
+        <v>14</v>
+      </c>
+      <c r="P38">
+        <v>49</v>
+      </c>
+      <c r="Q38">
+        <v>16</v>
+      </c>
+      <c r="R38">
+        <v>15</v>
+      </c>
+      <c r="S38">
+        <v>32</v>
+      </c>
+      <c r="T38">
+        <v>33</v>
+      </c>
+      <c r="U38">
+        <v>9</v>
+      </c>
+      <c r="V38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22">
       <c r="A39">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
+      <c r="F39">
+        <v>29</v>
+      </c>
+      <c r="G39">
+        <v>11</v>
+      </c>
+      <c r="H39">
+        <v>39</v>
+      </c>
+      <c r="I39">
+        <v>48</v>
+      </c>
+      <c r="J39">
+        <v>44</v>
+      </c>
+      <c r="K39">
+        <v>43</v>
+      </c>
+      <c r="L39">
+        <v>6</v>
+      </c>
+      <c r="M39">
+        <v>17</v>
+      </c>
+      <c r="N39">
+        <v>21</v>
+      </c>
+      <c r="O39">
+        <v>54</v>
+      </c>
+      <c r="P39">
+        <v>36</v>
+      </c>
+      <c r="Q39">
+        <v>50</v>
+      </c>
+      <c r="R39">
+        <v>18</v>
+      </c>
+      <c r="S39">
+        <v>2</v>
+      </c>
+      <c r="T39">
+        <v>2</v>
+      </c>
+      <c r="U39">
+        <v>30</v>
+      </c>
+      <c r="V39">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22">
       <c r="A40">
         <v>30</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
+      <c r="F40">
+        <v>34</v>
+      </c>
+      <c r="G40">
+        <v>8</v>
+      </c>
+      <c r="H40">
+        <v>38</v>
+      </c>
+      <c r="I40">
+        <v>39</v>
+      </c>
+      <c r="J40">
+        <v>51</v>
+      </c>
+      <c r="K40">
+        <v>45</v>
+      </c>
+      <c r="L40">
+        <v>4</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>2</v>
+      </c>
+      <c r="O40">
+        <v>2</v>
+      </c>
+      <c r="P40">
+        <v>5</v>
+      </c>
+      <c r="Q40">
+        <v>43</v>
+      </c>
+      <c r="R40">
+        <v>42</v>
+      </c>
+      <c r="S40">
+        <v>3</v>
+      </c>
+      <c r="T40">
+        <v>41</v>
+      </c>
+      <c r="U40">
+        <v>7</v>
+      </c>
+      <c r="V40">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22">
       <c r="A41">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
+      <c r="F41">
+        <v>12</v>
+      </c>
+      <c r="G41">
+        <v>17</v>
+      </c>
+      <c r="H41">
+        <v>13</v>
+      </c>
+      <c r="I41">
+        <v>26</v>
+      </c>
+      <c r="J41">
+        <v>14</v>
+      </c>
+      <c r="K41">
+        <v>26</v>
+      </c>
+      <c r="L41">
+        <v>53</v>
+      </c>
+      <c r="M41">
+        <v>20</v>
+      </c>
+      <c r="N41">
+        <v>41</v>
+      </c>
+      <c r="O41">
+        <v>31</v>
+      </c>
+      <c r="P41">
+        <v>51</v>
+      </c>
+      <c r="Q41">
+        <v>16</v>
+      </c>
+      <c r="R41">
+        <v>23</v>
+      </c>
+      <c r="S41">
+        <v>1</v>
+      </c>
+      <c r="T41">
+        <v>42</v>
+      </c>
+      <c r="U41">
+        <v>1</v>
+      </c>
+      <c r="V41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22">
       <c r="A42">
         <v>31</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42">
+        <v>9</v>
+      </c>
+      <c r="H42">
+        <v>32</v>
+      </c>
+      <c r="I42">
+        <v>37</v>
+      </c>
+      <c r="J42">
+        <v>10</v>
+      </c>
+      <c r="K42">
+        <v>6</v>
+      </c>
+      <c r="L42">
+        <v>51</v>
+      </c>
+      <c r="M42">
+        <v>16</v>
+      </c>
+      <c r="N42">
+        <v>53</v>
+      </c>
+      <c r="O42">
+        <v>47</v>
+      </c>
+      <c r="P42">
+        <v>19</v>
+      </c>
+      <c r="Q42">
+        <v>26</v>
+      </c>
+      <c r="R42">
+        <v>53</v>
+      </c>
+      <c r="S42">
+        <v>29</v>
+      </c>
+      <c r="T42">
+        <v>39</v>
+      </c>
+      <c r="U42">
+        <v>26</v>
+      </c>
+      <c r="V42">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22">
       <c r="A43">
         <v>26</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
+      <c r="F43">
+        <v>15</v>
+      </c>
+      <c r="G43">
+        <v>5</v>
+      </c>
+      <c r="H43">
+        <v>17</v>
+      </c>
+      <c r="I43">
+        <v>18</v>
+      </c>
+      <c r="J43">
+        <v>19</v>
+      </c>
+      <c r="K43">
+        <v>24</v>
+      </c>
+      <c r="L43">
+        <v>45</v>
+      </c>
+      <c r="M43">
+        <v>53</v>
+      </c>
+      <c r="N43">
+        <v>32</v>
+      </c>
+      <c r="O43">
+        <v>19</v>
+      </c>
+      <c r="P43">
+        <v>42</v>
+      </c>
+      <c r="Q43">
+        <v>1</v>
+      </c>
+      <c r="R43">
+        <v>2</v>
+      </c>
+      <c r="S43">
+        <v>41</v>
+      </c>
+      <c r="T43">
+        <v>46</v>
+      </c>
+      <c r="U43">
+        <v>33</v>
+      </c>
+      <c r="V43">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22">
       <c r="A44">
         <v>32</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
+      <c r="F44">
+        <v>22</v>
+      </c>
+      <c r="G44">
+        <v>25</v>
+      </c>
+      <c r="H44">
+        <v>20</v>
+      </c>
+      <c r="I44">
+        <v>17</v>
+      </c>
+      <c r="J44">
+        <v>13</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>50</v>
+      </c>
+      <c r="M44">
+        <v>13</v>
+      </c>
+      <c r="N44">
+        <v>42</v>
+      </c>
+      <c r="O44">
+        <v>36</v>
+      </c>
+      <c r="P44">
+        <v>47</v>
+      </c>
+      <c r="Q44">
+        <v>19</v>
+      </c>
+      <c r="R44">
+        <v>54</v>
+      </c>
+      <c r="S44">
+        <v>46</v>
+      </c>
+      <c r="T44">
+        <v>25</v>
+      </c>
+      <c r="U44">
+        <v>11</v>
+      </c>
+      <c r="V44">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22">
       <c r="A45">
         <v>33</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
+      <c r="F45">
+        <v>53</v>
+      </c>
+      <c r="G45">
+        <v>17</v>
+      </c>
+      <c r="H45">
+        <v>47</v>
+      </c>
+      <c r="I45">
+        <v>41</v>
+      </c>
+      <c r="J45">
+        <v>41</v>
+      </c>
+      <c r="K45">
+        <v>21</v>
+      </c>
+      <c r="L45">
+        <v>17</v>
+      </c>
+      <c r="M45">
+        <v>37</v>
+      </c>
+      <c r="N45">
+        <v>3</v>
+      </c>
+      <c r="O45">
+        <v>9</v>
+      </c>
+      <c r="P45">
+        <v>10</v>
+      </c>
+      <c r="Q45">
+        <v>13</v>
+      </c>
+      <c r="R45">
+        <v>35</v>
+      </c>
+      <c r="S45">
+        <v>20</v>
+      </c>
+      <c r="T45">
+        <v>2</v>
+      </c>
+      <c r="U45">
+        <v>18</v>
+      </c>
+      <c r="V45">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22">
       <c r="A46">
         <v>34</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
+      <c r="F46">
+        <v>5</v>
+      </c>
+      <c r="G46">
+        <v>23</v>
+      </c>
+      <c r="H46">
+        <v>28</v>
+      </c>
+      <c r="I46">
+        <v>32</v>
+      </c>
+      <c r="J46">
+        <v>33</v>
+      </c>
+      <c r="K46">
+        <v>26</v>
+      </c>
+      <c r="L46">
+        <v>53</v>
+      </c>
+      <c r="M46">
+        <v>31</v>
+      </c>
+      <c r="N46">
+        <v>28</v>
+      </c>
+      <c r="O46">
+        <v>30</v>
+      </c>
+      <c r="P46">
+        <v>16</v>
+      </c>
+      <c r="Q46">
+        <v>48</v>
+      </c>
+      <c r="R46">
+        <v>7</v>
+      </c>
+      <c r="S46">
+        <v>3</v>
+      </c>
+      <c r="T46">
+        <v>35</v>
+      </c>
+      <c r="U46">
+        <v>14</v>
+      </c>
+      <c r="V46">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22">
       <c r="A47">
         <v>35</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
+      <c r="F47">
+        <v>15</v>
+      </c>
+      <c r="G47">
+        <v>45</v>
+      </c>
+      <c r="H47">
+        <v>13</v>
+      </c>
+      <c r="I47">
+        <v>48</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>14</v>
+      </c>
+      <c r="L47">
+        <v>30</v>
+      </c>
+      <c r="M47">
+        <v>21</v>
+      </c>
+      <c r="N47">
+        <v>26</v>
+      </c>
+      <c r="O47">
+        <v>45</v>
+      </c>
+      <c r="P47">
+        <v>22</v>
+      </c>
+      <c r="Q47">
+        <v>27</v>
+      </c>
+      <c r="R47">
+        <v>38</v>
+      </c>
+      <c r="S47">
+        <v>11</v>
+      </c>
+      <c r="T47">
+        <v>6</v>
+      </c>
+      <c r="U47">
+        <v>30</v>
+      </c>
+      <c r="V47">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22">
       <c r="A48">
         <v>19</v>
       </c>
@@ -9166,8 +11270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Documentation/Design/Cipher Models.xlsx
+++ b/Documentation/Design/Cipher Models.xlsx
@@ -4,20 +4,113 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="28755" windowHeight="12585"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="28755" windowHeight="12585" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Z340" sheetId="1" r:id="rId1"/>
     <sheet name="Z408" sheetId="2" r:id="rId2"/>
     <sheet name="Test Substitution" sheetId="3" r:id="rId3"/>
+    <sheet name="English Language Frequency" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+  <si>
+    <t>Character Frequency</t>
+  </si>
+  <si>
+    <t>Character frequency</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>English language letter frequences</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -46,16 +139,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8FAFE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -72,11 +177,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF8F9399"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF8F9399"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF8F9399"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF8F9399"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -90,6 +210,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -97,6 +223,893 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-GB"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Z340</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Character frequency</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Z340'!$C$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Character frequency</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'Z340'!$D$28:$BN$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="67988096"/>
+        <c:axId val="68005248"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="67988096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="68005248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="68005248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="24"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="67988096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="2"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-GB"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Z408 Character Frequency</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Z408'!$C$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Character Frequency</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'Z408'!$D$21:$BE$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="54"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="82427264"/>
+        <c:axId val="82441344"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="82427264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="82441344"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="2"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="82441344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="82427264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-GB"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'English Language Frequency'!$E$6:$E$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>English language letter frequences</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'English Language Frequency'!$D$8:$D$33</c:f>
+              <c:strCache>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>F</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>G</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>H</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>I</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>J</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>K</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>L</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>M</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>N</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>O</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>P</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Q</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>R</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>S</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>T</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>U</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>V</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>W</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>X</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Y</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Z</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'English Language Frequency'!$E$8:$E$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>8.1670000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4919999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7820000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2529999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12701999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2280000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0150000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.0940000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.966E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5299999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.7200000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.0250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.4060000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.7489999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.5069999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.9290000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.5E-4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.987E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.3270000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.0560000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.758E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.7800000000000005E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.3599999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.5E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.9740000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.3999999999999999E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="74192768"/>
+        <c:axId val="74194304"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="74192768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="74194304"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="74194304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="74192768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -384,15 +1397,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BN343"/>
+  <dimension ref="A1:DE343"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="K47" sqref="K47"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="2" width="9.140625" style="4"/>
+    <col min="3" max="3" width="19.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="15.75">
@@ -2019,7 +3034,7 @@
       <c r="Y16" s="2"/>
       <c r="AC16" s="2"/>
     </row>
-    <row r="17" spans="1:29" ht="15.75">
+    <row r="17" spans="1:66" ht="15.75">
       <c r="A17" s="2">
         <v>17</v>
       </c>
@@ -2040,7 +3055,7 @@
       <c r="AB17" s="2"/>
       <c r="AC17" s="2"/>
     </row>
-    <row r="18" spans="1:29" ht="15.75">
+    <row r="18" spans="1:66" ht="15.75">
       <c r="A18" s="2">
         <v>18</v>
       </c>
@@ -2062,7 +3077,7 @@
       <c r="AB18" s="2"/>
       <c r="AC18" s="2"/>
     </row>
-    <row r="19" spans="1:29" ht="15.75">
+    <row r="19" spans="1:66" ht="15.75">
       <c r="A19" s="2">
         <v>5</v>
       </c>
@@ -2084,7 +3099,7 @@
       <c r="AB19" s="2"/>
       <c r="AC19" s="2"/>
     </row>
-    <row r="20" spans="1:29" ht="15.75">
+    <row r="20" spans="1:66" ht="15.75">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -2106,7 +3121,7 @@
       <c r="AB20" s="2"/>
       <c r="AC20" s="2"/>
     </row>
-    <row r="21" spans="1:29" ht="15.75">
+    <row r="21" spans="1:66" ht="15.75">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -2129,7 +3144,7 @@
       <c r="AB21" s="2"/>
       <c r="AC21" s="2"/>
     </row>
-    <row r="22" spans="1:29" ht="15.75">
+    <row r="22" spans="1:66" ht="15.75">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -2153,7 +3168,7 @@
       <c r="AB22" s="2"/>
       <c r="AC22" s="2"/>
     </row>
-    <row r="23" spans="1:29" ht="15.75">
+    <row r="23" spans="1:66" ht="15.75">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -2177,7 +3192,7 @@
       <c r="AB23" s="2"/>
       <c r="AC23" s="2"/>
     </row>
-    <row r="24" spans="1:29" ht="15.75">
+    <row r="24" spans="1:66" ht="15.75">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -2188,7 +3203,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="25" spans="1:29" ht="15.75">
+    <row r="25" spans="1:66" ht="15.75">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -2199,7 +3214,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="26" spans="1:29" ht="15.75">
+    <row r="26" spans="1:66" ht="15.75">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -2210,7 +3225,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="15.75">
+    <row r="27" spans="1:66" ht="15.75">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -2221,486 +3236,536 @@
         <v>340</v>
       </c>
     </row>
-    <row r="28" spans="1:29" ht="15.75">
+    <row r="28" spans="1:66" ht="15.75">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="2"/>
-      <c r="T28" s="1"/>
-    </row>
-    <row r="29" spans="1:29" ht="15.75">
+      <c r="C28" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="4">
+        <f>COUNTA(D4:D27)</f>
+        <v>4</v>
+      </c>
+      <c r="E28" s="4">
+        <f t="shared" ref="E28:BN28" si="0">COUNTA(E4:E27)</f>
+        <v>3</v>
+      </c>
+      <c r="F28" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G28" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H28" s="4">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="I28" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="J28" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="K28" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L28" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M28" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="N28" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="O28" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="P28" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="Q28" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="R28" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="S28" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="T28" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="U28" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="V28" s="4">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="W28" s="4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="X28" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="Y28" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="Z28" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="AA28" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AB28" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AC28" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AD28" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AE28" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AF28" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AG28" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AH28" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="AI28" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AJ28" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AK28" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AL28" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AM28" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="AN28" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="AO28" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AP28" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AQ28" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="AR28" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AS28" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AT28" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AU28" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AV28" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AW28" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AX28" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AY28" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AZ28" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="BA28" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="BB28" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="BC28" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="BD28" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="BE28" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="BF28" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="BG28" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="BH28" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="BI28" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="BJ28" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="BK28" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="BL28" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="BM28" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="BN28" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:66" ht="15.75">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="2"/>
       <c r="T29" s="1"/>
     </row>
-    <row r="30" spans="1:29" ht="15.75">
+    <row r="30" spans="1:66" ht="15.75">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="2"/>
-      <c r="D30" s="2">
-        <v>1</v>
-      </c>
-      <c r="E30" s="2">
-        <v>2</v>
-      </c>
-      <c r="F30" s="2">
-        <v>3</v>
-      </c>
-      <c r="G30" s="2">
-        <v>4</v>
-      </c>
-      <c r="H30" s="2">
-        <v>5</v>
-      </c>
-      <c r="I30" s="2">
-        <v>6</v>
-      </c>
-      <c r="J30" s="2">
-        <v>7</v>
-      </c>
-      <c r="K30" s="2">
-        <v>8</v>
-      </c>
-      <c r="L30" s="2">
-        <v>9</v>
-      </c>
-      <c r="M30" s="2">
-        <v>10</v>
-      </c>
-      <c r="N30" s="2">
-        <v>11</v>
-      </c>
-      <c r="O30" s="2">
-        <v>12</v>
-      </c>
-      <c r="P30" s="2">
-        <v>13</v>
-      </c>
-      <c r="Q30" s="2">
-        <v>14</v>
-      </c>
-      <c r="R30" s="2">
-        <v>15</v>
-      </c>
-      <c r="S30" s="2">
-        <v>16</v>
-      </c>
-      <c r="T30" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" ht="15.75">
+    </row>
+    <row r="31" spans="1:66" ht="15.75">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="2"/>
-      <c r="D31" s="2">
-        <v>18</v>
-      </c>
-      <c r="E31" s="2">
-        <v>5</v>
-      </c>
-      <c r="F31" s="2">
-        <v>19</v>
-      </c>
-      <c r="G31" s="2">
-        <v>20</v>
-      </c>
-      <c r="H31" s="2">
-        <v>21</v>
-      </c>
-      <c r="I31" s="2">
-        <v>22</v>
-      </c>
-      <c r="J31" s="2">
-        <v>23</v>
-      </c>
-      <c r="K31" s="2">
-        <v>24</v>
-      </c>
-      <c r="L31" s="2">
-        <v>25</v>
-      </c>
-      <c r="M31" s="2">
-        <v>26</v>
-      </c>
-      <c r="N31" s="2">
-        <v>27</v>
-      </c>
-      <c r="O31" s="2">
-        <v>28</v>
-      </c>
-      <c r="P31" s="2">
-        <v>29</v>
-      </c>
-      <c r="Q31" s="2">
-        <v>30</v>
-      </c>
-      <c r="R31" s="2">
-        <v>31</v>
-      </c>
-      <c r="S31" s="2">
-        <v>32</v>
-      </c>
-      <c r="T31" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29" ht="15.75">
+    </row>
+    <row r="32" spans="1:66" ht="15.75">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="2"/>
-      <c r="D32" s="2">
-        <v>20</v>
-      </c>
-      <c r="E32" s="2">
-        <v>34</v>
-      </c>
-      <c r="F32" s="2">
-        <v>35</v>
-      </c>
-      <c r="G32" s="2">
-        <v>36</v>
-      </c>
-      <c r="H32" s="2">
-        <v>37</v>
-      </c>
-      <c r="I32" s="2">
-        <v>19</v>
-      </c>
-      <c r="J32" s="2">
-        <v>38</v>
-      </c>
-      <c r="K32" s="2">
-        <v>39</v>
-      </c>
-      <c r="L32" s="2">
-        <v>15</v>
-      </c>
-      <c r="M32" s="2">
-        <v>26</v>
-      </c>
-      <c r="N32" s="2">
-        <v>21</v>
-      </c>
-      <c r="O32" s="2">
-        <v>33</v>
-      </c>
-      <c r="P32" s="2">
-        <v>13</v>
-      </c>
-      <c r="Q32" s="2">
-        <v>22</v>
-      </c>
-      <c r="R32" s="2">
-        <v>40</v>
-      </c>
-      <c r="S32" s="2">
-        <v>1</v>
-      </c>
-      <c r="T32" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" ht="15.75">
+    </row>
+    <row r="33" spans="1:109" ht="15.75">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="2"/>
-      <c r="D33" s="2">
-        <v>42</v>
-      </c>
-      <c r="E33" s="2">
-        <v>5</v>
-      </c>
-      <c r="F33" s="2">
-        <v>5</v>
-      </c>
-      <c r="G33" s="2">
-        <v>43</v>
-      </c>
-      <c r="H33" s="2">
-        <v>7</v>
-      </c>
-      <c r="I33" s="2">
-        <v>6</v>
-      </c>
-      <c r="J33" s="2">
-        <v>44</v>
-      </c>
-      <c r="K33" s="2">
-        <v>30</v>
-      </c>
-      <c r="L33" s="2">
-        <v>8</v>
-      </c>
-      <c r="M33" s="2">
-        <v>45</v>
-      </c>
-      <c r="N33" s="2">
-        <v>5</v>
-      </c>
-      <c r="O33" s="2">
-        <v>23</v>
-      </c>
-      <c r="P33" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q33" s="2">
-        <v>19</v>
-      </c>
-      <c r="R33" s="2">
-        <v>3</v>
-      </c>
-      <c r="S33" s="2">
-        <v>31</v>
-      </c>
-      <c r="T33" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" ht="15.75">
+    </row>
+    <row r="34" spans="1:109" ht="15.75">
       <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="2"/>
       <c r="D34" s="2">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="E34" s="2">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="F34" s="2">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="G34" s="2">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="H34" s="2">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="I34" s="2">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="J34" s="2">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="K34" s="2">
+        <v>8</v>
+      </c>
+      <c r="L34" s="2">
+        <v>9</v>
+      </c>
+      <c r="M34" s="2">
+        <v>10</v>
+      </c>
+      <c r="N34" s="2">
+        <v>11</v>
+      </c>
+      <c r="O34" s="2">
+        <v>12</v>
+      </c>
+      <c r="P34" s="2">
+        <v>13</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>14</v>
+      </c>
+      <c r="R34" s="2">
+        <v>15</v>
+      </c>
+      <c r="S34" s="2">
+        <v>16</v>
+      </c>
+      <c r="T34" s="2">
         <v>17</v>
       </c>
-      <c r="L34" s="2">
-        <v>11</v>
-      </c>
-      <c r="M34" s="2">
-        <v>50</v>
-      </c>
-      <c r="N34" s="2">
-        <v>51</v>
-      </c>
-      <c r="O34" s="2">
-        <v>9</v>
-      </c>
-      <c r="P34" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q34" s="2">
-        <v>52</v>
-      </c>
-      <c r="R34" s="2">
-        <v>53</v>
-      </c>
-      <c r="S34" s="2">
-        <v>10</v>
-      </c>
-      <c r="T34" s="2">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" ht="15.75">
+    </row>
+    <row r="35" spans="1:109" ht="15.75">
       <c r="A35" s="2">
         <v>20</v>
       </c>
       <c r="B35" s="2"/>
       <c r="D35" s="2">
+        <v>18</v>
+      </c>
+      <c r="E35" s="2">
         <v>5</v>
       </c>
-      <c r="E35" s="2">
-        <v>44</v>
-      </c>
       <c r="F35" s="2">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="G35" s="2">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="H35" s="2">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="I35" s="2">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="J35" s="2">
         <v>23</v>
       </c>
       <c r="K35" s="2">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="L35" s="2">
+        <v>25</v>
+      </c>
+      <c r="M35" s="2">
+        <v>26</v>
+      </c>
+      <c r="N35" s="2">
+        <v>27</v>
+      </c>
+      <c r="O35" s="2">
+        <v>28</v>
+      </c>
+      <c r="P35" s="2">
+        <v>29</v>
+      </c>
+      <c r="Q35" s="2">
         <v>30</v>
       </c>
-      <c r="M35" s="2">
-        <v>17</v>
-      </c>
-      <c r="N35" s="2">
-        <v>56</v>
-      </c>
-      <c r="O35" s="2">
-        <v>10</v>
-      </c>
-      <c r="P35" s="2">
-        <v>51</v>
-      </c>
-      <c r="Q35" s="2">
-        <v>4</v>
-      </c>
       <c r="R35" s="2">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="S35" s="2">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="T35" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" ht="15.75">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:109" ht="15.75">
       <c r="A36" s="2">
         <v>34</v>
       </c>
       <c r="B36" s="2"/>
       <c r="D36" s="2">
+        <v>20</v>
+      </c>
+      <c r="E36" s="2">
+        <v>34</v>
+      </c>
+      <c r="F36" s="2">
+        <v>35</v>
+      </c>
+      <c r="G36" s="2">
+        <v>36</v>
+      </c>
+      <c r="H36" s="2">
+        <v>37</v>
+      </c>
+      <c r="I36" s="2">
+        <v>19</v>
+      </c>
+      <c r="J36" s="2">
+        <v>38</v>
+      </c>
+      <c r="K36" s="2">
+        <v>39</v>
+      </c>
+      <c r="L36" s="2">
+        <v>15</v>
+      </c>
+      <c r="M36" s="2">
+        <v>26</v>
+      </c>
+      <c r="N36" s="2">
+        <v>21</v>
+      </c>
+      <c r="O36" s="2">
+        <v>33</v>
+      </c>
+      <c r="P36" s="2">
+        <v>13</v>
+      </c>
+      <c r="Q36" s="2">
         <v>22</v>
-      </c>
-      <c r="E36" s="2">
-        <v>50</v>
-      </c>
-      <c r="F36" s="2">
-        <v>19</v>
-      </c>
-      <c r="G36" s="2">
-        <v>31</v>
-      </c>
-      <c r="H36" s="2">
-        <v>57</v>
-      </c>
-      <c r="I36" s="2">
-        <v>24</v>
-      </c>
-      <c r="J36" s="2">
-        <v>58</v>
-      </c>
-      <c r="K36" s="2">
-        <v>16</v>
-      </c>
-      <c r="L36" s="2">
-        <v>38</v>
-      </c>
-      <c r="M36" s="2">
-        <v>36</v>
-      </c>
-      <c r="N36" s="2">
-        <v>59</v>
-      </c>
-      <c r="O36" s="2">
-        <v>15</v>
-      </c>
-      <c r="P36" s="2">
-        <v>8</v>
-      </c>
-      <c r="Q36" s="2">
-        <v>28</v>
       </c>
       <c r="R36" s="2">
         <v>40</v>
       </c>
       <c r="S36" s="2">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="T36" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" ht="15.75">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:109" ht="15.75">
       <c r="A37" s="2">
         <v>35</v>
       </c>
       <c r="B37" s="2"/>
       <c r="D37" s="2">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="E37" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F37" s="2">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="G37" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H37" s="2">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="I37" s="2">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="J37" s="2">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="K37" s="2">
+        <v>30</v>
+      </c>
+      <c r="L37" s="2">
+        <v>8</v>
+      </c>
+      <c r="M37" s="2">
+        <v>45</v>
+      </c>
+      <c r="N37" s="2">
+        <v>5</v>
+      </c>
+      <c r="O37" s="2">
         <v>23</v>
       </c>
-      <c r="L37" s="2">
+      <c r="P37" s="2">
         <v>19</v>
-      </c>
-      <c r="M37" s="2">
-        <v>46</v>
-      </c>
-      <c r="N37" s="2">
-        <v>18</v>
-      </c>
-      <c r="O37" s="2">
-        <v>27</v>
-      </c>
-      <c r="P37" s="2">
-        <v>40</v>
       </c>
       <c r="Q37" s="2">
         <v>19</v>
       </c>
       <c r="R37" s="2">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="S37" s="2">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="T37" s="2">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" ht="15.75">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:109" ht="15.75">
       <c r="A38" s="2">
         <v>36</v>
       </c>
       <c r="B38" s="2"/>
       <c r="D38" s="2">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="E38" s="2">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="F38" s="2">
         <v>37</v>
@@ -2709,613 +3774,676 @@
         <v>19</v>
       </c>
       <c r="H38" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="I38" s="2">
+        <v>48</v>
+      </c>
+      <c r="J38" s="2">
+        <v>49</v>
+      </c>
+      <c r="K38" s="2">
+        <v>17</v>
+      </c>
+      <c r="L38" s="2">
+        <v>11</v>
+      </c>
+      <c r="M38" s="2">
+        <v>50</v>
+      </c>
+      <c r="N38" s="2">
+        <v>51</v>
+      </c>
+      <c r="O38" s="2">
+        <v>9</v>
+      </c>
+      <c r="P38" s="2">
         <v>19</v>
       </c>
-      <c r="J38" s="2">
-        <v>39</v>
-      </c>
-      <c r="K38" s="2">
-        <v>3</v>
-      </c>
-      <c r="L38" s="2">
-        <v>16</v>
-      </c>
-      <c r="M38" s="2">
-        <v>51</v>
-      </c>
-      <c r="N38" s="2">
-        <v>20</v>
-      </c>
-      <c r="O38" s="2">
-        <v>36</v>
-      </c>
-      <c r="P38" s="2">
-        <v>34</v>
-      </c>
       <c r="Q38" s="2">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="R38" s="2">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="S38" s="2">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="T38" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" ht="15.75">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:109" ht="15.75">
       <c r="A39" s="2">
         <v>37</v>
       </c>
       <c r="B39" s="2"/>
       <c r="D39" s="2">
+        <v>5</v>
+      </c>
+      <c r="E39" s="2">
+        <v>44</v>
+      </c>
+      <c r="F39" s="2">
+        <v>3</v>
+      </c>
+      <c r="G39" s="2">
+        <v>7</v>
+      </c>
+      <c r="H39" s="2">
+        <v>51</v>
+      </c>
+      <c r="I39" s="2">
+        <v>6</v>
+      </c>
+      <c r="J39" s="2">
+        <v>23</v>
+      </c>
+      <c r="K39" s="2">
         <v>55</v>
       </c>
-      <c r="E39" s="2">
-        <v>40</v>
-      </c>
-      <c r="F39" s="2">
-        <v>6</v>
-      </c>
-      <c r="G39" s="2">
-        <v>38</v>
-      </c>
-      <c r="H39" s="2">
-        <v>8</v>
-      </c>
-      <c r="I39" s="2">
-        <v>19</v>
-      </c>
-      <c r="J39" s="2">
-        <v>7</v>
-      </c>
-      <c r="K39" s="2">
-        <v>41</v>
-      </c>
       <c r="L39" s="2">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M39" s="2">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="N39" s="2">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="O39" s="2">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="P39" s="2">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="Q39" s="2">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="R39" s="2">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="S39" s="2">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="T39" s="2">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" ht="15.75">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:109" ht="15.75">
       <c r="A40" s="2">
         <v>19</v>
       </c>
       <c r="B40" s="2"/>
       <c r="D40" s="2">
+        <v>22</v>
+      </c>
+      <c r="E40" s="2">
+        <v>50</v>
+      </c>
+      <c r="F40" s="2">
+        <v>19</v>
+      </c>
+      <c r="G40" s="2">
+        <v>31</v>
+      </c>
+      <c r="H40" s="2">
+        <v>57</v>
+      </c>
+      <c r="I40" s="2">
+        <v>24</v>
+      </c>
+      <c r="J40" s="2">
+        <v>58</v>
+      </c>
+      <c r="K40" s="2">
+        <v>16</v>
+      </c>
+      <c r="L40" s="2">
         <v>38</v>
       </c>
-      <c r="E40" s="2">
-        <v>19</v>
-      </c>
-      <c r="F40" s="2">
-        <v>3</v>
-      </c>
-      <c r="G40" s="2">
-        <v>54</v>
-      </c>
-      <c r="H40" s="2">
-        <v>50</v>
-      </c>
-      <c r="I40" s="2">
-        <v>48</v>
-      </c>
-      <c r="J40" s="2">
-        <v>2</v>
-      </c>
-      <c r="K40" s="2">
+      <c r="M40" s="2">
+        <v>36</v>
+      </c>
+      <c r="N40" s="2">
+        <v>59</v>
+      </c>
+      <c r="O40" s="2">
+        <v>15</v>
+      </c>
+      <c r="P40" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>28</v>
+      </c>
+      <c r="R40" s="2">
+        <v>40</v>
+      </c>
+      <c r="S40" s="2">
+        <v>13</v>
+      </c>
+      <c r="T40" s="2">
         <v>11</v>
       </c>
-      <c r="L40" s="2">
-        <v>25</v>
-      </c>
-      <c r="M40" s="2">
-        <v>27</v>
-      </c>
-      <c r="N40" s="2">
-        <v>20</v>
-      </c>
-      <c r="O40" s="2">
-        <v>5</v>
-      </c>
-      <c r="P40" s="2">
-        <v>61</v>
-      </c>
-      <c r="Q40" s="2">
-        <v>14</v>
-      </c>
-      <c r="R40" s="2">
-        <v>37</v>
-      </c>
-      <c r="S40" s="2">
-        <v>31</v>
-      </c>
-      <c r="T40" s="2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" ht="15.75">
+    </row>
+    <row r="41" spans="1:109" ht="15.75">
       <c r="A41" s="2">
         <v>38</v>
       </c>
       <c r="B41" s="2"/>
       <c r="D41" s="2">
+        <v>21</v>
+      </c>
+      <c r="E41" s="2">
+        <v>15</v>
+      </c>
+      <c r="F41" s="2">
         <v>16</v>
       </c>
-      <c r="E41" s="2">
-        <v>29</v>
-      </c>
-      <c r="F41" s="2">
-        <v>36</v>
-      </c>
       <c r="G41" s="2">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="H41" s="2">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="I41" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="J41" s="2">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="K41" s="2">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="L41" s="2">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="M41" s="2">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="N41" s="2">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="O41" s="2">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="P41" s="2">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="Q41" s="2">
         <v>19</v>
       </c>
       <c r="R41" s="2">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="S41" s="2">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="T41" s="2">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" ht="15.75">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:109" ht="15.75">
       <c r="A42" s="2">
         <v>39</v>
       </c>
       <c r="B42" s="2"/>
       <c r="D42" s="2">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="E42" s="2">
+        <v>29</v>
+      </c>
+      <c r="F42" s="2">
+        <v>37</v>
+      </c>
+      <c r="G42" s="2">
+        <v>19</v>
+      </c>
+      <c r="H42" s="2">
+        <v>61</v>
+      </c>
+      <c r="I42" s="2">
+        <v>19</v>
+      </c>
+      <c r="J42" s="2">
+        <v>39</v>
+      </c>
+      <c r="K42" s="2">
+        <v>3</v>
+      </c>
+      <c r="L42" s="2">
+        <v>16</v>
+      </c>
+      <c r="M42" s="2">
+        <v>51</v>
+      </c>
+      <c r="N42" s="2">
+        <v>20</v>
+      </c>
+      <c r="O42" s="2">
+        <v>36</v>
+      </c>
+      <c r="P42" s="2">
+        <v>34</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>62</v>
+      </c>
+      <c r="R42" s="2">
         <v>63</v>
       </c>
-      <c r="F42" s="2">
-        <v>47</v>
-      </c>
-      <c r="G42" s="2">
-        <v>42</v>
-      </c>
-      <c r="H42" s="2">
-        <v>34</v>
-      </c>
-      <c r="I42" s="2">
-        <v>22</v>
-      </c>
-      <c r="J42" s="2">
-        <v>19</v>
-      </c>
-      <c r="K42" s="2">
-        <v>18</v>
-      </c>
-      <c r="L42" s="2">
-        <v>11</v>
-      </c>
-      <c r="M42" s="2">
-        <v>50</v>
-      </c>
-      <c r="N42" s="2">
-        <v>51</v>
-      </c>
-      <c r="O42" s="2">
-        <v>20</v>
-      </c>
-      <c r="P42" s="2">
-        <v>36</v>
-      </c>
-      <c r="Q42" s="2">
-        <v>21</v>
-      </c>
-      <c r="R42" s="2">
-        <v>58</v>
-      </c>
       <c r="S42" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="T42" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" ht="15.75">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:109" ht="15.75">
       <c r="A43" s="2">
         <v>15</v>
       </c>
       <c r="B43" s="2"/>
       <c r="D43" s="2">
+        <v>55</v>
+      </c>
+      <c r="E43" s="2">
+        <v>40</v>
+      </c>
+      <c r="F43" s="2">
         <v>6</v>
       </c>
-      <c r="E43" s="2">
-        <v>15</v>
-      </c>
-      <c r="F43" s="2">
+      <c r="G43" s="2">
+        <v>38</v>
+      </c>
+      <c r="H43" s="2">
+        <v>8</v>
+      </c>
+      <c r="I43" s="2">
+        <v>19</v>
+      </c>
+      <c r="J43" s="2">
+        <v>7</v>
+      </c>
+      <c r="K43" s="2">
+        <v>41</v>
+      </c>
+      <c r="L43" s="2">
+        <v>19</v>
+      </c>
+      <c r="M43" s="2">
+        <v>23</v>
+      </c>
+      <c r="N43" s="2">
+        <v>5</v>
+      </c>
+      <c r="O43" s="2">
+        <v>43</v>
+      </c>
+      <c r="P43" s="2">
+        <v>29</v>
+      </c>
+      <c r="Q43" s="2">
         <v>51</v>
       </c>
-      <c r="G43" s="2">
-        <v>18</v>
-      </c>
-      <c r="H43" s="2">
-        <v>7</v>
-      </c>
-      <c r="I43" s="2">
-        <v>32</v>
-      </c>
-      <c r="J43" s="2">
-        <v>50</v>
-      </c>
-      <c r="K43" s="2">
-        <v>16</v>
-      </c>
-      <c r="L43" s="2">
-        <v>53</v>
-      </c>
-      <c r="M43" s="2">
-        <v>61</v>
-      </c>
-      <c r="N43" s="2">
-        <v>28</v>
-      </c>
-      <c r="O43" s="2">
-        <v>36</v>
-      </c>
-      <c r="P43" s="2">
-        <v>8</v>
-      </c>
-      <c r="Q43" s="2">
-        <v>53</v>
-      </c>
       <c r="R43" s="2">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="S43" s="2">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="T43" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" ht="15.75">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="1:109" ht="15.75">
       <c r="A44" s="2">
         <v>26</v>
       </c>
       <c r="B44" s="2"/>
       <c r="D44" s="2">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E44" s="2">
+        <v>19</v>
+      </c>
+      <c r="F44" s="2">
+        <v>3</v>
+      </c>
+      <c r="G44" s="2">
+        <v>54</v>
+      </c>
+      <c r="H44" s="2">
+        <v>50</v>
+      </c>
+      <c r="I44" s="2">
+        <v>48</v>
+      </c>
+      <c r="J44" s="2">
+        <v>2</v>
+      </c>
+      <c r="K44" s="2">
+        <v>11</v>
+      </c>
+      <c r="L44" s="2">
+        <v>25</v>
+      </c>
+      <c r="M44" s="2">
+        <v>27</v>
+      </c>
+      <c r="N44" s="2">
         <v>20</v>
       </c>
-      <c r="F44" s="2">
-        <v>59</v>
-      </c>
-      <c r="G44" s="2">
-        <v>12</v>
-      </c>
-      <c r="H44" s="2">
-        <v>30</v>
-      </c>
-      <c r="I44" s="2">
-        <v>35</v>
-      </c>
-      <c r="J44" s="2">
-        <v>53</v>
-      </c>
-      <c r="K44" s="2">
-        <v>47</v>
-      </c>
-      <c r="L44" s="2">
-        <v>56</v>
-      </c>
-      <c r="M44" s="2">
-        <v>2</v>
-      </c>
-      <c r="N44" s="2">
-        <v>4</v>
-      </c>
       <c r="O44" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P44" s="2">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="Q44" s="2">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="R44" s="2">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="S44" s="2">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="T44" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" ht="15.75">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:109" ht="15.75">
       <c r="A45" s="2">
         <v>21</v>
       </c>
       <c r="B45" s="2"/>
       <c r="D45" s="2">
+        <v>16</v>
+      </c>
+      <c r="E45" s="2">
+        <v>29</v>
+      </c>
+      <c r="F45" s="2">
+        <v>36</v>
+      </c>
+      <c r="G45" s="2">
+        <v>6</v>
+      </c>
+      <c r="H45" s="2">
+        <v>3</v>
+      </c>
+      <c r="I45" s="2">
+        <v>41</v>
+      </c>
+      <c r="J45" s="2">
         <v>11</v>
       </c>
-      <c r="E45" s="2">
-        <v>36</v>
-      </c>
-      <c r="F45" s="2">
+      <c r="K45" s="2">
+        <v>30</v>
+      </c>
+      <c r="L45" s="2">
+        <v>50</v>
+      </c>
+      <c r="M45" s="2">
+        <v>14</v>
+      </c>
+      <c r="N45" s="2">
+        <v>53</v>
+      </c>
+      <c r="O45" s="2">
+        <v>37</v>
+      </c>
+      <c r="P45" s="2">
         <v>28</v>
       </c>
-      <c r="G45" s="2">
-        <v>45</v>
-      </c>
-      <c r="H45" s="2">
-        <v>40</v>
-      </c>
-      <c r="I45" s="2">
+      <c r="Q45" s="2">
+        <v>19</v>
+      </c>
+      <c r="R45" s="2">
+        <v>52</v>
+      </c>
+      <c r="S45" s="2">
         <v>20</v>
       </c>
-      <c r="J45" s="2">
-        <v>31</v>
-      </c>
-      <c r="K45" s="2">
-        <v>21</v>
-      </c>
-      <c r="L45" s="2">
-        <v>23</v>
-      </c>
-      <c r="M45" s="2">
-        <v>5</v>
-      </c>
-      <c r="N45" s="2">
-        <v>7</v>
-      </c>
-      <c r="O45" s="2">
-        <v>28</v>
-      </c>
-      <c r="P45" s="2">
-        <v>32</v>
-      </c>
-      <c r="Q45" s="2">
-        <v>37</v>
-      </c>
-      <c r="R45" s="2">
-        <v>57</v>
-      </c>
-      <c r="S45" s="2">
-        <v>15</v>
-      </c>
       <c r="T45" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" ht="15.75">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:109" ht="15.75">
       <c r="A46" s="2">
         <v>33</v>
       </c>
       <c r="B46" s="2"/>
       <c r="D46" s="2">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="E46" s="2">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="F46" s="2">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="G46" s="2">
+        <v>42</v>
+      </c>
+      <c r="H46" s="2">
+        <v>34</v>
+      </c>
+      <c r="I46" s="2">
+        <v>22</v>
+      </c>
+      <c r="J46" s="2">
         <v>19</v>
       </c>
-      <c r="H46" s="2">
-        <v>13</v>
-      </c>
-      <c r="I46" s="2">
-        <v>12</v>
-      </c>
-      <c r="J46" s="2">
-        <v>63</v>
-      </c>
       <c r="K46" s="2">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="L46" s="2">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="M46" s="2">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="N46" s="2">
         <v>51</v>
       </c>
       <c r="O46" s="2">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="P46" s="2">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="Q46" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R46" s="2">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="S46" s="2">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="T46" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" ht="15.75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:109" ht="15.75">
       <c r="A47" s="2">
         <v>13</v>
       </c>
       <c r="B47" s="2"/>
       <c r="D47" s="2">
+        <v>6</v>
+      </c>
+      <c r="E47" s="2">
+        <v>15</v>
+      </c>
+      <c r="F47" s="2">
+        <v>51</v>
+      </c>
+      <c r="G47" s="2">
+        <v>18</v>
+      </c>
+      <c r="H47" s="2">
+        <v>7</v>
+      </c>
+      <c r="I47" s="2">
+        <v>32</v>
+      </c>
+      <c r="J47" s="2">
+        <v>50</v>
+      </c>
+      <c r="K47" s="2">
+        <v>16</v>
+      </c>
+      <c r="L47" s="2">
+        <v>53</v>
+      </c>
+      <c r="M47" s="2">
+        <v>61</v>
+      </c>
+      <c r="N47" s="2">
+        <v>28</v>
+      </c>
+      <c r="O47" s="2">
+        <v>36</v>
+      </c>
+      <c r="P47" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>53</v>
+      </c>
+      <c r="R47" s="2">
+        <v>48</v>
+      </c>
+      <c r="S47" s="2">
         <v>19</v>
       </c>
-      <c r="E47" s="2">
+      <c r="T47" s="2">
         <v>19</v>
       </c>
-      <c r="F47" s="2">
-        <v>33</v>
-      </c>
-      <c r="G47" s="2">
-        <v>26</v>
-      </c>
-      <c r="H47" s="2">
-        <v>56</v>
-      </c>
-      <c r="I47" s="2">
-        <v>40</v>
-      </c>
-      <c r="J47" s="2">
-        <v>26</v>
-      </c>
-      <c r="K47" s="2">
-        <v>36</v>
-      </c>
-      <c r="L47" s="2">
-        <v>9</v>
-      </c>
-      <c r="M47" s="2">
-        <v>23</v>
-      </c>
-      <c r="N47" s="2">
-        <v>41</v>
-      </c>
-      <c r="O47" s="2">
-        <v>1</v>
-      </c>
-      <c r="P47" s="2">
-        <v>14</v>
-      </c>
-      <c r="Q47" s="2">
-        <v>54</v>
-      </c>
-      <c r="R47" s="2">
-        <v>21</v>
-      </c>
-      <c r="S47" s="2">
-        <v>33</v>
-      </c>
-      <c r="T47" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" ht="15.75">
+      <c r="AU47" s="5"/>
+      <c r="AV47" s="5"/>
+      <c r="AW47" s="5"/>
+      <c r="AX47" s="5"/>
+      <c r="AY47" s="5"/>
+      <c r="AZ47" s="5"/>
+      <c r="BA47" s="5"/>
+      <c r="BB47" s="5"/>
+      <c r="BC47" s="5"/>
+      <c r="BD47" s="5"/>
+      <c r="BE47" s="5"/>
+      <c r="BF47" s="5"/>
+      <c r="BG47" s="5"/>
+      <c r="BH47" s="5"/>
+      <c r="BI47" s="5"/>
+      <c r="BJ47" s="5"/>
+      <c r="BK47" s="5"/>
+      <c r="BL47" s="5"/>
+      <c r="BM47" s="5"/>
+      <c r="BN47" s="5"/>
+      <c r="BO47" s="5"/>
+      <c r="BP47" s="5"/>
+      <c r="BQ47" s="5"/>
+      <c r="BR47" s="5"/>
+      <c r="BS47" s="5"/>
+      <c r="BT47" s="5"/>
+      <c r="BU47" s="5"/>
+      <c r="BV47" s="5"/>
+      <c r="BW47" s="5"/>
+      <c r="BX47" s="5"/>
+      <c r="BY47" s="5"/>
+      <c r="BZ47" s="5"/>
+      <c r="CA47" s="5"/>
+      <c r="CB47" s="5"/>
+      <c r="CC47" s="5"/>
+      <c r="CD47" s="5"/>
+      <c r="CE47" s="5"/>
+      <c r="CF47" s="5"/>
+      <c r="CG47" s="5"/>
+      <c r="CH47" s="5"/>
+      <c r="CI47" s="5"/>
+      <c r="CJ47" s="5"/>
+      <c r="CK47" s="5"/>
+      <c r="CL47" s="5"/>
+      <c r="CM47" s="5"/>
+      <c r="CN47" s="5"/>
+      <c r="CO47" s="5"/>
+      <c r="CP47" s="5"/>
+      <c r="CQ47" s="5"/>
+      <c r="CR47" s="5"/>
+      <c r="CS47" s="5"/>
+      <c r="CT47" s="5"/>
+      <c r="CU47" s="5"/>
+      <c r="CV47" s="5"/>
+      <c r="CW47" s="5"/>
+      <c r="CX47" s="5"/>
+      <c r="CY47" s="5"/>
+      <c r="CZ47" s="5"/>
+      <c r="DA47" s="5"/>
+      <c r="DB47" s="5"/>
+      <c r="DC47" s="5"/>
+      <c r="DD47" s="5"/>
+      <c r="DE47" s="5"/>
+    </row>
+    <row r="48" spans="1:109" ht="15.75">
       <c r="A48" s="2">
         <v>22</v>
       </c>
       <c r="B48" s="2"/>
       <c r="D48" s="2">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="E48" s="2">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="F48" s="2">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="G48" s="2">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H48" s="2">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I48" s="2">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J48" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="K48" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L48" s="2">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="M48" s="2">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="N48" s="2">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="O48" s="2">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="P48" s="2">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="Q48" s="2">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="R48" s="2">
+        <v>50</v>
+      </c>
+      <c r="S48" s="2">
         <v>55</v>
       </c>
-      <c r="S48" s="2">
-        <v>56</v>
-      </c>
       <c r="T48" s="2">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:20" ht="15.75">
@@ -3324,55 +4452,55 @@
       </c>
       <c r="B49" s="2"/>
       <c r="D49" s="2">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E49" s="2">
+        <v>36</v>
+      </c>
+      <c r="F49" s="2">
+        <v>28</v>
+      </c>
+      <c r="G49" s="2">
+        <v>45</v>
+      </c>
+      <c r="H49" s="2">
+        <v>40</v>
+      </c>
+      <c r="I49" s="2">
+        <v>20</v>
+      </c>
+      <c r="J49" s="2">
+        <v>31</v>
+      </c>
+      <c r="K49" s="2">
+        <v>21</v>
+      </c>
+      <c r="L49" s="2">
+        <v>23</v>
+      </c>
+      <c r="M49" s="2">
+        <v>5</v>
+      </c>
+      <c r="N49" s="2">
+        <v>7</v>
+      </c>
+      <c r="O49" s="2">
+        <v>28</v>
+      </c>
+      <c r="P49" s="2">
+        <v>32</v>
+      </c>
+      <c r="Q49" s="2">
         <v>37</v>
       </c>
-      <c r="F49" s="2">
-        <v>25</v>
-      </c>
-      <c r="G49" s="2">
-        <v>1</v>
-      </c>
-      <c r="H49" s="2">
-        <v>18</v>
-      </c>
-      <c r="I49" s="2">
-        <v>5</v>
-      </c>
-      <c r="J49" s="2">
-        <v>10</v>
-      </c>
-      <c r="K49" s="2">
-        <v>42</v>
-      </c>
-      <c r="L49" s="2">
-        <v>40</v>
-      </c>
-      <c r="M49" s="2">
-        <v>39</v>
-      </c>
-      <c r="N49" s="2">
-        <v>23</v>
-      </c>
-      <c r="O49" s="2">
-        <v>44</v>
-      </c>
-      <c r="P49" s="2">
-        <v>62</v>
-      </c>
-      <c r="Q49" s="2">
-        <v>11</v>
-      </c>
       <c r="R49" s="2">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="S49" s="2">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="T49" s="2">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:20" ht="15.75">
@@ -3380,24 +4508,228 @@
         <v>1</v>
       </c>
       <c r="B50" s="2"/>
+      <c r="D50" s="2">
+        <v>3</v>
+      </c>
+      <c r="E50" s="2">
+        <v>36</v>
+      </c>
+      <c r="F50" s="2">
+        <v>14</v>
+      </c>
+      <c r="G50" s="2">
+        <v>19</v>
+      </c>
+      <c r="H50" s="2">
+        <v>13</v>
+      </c>
+      <c r="I50" s="2">
+        <v>12</v>
+      </c>
+      <c r="J50" s="2">
+        <v>63</v>
+      </c>
+      <c r="K50" s="2">
+        <v>56</v>
+      </c>
+      <c r="L50" s="2">
+        <v>29</v>
+      </c>
+      <c r="M50" s="2">
+        <v>19</v>
+      </c>
+      <c r="N50" s="2">
+        <v>51</v>
+      </c>
+      <c r="O50" s="2">
+        <v>6</v>
+      </c>
+      <c r="P50" s="2">
+        <v>26</v>
+      </c>
+      <c r="Q50" s="2">
+        <v>20</v>
+      </c>
+      <c r="R50" s="2">
+        <v>11</v>
+      </c>
+      <c r="S50" s="2">
+        <v>33</v>
+      </c>
+      <c r="T50" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="51" spans="1:20" ht="15.75">
       <c r="A51" s="2">
         <v>41</v>
       </c>
       <c r="B51" s="2"/>
+      <c r="D51" s="2">
+        <v>19</v>
+      </c>
+      <c r="E51" s="2">
+        <v>19</v>
+      </c>
+      <c r="F51" s="2">
+        <v>33</v>
+      </c>
+      <c r="G51" s="2">
+        <v>26</v>
+      </c>
+      <c r="H51" s="2">
+        <v>56</v>
+      </c>
+      <c r="I51" s="2">
+        <v>40</v>
+      </c>
+      <c r="J51" s="2">
+        <v>26</v>
+      </c>
+      <c r="K51" s="2">
+        <v>36</v>
+      </c>
+      <c r="L51" s="2">
+        <v>9</v>
+      </c>
+      <c r="M51" s="2">
+        <v>23</v>
+      </c>
+      <c r="N51" s="2">
+        <v>41</v>
+      </c>
+      <c r="O51" s="2">
+        <v>1</v>
+      </c>
+      <c r="P51" s="2">
+        <v>14</v>
+      </c>
+      <c r="Q51" s="2">
+        <v>54</v>
+      </c>
+      <c r="R51" s="2">
+        <v>21</v>
+      </c>
+      <c r="S51" s="2">
+        <v>33</v>
+      </c>
+      <c r="T51" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="52" spans="1:20" ht="15.75">
       <c r="A52" s="2">
         <v>42</v>
       </c>
       <c r="B52" s="2"/>
+      <c r="D52" s="2">
+        <v>11</v>
+      </c>
+      <c r="E52" s="2">
+        <v>51</v>
+      </c>
+      <c r="F52" s="2">
+        <v>10</v>
+      </c>
+      <c r="G52" s="2">
+        <v>17</v>
+      </c>
+      <c r="H52" s="2">
+        <v>26</v>
+      </c>
+      <c r="I52" s="2">
+        <v>29</v>
+      </c>
+      <c r="J52" s="2">
+        <v>43</v>
+      </c>
+      <c r="K52" s="2">
+        <v>48</v>
+      </c>
+      <c r="L52" s="2">
+        <v>20</v>
+      </c>
+      <c r="M52" s="2">
+        <v>46</v>
+      </c>
+      <c r="N52" s="2">
+        <v>27</v>
+      </c>
+      <c r="O52" s="2">
+        <v>23</v>
+      </c>
+      <c r="P52" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q52" s="2">
+        <v>30</v>
+      </c>
+      <c r="R52" s="2">
+        <v>55</v>
+      </c>
+      <c r="S52" s="2">
+        <v>56</v>
+      </c>
+      <c r="T52" s="2">
+        <v>36</v>
+      </c>
     </row>
     <row r="53" spans="1:20" ht="15.75">
       <c r="A53" s="2">
         <v>5</v>
       </c>
       <c r="B53" s="2"/>
+      <c r="D53" s="2">
+        <v>4</v>
+      </c>
+      <c r="E53" s="2">
+        <v>37</v>
+      </c>
+      <c r="F53" s="2">
+        <v>25</v>
+      </c>
+      <c r="G53" s="2">
+        <v>1</v>
+      </c>
+      <c r="H53" s="2">
+        <v>18</v>
+      </c>
+      <c r="I53" s="2">
+        <v>5</v>
+      </c>
+      <c r="J53" s="2">
+        <v>10</v>
+      </c>
+      <c r="K53" s="2">
+        <v>42</v>
+      </c>
+      <c r="L53" s="2">
+        <v>40</v>
+      </c>
+      <c r="M53" s="2">
+        <v>39</v>
+      </c>
+      <c r="N53" s="2">
+        <v>23</v>
+      </c>
+      <c r="O53" s="2">
+        <v>44</v>
+      </c>
+      <c r="P53" s="2">
+        <v>62</v>
+      </c>
+      <c r="Q53" s="2">
+        <v>11</v>
+      </c>
+      <c r="R53" s="2">
+        <v>31</v>
+      </c>
+      <c r="S53" s="2">
+        <v>58</v>
+      </c>
+      <c r="T53" s="2">
+        <v>19</v>
+      </c>
     </row>
     <row r="54" spans="1:20" ht="15.75">
       <c r="A54" s="2">
@@ -5197,6 +6529,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5204,11 +6537,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BN408"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD43" sqref="AD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:66">
       <c r="A1">
@@ -7767,64 +9103,229 @@
       <c r="BM20" s="4"/>
       <c r="BN20" s="4"/>
     </row>
-    <row r="21" spans="1:66" ht="15.75">
+    <row r="21" spans="1:66">
       <c r="A21">
         <v>17</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="2"/>
-      <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
-      <c r="Z21" s="2"/>
-      <c r="AA21" s="4"/>
-      <c r="AB21" s="2"/>
-      <c r="AC21" s="4"/>
-      <c r="AD21" s="4"/>
-      <c r="AE21" s="4"/>
-      <c r="AF21" s="4"/>
-      <c r="AG21" s="4"/>
-      <c r="AH21" s="4"/>
-      <c r="AI21" s="4"/>
-      <c r="AJ21" s="4"/>
-      <c r="AK21" s="4"/>
-      <c r="AL21" s="4"/>
-      <c r="AM21" s="4"/>
-      <c r="AN21" s="4"/>
-      <c r="AO21" s="4"/>
-      <c r="AP21" s="4"/>
-      <c r="AQ21" s="4"/>
-      <c r="AR21" s="4"/>
-      <c r="AS21" s="4"/>
-      <c r="AT21" s="4"/>
-      <c r="AU21" s="4"/>
-      <c r="AV21" s="4"/>
-      <c r="AW21" s="4"/>
-      <c r="AX21" s="4"/>
-      <c r="AY21" s="4"/>
-      <c r="AZ21" s="4"/>
-      <c r="BA21" s="4"/>
-      <c r="BB21" s="4"/>
-      <c r="BC21" s="4"/>
-      <c r="BD21" s="4"/>
-      <c r="BE21" s="4"/>
+      <c r="C21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="4">
+        <f>COUNT(D4:D20)</f>
+        <v>15</v>
+      </c>
+      <c r="E21" s="4">
+        <f t="shared" ref="E21:BE21" si="0">COUNT(E4:E20)</f>
+        <v>11</v>
+      </c>
+      <c r="F21" s="4">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="G21" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H21" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I21" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="L21" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="M21" s="4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="N21" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="O21" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="P21" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="Q21" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="R21" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="S21" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="T21" s="4">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="U21" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="V21" s="4">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="W21" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="X21" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="Y21" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="Z21" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AA21" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AB21" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AC21" s="4">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="AD21" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="AE21" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AF21" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AG21" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="AH21" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="AI21" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="AJ21" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="AK21" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AL21" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AM21" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AN21" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="AO21" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="AP21" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AQ21" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AR21" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="AS21" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="AT21" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AU21" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AV21" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="AW21" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="AX21" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AY21" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="AZ21" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="BA21" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="BB21" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="BC21" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="BD21" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="BE21" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="BF21" s="4"/>
       <c r="BG21" s="4"/>
       <c r="BH21" s="4"/>
@@ -11263,6 +12764,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -11271,7 +12773,7 @@
   <dimension ref="A1:AC152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+      <selection activeCell="AB15" sqref="AA15:AB15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12913,4 +14415,235 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="D6:E33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="6" spans="4:5">
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="4:5" ht="15.75" thickBot="1"/>
+    <row r="8" spans="4:5" ht="15.75" thickBot="1">
+      <c r="D8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="8">
+        <v>8.1670000000000006E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="4:5" ht="15.75" thickBot="1">
+      <c r="D9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="8">
+        <v>1.4919999999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="4:5" ht="15.75" thickBot="1">
+      <c r="D10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="8">
+        <v>2.7820000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="4:5" ht="15.75" thickBot="1">
+      <c r="D11" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="8">
+        <v>4.2529999999999998E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="4:5" ht="15.75" thickBot="1">
+      <c r="D12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0.12701999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="4:5" ht="15.75" thickBot="1">
+      <c r="D13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="8">
+        <v>2.2280000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="4:5" ht="15.75" thickBot="1">
+      <c r="D14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="8">
+        <v>2.0150000000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="4:5" ht="15.75" thickBot="1">
+      <c r="D15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="8">
+        <v>6.0940000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="4:5" ht="15.75" thickBot="1">
+      <c r="D16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="8">
+        <v>6.966E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" ht="15.75" thickBot="1">
+      <c r="D17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1.5299999999999999E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" ht="15.75" thickBot="1">
+      <c r="D18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="8">
+        <v>7.7200000000000003E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" ht="15.75" thickBot="1">
+      <c r="D19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="8">
+        <v>4.0250000000000001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" ht="15.75" thickBot="1">
+      <c r="D20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="8">
+        <v>2.4060000000000002E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" ht="15.75" thickBot="1">
+      <c r="D21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="8">
+        <v>6.7489999999999994E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5" ht="15.75" thickBot="1">
+      <c r="D22" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="8">
+        <v>7.5069999999999998E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5" ht="15.75" thickBot="1">
+      <c r="D23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="8">
+        <v>1.9290000000000002E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5" ht="15.75" thickBot="1">
+      <c r="D24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="8">
+        <v>9.5E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="4:5" ht="15.75" thickBot="1">
+      <c r="D25" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="8">
+        <v>5.987E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="4:5" ht="15.75" thickBot="1">
+      <c r="D26" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="8">
+        <v>6.3270000000000007E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="4:5" ht="15.75" thickBot="1">
+      <c r="D27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="8">
+        <v>9.0560000000000002E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="4:5" ht="15.75" thickBot="1">
+      <c r="D28" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="8">
+        <v>2.758E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="4:5" ht="15.75" thickBot="1">
+      <c r="D29" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="8">
+        <v>9.7800000000000005E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="4:5" ht="15.75" thickBot="1">
+      <c r="D30" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="8">
+        <v>2.3599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="4:5" ht="15.75" thickBot="1">
+      <c r="D31" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="8">
+        <v>1.5E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="4:5" ht="15.75" thickBot="1">
+      <c r="D32" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="8">
+        <v>1.9740000000000001E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" ht="15.75" thickBot="1">
+      <c r="D33" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="8">
+        <v>7.3999999999999999E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Documentation/Design/Cipher Models.xlsx
+++ b/Documentation/Design/Cipher Models.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="29">
   <si>
     <t>Character Frequency</t>
   </si>
@@ -110,7 +110,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,8 +145,14 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF494949"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -159,8 +165,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -192,11 +204,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFE0E0E0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -216,6 +237,15 @@
     <xf numFmtId="10" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,24 +502,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="67988096"/>
-        <c:axId val="68005248"/>
+        <c:axId val="88964096"/>
+        <c:axId val="94855168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="67988096"/>
+        <c:axId val="88964096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68005248"/>
+        <c:crossAx val="94855168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68005248"/>
+        <c:axId val="94855168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="24"/>
@@ -498,7 +528,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67988096"/>
+        <c:crossAx val="88964096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
@@ -508,7 +538,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -726,17 +756,17 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="82427264"/>
-        <c:axId val="82441344"/>
+        <c:axId val="97390592"/>
+        <c:axId val="97392128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="82427264"/>
+        <c:axId val="97390592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82441344"/>
+        <c:crossAx val="97392128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -744,7 +774,7 @@
         <c:tickLblSkip val="2"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82441344"/>
+        <c:axId val="97392128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -752,7 +782,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82427264"/>
+        <c:crossAx val="97390592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -761,7 +791,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -772,7 +802,14 @@
   <c:lang val="en-GB"/>
   <c:chart>
     <c:title>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13619444444444448"/>
+          <c:y val="2.6755852842809371E-2"/>
+        </c:manualLayout>
+      </c:layout>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -967,24 +1004,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="74192768"/>
-        <c:axId val="74194304"/>
+        <c:axId val="97645696"/>
+        <c:axId val="97647232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="74192768"/>
+        <c:axId val="97645696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74194304"/>
+        <c:crossAx val="97647232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74194304"/>
+        <c:axId val="97647232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -992,7 +1029,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74192768"/>
+        <c:crossAx val="97645696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1001,7 +1038,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1081,16 +1118,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14419,226 +14456,1116 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="D6:E33"/>
+  <dimension ref="D6:V34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="6" spans="4:5">
+    <row r="6" spans="4:22" ht="16.5" thickBot="1">
       <c r="E6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="4:5" ht="15.75" thickBot="1"/>
-    <row r="8" spans="4:5" ht="15.75" thickBot="1">
+      <c r="Q6" s="9"/>
+      <c r="R6" s="10"/>
+      <c r="U6" t="s">
+        <v>6</v>
+      </c>
+      <c r="V6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="4:22" ht="16.5" thickBot="1">
+      <c r="K7">
+        <f>SUM(54/100)</f>
+        <v>0.54</v>
+      </c>
+      <c r="N7">
+        <v>0.63</v>
+      </c>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="10"/>
+      <c r="U7" t="s">
+        <v>21</v>
+      </c>
+      <c r="V7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="4:22" ht="16.5" thickBot="1">
       <c r="D8" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="8">
         <v>8.1670000000000006E-2</v>
       </c>
-    </row>
-    <row r="9" spans="4:5" ht="15.75" thickBot="1">
+      <c r="F8" s="13">
+        <f>ROUND(E8,2)</f>
+        <v>0.08</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>8</v>
+      </c>
+      <c r="K8">
+        <f>SUM($K$7*H8)</f>
+        <v>4.32</v>
+      </c>
+      <c r="L8">
+        <f>ROUND(K8,0)</f>
+        <v>4</v>
+      </c>
+      <c r="N8">
+        <f>SUM($N$7*H8)</f>
+        <v>5.04</v>
+      </c>
+      <c r="O8">
+        <f>ROUND(N8,0)</f>
+        <v>5</v>
+      </c>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="10"/>
+      <c r="U8" t="s">
+        <v>2</v>
+      </c>
+      <c r="V8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="4:22" ht="16.5" thickBot="1">
       <c r="D9" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="8">
         <v>1.4919999999999999E-2</v>
       </c>
-    </row>
-    <row r="10" spans="4:5" ht="15.75" thickBot="1">
+      <c r="F9" s="12">
+        <f>ROUND(E9,2)</f>
+        <v>0.01</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <f>SUM($K$7*H9)</f>
+        <v>0.54</v>
+      </c>
+      <c r="L9">
+        <f t="shared" ref="L9:L33" si="0">ROUND(K9,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <f t="shared" ref="N9:N33" si="1">SUM($N$7*H9)</f>
+        <v>0.63</v>
+      </c>
+      <c r="O9">
+        <f t="shared" ref="O9:O33" si="2">ROUND(N9,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="10"/>
+      <c r="U9" t="s">
+        <v>10</v>
+      </c>
+      <c r="V9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="4:22" ht="16.5" thickBot="1">
       <c r="D10" s="7" t="s">
         <v>4</v>
       </c>
       <c r="E10" s="8">
         <v>2.7820000000000001E-2</v>
       </c>
-    </row>
-    <row r="11" spans="4:5" ht="15.75" thickBot="1">
+      <c r="F10" s="12">
+        <f t="shared" ref="F10:F33" si="3">ROUND(E10,2)</f>
+        <v>0.03</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="K10">
+        <f t="shared" ref="K10:K33" si="4">SUM($K$7*H10)</f>
+        <v>1.62</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="1"/>
+        <v>1.8900000000000001</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="10"/>
+      <c r="U10" t="s">
+        <v>15</v>
+      </c>
+      <c r="V10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="4:22" ht="16.5" thickBot="1">
       <c r="D11" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E11" s="8">
         <v>4.2529999999999998E-2</v>
       </c>
-    </row>
-    <row r="12" spans="4:5" ht="15.75" thickBot="1">
+      <c r="F11" s="12">
+        <f t="shared" si="3"/>
+        <v>0.04</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="4"/>
+        <v>2.16</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>2.52</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="10"/>
+      <c r="U11" t="s">
+        <v>16</v>
+      </c>
+      <c r="V11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="4:22" ht="16.5" thickBot="1">
       <c r="D12" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E12" s="8">
         <v>0.12701999999999999</v>
       </c>
-    </row>
-    <row r="13" spans="4:5" ht="15.75" thickBot="1">
+      <c r="F12" s="12">
+        <f t="shared" si="3"/>
+        <v>0.13</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12">
+        <v>13</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="4"/>
+        <v>7.0200000000000005</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="1"/>
+        <v>8.19</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="10"/>
+      <c r="U12" t="s">
+        <v>20</v>
+      </c>
+      <c r="V12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="4:22" ht="16.5" thickBot="1">
       <c r="D13" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E13" s="8">
         <v>2.2280000000000001E-2</v>
       </c>
-    </row>
-    <row r="14" spans="4:5" ht="15.75" thickBot="1">
+      <c r="F13" s="12">
+        <f t="shared" si="3"/>
+        <v>0.02</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="4"/>
+        <v>1.08</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="1"/>
+        <v>1.26</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="10"/>
+      <c r="U13" t="s">
+        <v>9</v>
+      </c>
+      <c r="V13">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="14" spans="4:22" ht="16.5" thickBot="1">
       <c r="D14" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="8">
         <v>2.0150000000000001E-2</v>
       </c>
-    </row>
-    <row r="15" spans="4:5" ht="15.75" thickBot="1">
+      <c r="F14" s="12">
+        <f t="shared" si="3"/>
+        <v>0.02</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="4"/>
+        <v>1.08</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="1"/>
+        <v>1.26</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="10"/>
+      <c r="U14" t="s">
+        <v>19</v>
+      </c>
+      <c r="V14">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="15" spans="4:22" ht="16.5" thickBot="1">
       <c r="D15" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E15" s="8">
         <v>6.0940000000000001E-2</v>
       </c>
-    </row>
-    <row r="16" spans="4:5" ht="15.75" thickBot="1">
+      <c r="F15" s="12">
+        <f t="shared" si="3"/>
+        <v>0.06</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15">
+        <v>6</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="4"/>
+        <v>3.24</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="1"/>
+        <v>3.7800000000000002</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="10"/>
+      <c r="U15" t="s">
+        <v>5</v>
+      </c>
+      <c r="V15">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="4:22" ht="16.5" thickBot="1">
       <c r="D16" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="8">
         <v>6.966E-2</v>
       </c>
-    </row>
-    <row r="17" spans="4:5" ht="15.75" thickBot="1">
+      <c r="F16" s="12">
+        <f t="shared" si="3"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16">
+        <v>7</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="4"/>
+        <v>3.7800000000000002</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="1"/>
+        <v>4.41</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="10"/>
+      <c r="U16" t="s">
+        <v>13</v>
+      </c>
+      <c r="V16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="4:22" ht="16.5" thickBot="1">
       <c r="D17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="8">
         <v>1.5299999999999999E-3</v>
       </c>
-    </row>
-    <row r="18" spans="4:5" ht="15.75" thickBot="1">
+      <c r="F17" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="10"/>
+      <c r="U17" t="s">
+        <v>22</v>
+      </c>
+      <c r="V17">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="18" spans="4:22" ht="16.5" thickBot="1">
       <c r="D18" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="8">
         <v>7.7200000000000003E-3</v>
       </c>
-    </row>
-    <row r="19" spans="4:5" ht="15.75" thickBot="1">
+      <c r="F18" s="12">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="4"/>
+        <v>0.54</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="1"/>
+        <v>0.63</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="10"/>
+      <c r="U18" t="s">
+        <v>4</v>
+      </c>
+      <c r="V18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="4:22" ht="16.5" thickBot="1">
       <c r="D19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="8">
         <v>4.0250000000000001E-2</v>
       </c>
-    </row>
-    <row r="20" spans="4:5" ht="15.75" thickBot="1">
+      <c r="F19" s="12">
+        <f t="shared" si="3"/>
+        <v>0.04</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19">
+        <v>4</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="4"/>
+        <v>2.16</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="1"/>
+        <v>2.52</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="10"/>
+      <c r="U19" t="s">
+        <v>14</v>
+      </c>
+      <c r="V19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="4:22" ht="16.5" thickBot="1">
       <c r="D20" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E20" s="8">
         <v>2.4060000000000002E-2</v>
       </c>
-    </row>
-    <row r="21" spans="4:5" ht="15.75" thickBot="1">
+      <c r="F20" s="12">
+        <f t="shared" si="3"/>
+        <v>0.02</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="4"/>
+        <v>1.08</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="1"/>
+        <v>1.26</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="U20" t="s">
+        <v>7</v>
+      </c>
+      <c r="V20">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="21" spans="4:22" ht="16.5" thickBot="1">
       <c r="D21" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E21" s="8">
         <v>6.7489999999999994E-2</v>
       </c>
-    </row>
-    <row r="22" spans="4:5" ht="15.75" thickBot="1">
+      <c r="F21" s="12">
+        <f t="shared" si="3"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21">
+        <v>7</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="4"/>
+        <v>3.7800000000000002</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="1"/>
+        <v>4.41</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="U21" t="s">
+        <v>24</v>
+      </c>
+      <c r="V21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="4:22" ht="16.5" thickBot="1">
       <c r="D22" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E22" s="8">
         <v>7.5069999999999998E-2</v>
       </c>
-    </row>
-    <row r="23" spans="4:5" ht="15.75" thickBot="1">
+      <c r="F22" s="12">
+        <f t="shared" si="3"/>
+        <v>0.08</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22">
+        <v>8</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="4"/>
+        <v>4.32</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="1"/>
+        <v>5.04</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="U22" t="s">
+        <v>26</v>
+      </c>
+      <c r="V22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="4:22" ht="16.5" thickBot="1">
       <c r="D23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E23" s="8">
         <v>1.9290000000000002E-2</v>
       </c>
-    </row>
-    <row r="24" spans="4:5" ht="15.75" thickBot="1">
+      <c r="F23" s="12">
+        <f t="shared" si="3"/>
+        <v>0.02</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="4"/>
+        <v>1.08</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="1"/>
+        <v>1.26</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="U23" t="s">
+        <v>8</v>
+      </c>
+      <c r="V23">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="24" spans="4:22" ht="15.75" thickBot="1">
       <c r="D24" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E24" s="8">
         <v>9.5E-4</v>
       </c>
-    </row>
-    <row r="25" spans="4:5" ht="15.75" thickBot="1">
+      <c r="F24" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U24" t="s">
+        <v>17</v>
+      </c>
+      <c r="V24">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="25" spans="4:22" ht="15.75" thickBot="1">
       <c r="D25" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E25" s="8">
         <v>5.987E-2</v>
       </c>
-    </row>
-    <row r="26" spans="4:5" ht="15.75" thickBot="1">
+      <c r="F25" s="12">
+        <f t="shared" si="3"/>
+        <v>0.06</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25">
+        <v>6</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="4"/>
+        <v>3.24</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="1"/>
+        <v>3.7800000000000002</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="U25" t="s">
+        <v>3</v>
+      </c>
+      <c r="V25">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="26" spans="4:22" ht="15.75" thickBot="1">
       <c r="D26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E26" s="8">
         <v>6.3270000000000007E-2</v>
       </c>
-    </row>
-    <row r="27" spans="4:5" ht="15.75" thickBot="1">
+      <c r="F26" s="12">
+        <f t="shared" si="3"/>
+        <v>0.06</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26">
+        <v>6</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="4"/>
+        <v>3.24</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="1"/>
+        <v>3.7800000000000002</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="U26" t="s">
+        <v>23</v>
+      </c>
+      <c r="V26">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="27" spans="4:22" ht="15.75" thickBot="1">
       <c r="D27" s="7" t="s">
         <v>21</v>
       </c>
       <c r="E27" s="8">
         <v>9.0560000000000002E-2</v>
       </c>
-    </row>
-    <row r="28" spans="4:5" ht="15.75" thickBot="1">
+      <c r="F27" s="12">
+        <f t="shared" si="3"/>
+        <v>0.09</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27">
+        <v>9</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="4"/>
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="1"/>
+        <v>5.67</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="U27" t="s">
+        <v>12</v>
+      </c>
+      <c r="V27">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="28" spans="4:22" ht="15.75" thickBot="1">
       <c r="D28" s="7" t="s">
         <v>22</v>
       </c>
       <c r="E28" s="8">
         <v>2.758E-2</v>
       </c>
-    </row>
-    <row r="29" spans="4:5" ht="15.75" thickBot="1">
+      <c r="F28" s="12">
+        <f t="shared" si="3"/>
+        <v>0.03</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28">
+        <v>3</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="4"/>
+        <v>1.62</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="1"/>
+        <v>1.8900000000000001</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="U28" t="s">
+        <v>18</v>
+      </c>
+      <c r="V28">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="4:22" ht="15.75" thickBot="1">
       <c r="D29" s="7" t="s">
         <v>23</v>
       </c>
       <c r="E29" s="8">
         <v>9.7800000000000005E-3</v>
       </c>
-    </row>
-    <row r="30" spans="4:5" ht="15.75" thickBot="1">
+      <c r="F29" s="12">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="4"/>
+        <v>0.54</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="1"/>
+        <v>0.63</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U29" t="s">
+        <v>11</v>
+      </c>
+      <c r="V29">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="30" spans="4:22" ht="15.75" thickBot="1">
       <c r="D30" s="7" t="s">
         <v>24</v>
       </c>
       <c r="E30" s="8">
         <v>2.3599999999999999E-2</v>
       </c>
-    </row>
-    <row r="31" spans="4:5" ht="15.75" thickBot="1">
+      <c r="F30" s="12">
+        <f t="shared" si="3"/>
+        <v>0.02</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="4"/>
+        <v>1.08</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="1"/>
+        <v>1.26</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U30" t="s">
+        <v>25</v>
+      </c>
+      <c r="V30">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="31" spans="4:22" ht="15.75" thickBot="1">
       <c r="D31" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E31" s="8">
         <v>1.5E-3</v>
       </c>
-    </row>
-    <row r="32" spans="4:5" ht="15.75" thickBot="1">
+      <c r="F31" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U31" t="s">
+        <v>27</v>
+      </c>
+      <c r="V31">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="32" spans="4:22" ht="15.75" thickBot="1">
       <c r="D32" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E32" s="8">
         <v>1.9740000000000001E-2</v>
       </c>
-    </row>
-    <row r="33" spans="4:5" ht="15.75" thickBot="1">
+      <c r="F32" s="12">
+        <f t="shared" si="3"/>
+        <v>0.02</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="4"/>
+        <v>1.08</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="1"/>
+        <v>1.26</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="4:15" ht="15.75" thickBot="1">
       <c r="D33" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E33" s="8">
         <v>7.3999999999999999E-4</v>
+      </c>
+      <c r="F33" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="4:15">
+      <c r="F34" s="11">
+        <f>SUM(F8:F33)</f>
+        <v>0.9900000000000001</v>
+      </c>
+      <c r="L34">
+        <f>SUM(L8:L33)</f>
+        <v>54</v>
+      </c>
+      <c r="O34">
+        <f>SUM(O8:O33)</f>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Design/Cipher Models.xlsx
+++ b/Documentation/Design/Cipher Models.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="29">
   <si>
     <t>Character Frequency</t>
   </si>
@@ -110,7 +110,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,14 +145,8 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF494949"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -165,14 +159,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -204,20 +192,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFE0E0E0"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -236,12 +215,6 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -283,6 +256,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -502,24 +476,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="88964096"/>
-        <c:axId val="94855168"/>
+        <c:axId val="91164032"/>
+        <c:axId val="100734464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="88964096"/>
+        <c:axId val="91164032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94855168"/>
+        <c:crossAx val="100734464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94855168"/>
+        <c:axId val="100734464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="24"/>
@@ -528,7 +502,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88964096"/>
+        <c:crossAx val="91164032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
@@ -538,7 +512,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -756,17 +730,17 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="97390592"/>
-        <c:axId val="97392128"/>
+        <c:axId val="102053376"/>
+        <c:axId val="102054912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97390592"/>
+        <c:axId val="102053376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97392128"/>
+        <c:crossAx val="102054912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -774,7 +748,7 @@
         <c:tickLblSkip val="2"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97392128"/>
+        <c:axId val="102054912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -782,7 +756,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97390592"/>
+        <c:crossAx val="102053376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -791,7 +765,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -806,8 +780,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.13619444444444448"/>
-          <c:y val="2.6755852842809371E-2"/>
+          <c:x val="0.13619444444444453"/>
+          <c:y val="2.6755852842809385E-2"/>
         </c:manualLayout>
       </c:layout>
     </c:title>
@@ -1004,24 +978,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="97645696"/>
-        <c:axId val="97647232"/>
+        <c:axId val="98175616"/>
+        <c:axId val="98181504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97645696"/>
+        <c:axId val="98175616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97647232"/>
+        <c:crossAx val="98181504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97647232"/>
+        <c:axId val="98181504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1029,7 +1003,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97645696"/>
+        <c:crossAx val="98175616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1038,7 +1012,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1118,16 +1092,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1436,8 +1410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:DE343"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1661,8 +1635,8 @@
       </c>
       <c r="B4" s="2"/>
       <c r="D4" s="4">
-        <f>SMALL(IF(A1:A340=D3,ROW(A1:A340)),ROW(1:1))</f>
-        <v>0</v>
+        <f t="array" ref="D4">SMALL(IF(A1:A340=D3,ROW(A1:A340)),ROW(1:1))</f>
+        <v>1</v>
       </c>
       <c r="E4" s="4">
         <f t="array" ref="E4">SMALL(IF($A$1:$A$340=$E3,ROW($A$1:$A$340)),ROW(1:1))</f>
@@ -14456,28 +14430,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="D6:V34"/>
+  <dimension ref="D6:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5:T27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="6" spans="4:22" ht="16.5" thickBot="1">
+    <row r="6" spans="4:15">
       <c r="E6" t="s">
         <v>28</v>
       </c>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="10"/>
-      <c r="U6" t="s">
-        <v>6</v>
-      </c>
-      <c r="V6">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="4:22" ht="16.5" thickBot="1">
+    </row>
+    <row r="7" spans="4:15" ht="15.75" thickBot="1">
       <c r="K7">
         <f>SUM(54/100)</f>
         <v>0.54</v>
@@ -14485,23 +14451,15 @@
       <c r="N7">
         <v>0.63</v>
       </c>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="10"/>
-      <c r="U7" t="s">
-        <v>21</v>
-      </c>
-      <c r="V7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="4:22" ht="16.5" thickBot="1">
+    </row>
+    <row r="8" spans="4:15" ht="15.75" thickBot="1">
       <c r="D8" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="8">
         <v>8.1670000000000006E-2</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="11">
         <f>ROUND(E8,2)</f>
         <v>0.08</v>
       </c>
@@ -14527,23 +14485,15 @@
         <f>ROUND(N8,0)</f>
         <v>5</v>
       </c>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="10"/>
-      <c r="U8" t="s">
-        <v>2</v>
-      </c>
-      <c r="V8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="4:22" ht="16.5" thickBot="1">
+    </row>
+    <row r="9" spans="4:15" ht="15.75" thickBot="1">
       <c r="D9" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="8">
         <v>1.4919999999999999E-2</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="10">
         <f>ROUND(E9,2)</f>
         <v>0.01</v>
       </c>
@@ -14569,23 +14519,15 @@
         <f t="shared" ref="O9:O33" si="2">ROUND(N9,0)</f>
         <v>1</v>
       </c>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="10"/>
-      <c r="U9" t="s">
-        <v>10</v>
-      </c>
-      <c r="V9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="4:22" ht="16.5" thickBot="1">
+    </row>
+    <row r="10" spans="4:15" ht="15.75" thickBot="1">
       <c r="D10" s="7" t="s">
         <v>4</v>
       </c>
       <c r="E10" s="8">
         <v>2.7820000000000001E-2</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="10">
         <f t="shared" ref="F10:F33" si="3">ROUND(E10,2)</f>
         <v>0.03</v>
       </c>
@@ -14611,23 +14553,15 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="10"/>
-      <c r="U10" t="s">
-        <v>15</v>
-      </c>
-      <c r="V10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="4:22" ht="16.5" thickBot="1">
+    </row>
+    <row r="11" spans="4:15" ht="15.75" thickBot="1">
       <c r="D11" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E11" s="8">
         <v>4.2529999999999998E-2</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="10">
         <f t="shared" si="3"/>
         <v>0.04</v>
       </c>
@@ -14653,23 +14587,15 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="10"/>
-      <c r="U11" t="s">
-        <v>16</v>
-      </c>
-      <c r="V11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="4:22" ht="16.5" thickBot="1">
+    </row>
+    <row r="12" spans="4:15" ht="15.75" thickBot="1">
       <c r="D12" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E12" s="8">
         <v>0.12701999999999999</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="10">
         <f t="shared" si="3"/>
         <v>0.13</v>
       </c>
@@ -14695,23 +14621,15 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="10"/>
-      <c r="U12" t="s">
-        <v>20</v>
-      </c>
-      <c r="V12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="4:22" ht="16.5" thickBot="1">
+    </row>
+    <row r="13" spans="4:15" ht="15.75" thickBot="1">
       <c r="D13" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E13" s="8">
         <v>2.2280000000000001E-2</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="10">
         <f t="shared" si="3"/>
         <v>0.02</v>
       </c>
@@ -14737,23 +14655,15 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="10"/>
-      <c r="U13" t="s">
-        <v>9</v>
-      </c>
-      <c r="V13">
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="14" spans="4:22" ht="16.5" thickBot="1">
+    </row>
+    <row r="14" spans="4:15" ht="15.75" thickBot="1">
       <c r="D14" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="8">
         <v>2.0150000000000001E-2</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="10">
         <f t="shared" si="3"/>
         <v>0.02</v>
       </c>
@@ -14779,23 +14689,15 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="10"/>
-      <c r="U14" t="s">
-        <v>19</v>
-      </c>
-      <c r="V14">
-        <v>6.2</v>
-      </c>
-    </row>
-    <row r="15" spans="4:22" ht="16.5" thickBot="1">
+    </row>
+    <row r="15" spans="4:15" ht="15.75" thickBot="1">
       <c r="D15" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E15" s="8">
         <v>6.0940000000000001E-2</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="10">
         <f t="shared" si="3"/>
         <v>0.06</v>
       </c>
@@ -14821,23 +14723,15 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="10"/>
-      <c r="U15" t="s">
-        <v>5</v>
-      </c>
-      <c r="V15">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="16" spans="4:22" ht="16.5" thickBot="1">
+    </row>
+    <row r="16" spans="4:15" ht="15.75" thickBot="1">
       <c r="D16" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="8">
         <v>6.966E-2</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="10">
         <f t="shared" si="3"/>
         <v>7.0000000000000007E-2</v>
       </c>
@@ -14863,23 +14757,15 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="10"/>
-      <c r="U16" t="s">
-        <v>13</v>
-      </c>
-      <c r="V16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="4:22" ht="16.5" thickBot="1">
+    </row>
+    <row r="17" spans="4:15" ht="15.75" thickBot="1">
       <c r="D17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="8">
         <v>1.5299999999999999E-3</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -14905,23 +14791,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="10"/>
-      <c r="U17" t="s">
-        <v>22</v>
-      </c>
-      <c r="V17">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="18" spans="4:22" ht="16.5" thickBot="1">
+    </row>
+    <row r="18" spans="4:15" ht="15.75" thickBot="1">
       <c r="D18" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="8">
         <v>7.7200000000000003E-3</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="10">
         <f t="shared" si="3"/>
         <v>0.01</v>
       </c>
@@ -14947,23 +14825,15 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="10"/>
-      <c r="U18" t="s">
-        <v>4</v>
-      </c>
-      <c r="V18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="4:22" ht="16.5" thickBot="1">
+    </row>
+    <row r="19" spans="4:15" ht="15.75" thickBot="1">
       <c r="D19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="8">
         <v>4.0250000000000001E-2</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="10">
         <f t="shared" si="3"/>
         <v>0.04</v>
       </c>
@@ -14989,23 +14859,15 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="10"/>
-      <c r="U19" t="s">
-        <v>14</v>
-      </c>
-      <c r="V19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="4:22" ht="16.5" thickBot="1">
+    </row>
+    <row r="20" spans="4:15" ht="15.75" thickBot="1">
       <c r="D20" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E20" s="8">
         <v>2.4060000000000002E-2</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="10">
         <f t="shared" si="3"/>
         <v>0.02</v>
       </c>
@@ -15031,23 +14893,15 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="U20" t="s">
-        <v>7</v>
-      </c>
-      <c r="V20">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="21" spans="4:22" ht="16.5" thickBot="1">
+    </row>
+    <row r="21" spans="4:15" ht="15.75" thickBot="1">
       <c r="D21" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E21" s="8">
         <v>6.7489999999999994E-2</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="10">
         <f t="shared" si="3"/>
         <v>7.0000000000000007E-2</v>
       </c>
@@ -15073,23 +14927,15 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="U21" t="s">
-        <v>24</v>
-      </c>
-      <c r="V21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="4:22" ht="16.5" thickBot="1">
+    </row>
+    <row r="22" spans="4:15" ht="15.75" thickBot="1">
       <c r="D22" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E22" s="8">
         <v>7.5069999999999998E-2</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="10">
         <f t="shared" si="3"/>
         <v>0.08</v>
       </c>
@@ -15115,23 +14961,15 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="U22" t="s">
-        <v>26</v>
-      </c>
-      <c r="V22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="4:22" ht="16.5" thickBot="1">
+    </row>
+    <row r="23" spans="4:15" ht="15.75" thickBot="1">
       <c r="D23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E23" s="8">
         <v>1.9290000000000002E-2</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="10">
         <f t="shared" si="3"/>
         <v>0.02</v>
       </c>
@@ -15157,23 +14995,15 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="U23" t="s">
-        <v>8</v>
-      </c>
-      <c r="V23">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="24" spans="4:22" ht="15.75" thickBot="1">
+    </row>
+    <row r="24" spans="4:15" ht="15.75" thickBot="1">
       <c r="D24" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E24" s="8">
         <v>9.5E-4</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -15199,21 +15029,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U24" t="s">
-        <v>17</v>
-      </c>
-      <c r="V24">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="25" spans="4:22" ht="15.75" thickBot="1">
+    </row>
+    <row r="25" spans="4:15" ht="15.75" thickBot="1">
       <c r="D25" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E25" s="8">
         <v>5.987E-2</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="10">
         <f t="shared" si="3"/>
         <v>0.06</v>
       </c>
@@ -15239,21 +15063,15 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="U25" t="s">
-        <v>3</v>
-      </c>
-      <c r="V25">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="26" spans="4:22" ht="15.75" thickBot="1">
+    </row>
+    <row r="26" spans="4:15" ht="15.75" thickBot="1">
       <c r="D26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E26" s="8">
         <v>6.3270000000000007E-2</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F26" s="10">
         <f t="shared" si="3"/>
         <v>0.06</v>
       </c>
@@ -15279,21 +15097,15 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="U26" t="s">
-        <v>23</v>
-      </c>
-      <c r="V26">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="27" spans="4:22" ht="15.75" thickBot="1">
+    </row>
+    <row r="27" spans="4:15" ht="15.75" thickBot="1">
       <c r="D27" s="7" t="s">
         <v>21</v>
       </c>
       <c r="E27" s="8">
         <v>9.0560000000000002E-2</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F27" s="10">
         <f t="shared" si="3"/>
         <v>0.09</v>
       </c>
@@ -15319,21 +15131,15 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="U27" t="s">
-        <v>12</v>
-      </c>
-      <c r="V27">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="28" spans="4:22" ht="15.75" thickBot="1">
+    </row>
+    <row r="28" spans="4:15" ht="15.75" thickBot="1">
       <c r="D28" s="7" t="s">
         <v>22</v>
       </c>
       <c r="E28" s="8">
         <v>2.758E-2</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F28" s="10">
         <f t="shared" si="3"/>
         <v>0.03</v>
       </c>
@@ -15359,21 +15165,15 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="U28" t="s">
-        <v>18</v>
-      </c>
-      <c r="V28">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="29" spans="4:22" ht="15.75" thickBot="1">
+    </row>
+    <row r="29" spans="4:15" ht="15.75" thickBot="1">
       <c r="D29" s="7" t="s">
         <v>23</v>
       </c>
       <c r="E29" s="8">
         <v>9.7800000000000005E-3</v>
       </c>
-      <c r="F29" s="12">
+      <c r="F29" s="10">
         <f t="shared" si="3"/>
         <v>0.01</v>
       </c>
@@ -15399,21 +15199,15 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="U29" t="s">
-        <v>11</v>
-      </c>
-      <c r="V29">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="30" spans="4:22" ht="15.75" thickBot="1">
+    </row>
+    <row r="30" spans="4:15" ht="15.75" thickBot="1">
       <c r="D30" s="7" t="s">
         <v>24</v>
       </c>
       <c r="E30" s="8">
         <v>2.3599999999999999E-2</v>
       </c>
-      <c r="F30" s="12">
+      <c r="F30" s="10">
         <f t="shared" si="3"/>
         <v>0.02</v>
       </c>
@@ -15439,21 +15233,15 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="U30" t="s">
-        <v>25</v>
-      </c>
-      <c r="V30">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="31" spans="4:22" ht="15.75" thickBot="1">
+    </row>
+    <row r="31" spans="4:15" ht="15.75" thickBot="1">
       <c r="D31" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E31" s="8">
         <v>1.5E-3</v>
       </c>
-      <c r="F31" s="12">
+      <c r="F31" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -15479,21 +15267,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U31" t="s">
-        <v>27</v>
-      </c>
-      <c r="V31">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="32" spans="4:22" ht="15.75" thickBot="1">
+    </row>
+    <row r="32" spans="4:15" ht="15.75" thickBot="1">
       <c r="D32" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E32" s="8">
         <v>1.9740000000000001E-2</v>
       </c>
-      <c r="F32" s="12">
+      <c r="F32" s="10">
         <f t="shared" si="3"/>
         <v>0.02</v>
       </c>
@@ -15527,7 +15309,7 @@
       <c r="E33" s="8">
         <v>7.3999999999999999E-4</v>
       </c>
-      <c r="F33" s="12">
+      <c r="F33" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -15555,7 +15337,7 @@
       </c>
     </row>
     <row r="34" spans="4:15">
-      <c r="F34" s="11">
+      <c r="F34" s="9">
         <f>SUM(F8:F33)</f>
         <v>0.9900000000000001</v>
       </c>
